--- a/AutomationTracker.xlsx
+++ b/AutomationTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hassan01.bhuiyan\Documents\Automation\lg-functional-ui-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A95B76-3F8D-40D7-B2A7-0B4123D4B67C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E79D5C-42A7-48B1-A941-82923F423FEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8076" tabRatio="791" xr2:uid="{D71951CC-364C-4D9A-91EE-71621FE37BBF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8076" tabRatio="791" activeTab="1" xr2:uid="{D71951CC-364C-4D9A-91EE-71621FE37BBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="16" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8544" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8545" uniqueCount="893">
   <si>
     <t>Areas</t>
   </si>
@@ -2031,9 +2031,6 @@
     <t>Your cart is Empty messge should display along with SE ALL DEALS button</t>
   </si>
   <si>
-    <t xml:space="preserve">As a guest user, ensure guest user able to add two different type of OMV Non Subscription product and remove one of them </t>
-  </si>
-  <si>
     <t>Items in cart should be 2 and price should reflect</t>
   </si>
   <si>
@@ -2394,18 +2391,9 @@
     <t>OMD Innovel HA Product</t>
   </si>
   <si>
-    <t>OMD non innovel HE Product</t>
-  </si>
-  <si>
     <t>OMD non innovel HA Product</t>
   </si>
   <si>
-    <t>OMV Subscription (water filter - register user only)</t>
-  </si>
-  <si>
-    <t>OMV Non Subscription aka One Timer (guest only)</t>
-  </si>
-  <si>
     <t>OMD Innovel HE Product (Innovel means require installation, check via postal code)</t>
   </si>
   <si>
@@ -2728,6 +2716,18 @@
   </si>
   <si>
     <t>Signup with existing account</t>
+  </si>
+  <si>
+    <t>OMV Subscription (water filter - register/sign up user only)</t>
+  </si>
+  <si>
+    <t>OMV Non Subscription aka One Timer (guest or register)</t>
+  </si>
+  <si>
+    <t>OMD non innovel HE Product (Don't need to install means no needs to check with postal code)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a guest user, ensure guest user able to add two different type of OMV Non Subscription and Subscription Product and remove one of them </t>
   </si>
 </sst>
 </file>
@@ -3514,8 +3514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36E9015-B80A-42A4-B2EF-0D61F796F00F}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3538,13 +3538,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="F1" s="25" t="s">
         <v>2</v>
@@ -3553,7 +3553,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="63" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I1" s="63"/>
       <c r="J1" s="63"/>
@@ -3572,14 +3572,14 @@
         <v>30</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2">
         <f>SUM(C2-D2)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -3588,7 +3588,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="43" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="P2" s="35">
         <v>7</v>
@@ -3618,7 +3618,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="P3" s="35">
         <v>4</v>
@@ -3648,7 +3648,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="P4" s="35">
         <v>5</v>
@@ -3678,7 +3678,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="P5" s="35">
         <v>4</v>
@@ -3686,7 +3686,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="B7">
         <v>12</v>
@@ -3720,12 +3720,12 @@
         <v>1</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>783</v>
+        <v>889</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="23.4" customHeight="1">
       <c r="A8" s="64" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B8" s="64"/>
       <c r="C8" s="64"/>
@@ -3735,7 +3735,7 @@
       </c>
       <c r="E8" s="57"/>
       <c r="H8" s="43" t="s">
-        <v>784</v>
+        <v>890</v>
       </c>
       <c r="P8" s="33">
         <f>SUM(P2:P7)</f>
@@ -3744,23 +3744,23 @@
     </row>
     <row r="9" spans="1:16" s="34" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="H9" s="34" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="34"/>
       <c r="H10" s="43" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="28.8">
       <c r="H11" s="43" t="s">
-        <v>781</v>
+        <v>891</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="H12" s="43" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -3771,14 +3771,14 @@
         <v>30</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>6</v>
       </c>
       <c r="E13">
         <f>SUM(C13-D13)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -3795,11 +3795,11 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:E18" si="1">SUM(C14-D14)</f>
+        <f t="shared" ref="E14:F18" si="1">SUM(C14-D14)</f>
         <v>22</v>
       </c>
       <c r="H14" s="48" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -3820,7 +3820,7 @@
         <v>21</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -3841,12 +3841,12 @@
         <v>23</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -3862,12 +3862,12 @@
         <v>0</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="B18">
         <v>12</v>
@@ -3885,36 +3885,40 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="H19" s="47" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="22" spans="1:8">
+      <c r="E22">
+        <f>SUM(E13:E21)</f>
+        <v>76</v>
+      </c>
       <c r="H22" s="43" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="24.6" customHeight="1">
       <c r="A23" s="65" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="B23" s="65"/>
       <c r="C23" s="65"/>
@@ -3945,8 +3949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD143452-8BB0-49B7-BC0A-526429C7C157}">
   <dimension ref="A1:H1371"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="E209" sqref="E209"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="14.4"/>
@@ -3966,7 +3970,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>17</v>
@@ -3992,10 +3996,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>25</v>
@@ -4106,7 +4110,7 @@
         <v>76</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>645</v>
@@ -4258,7 +4262,7 @@
         <v>83</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C19" s="28" t="s">
         <v>652</v>
@@ -4374,7 +4378,7 @@
         <v>93</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>655</v>
@@ -4472,12 +4476,14 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="43.2">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="28" t="s">
-        <v>660</v>
+      <c r="B32" s="50" t="s">
+        <v>794</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>892</v>
       </c>
       <c r="D32" s="28" t="s">
         <v>25</v>
@@ -4585,7 +4591,7 @@
       </c>
       <c r="F39" s="28"/>
       <c r="G39" s="28" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H39" s="28"/>
     </row>
@@ -4595,11 +4601,11 @@
       <c r="C40" s="28"/>
       <c r="D40" s="28"/>
       <c r="E40" s="28" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F40" s="28"/>
       <c r="G40" s="28" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H40" s="28"/>
     </row>
@@ -4633,7 +4639,7 @@
       </c>
       <c r="B42" s="30"/>
       <c r="C42" s="28" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D42" s="28" t="s">
         <v>25</v>
@@ -4695,13 +4701,13 @@
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28" t="s">
+        <v>664</v>
+      </c>
+      <c r="F46" s="28" t="s">
         <v>665</v>
       </c>
-      <c r="F46" s="28" t="s">
+      <c r="G46" s="28" t="s">
         <v>666</v>
-      </c>
-      <c r="G46" s="28" t="s">
-        <v>667</v>
       </c>
       <c r="H46" s="28"/>
     </row>
@@ -4735,7 +4741,7 @@
       </c>
       <c r="B48" s="30"/>
       <c r="C48" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D48" s="28" t="s">
         <v>25</v>
@@ -4797,13 +4803,13 @@
       <c r="C52" s="28"/>
       <c r="D52" s="28"/>
       <c r="E52" s="28" t="s">
+        <v>664</v>
+      </c>
+      <c r="F52" s="28" t="s">
         <v>665</v>
       </c>
-      <c r="F52" s="28" t="s">
+      <c r="G52" s="28" t="s">
         <v>666</v>
-      </c>
-      <c r="G52" s="28" t="s">
-        <v>667</v>
       </c>
       <c r="H52" s="28"/>
     </row>
@@ -4813,11 +4819,11 @@
       <c r="C53" s="28"/>
       <c r="D53" s="28"/>
       <c r="E53" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F53" s="28"/>
       <c r="G53" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H53" s="28"/>
     </row>
@@ -4851,7 +4857,7 @@
       </c>
       <c r="B55" s="30"/>
       <c r="C55" s="28" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D55" s="28" t="s">
         <v>25</v>
@@ -4871,7 +4877,7 @@
       <c r="C56" s="28"/>
       <c r="D56" s="28"/>
       <c r="E56" s="28" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F56" s="28" t="s">
         <v>411</v>
@@ -4899,7 +4905,7 @@
       <c r="C58" s="28"/>
       <c r="D58" s="28"/>
       <c r="E58" s="28" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F58" s="28"/>
       <c r="G58" s="28"/>
@@ -4925,11 +4931,11 @@
       <c r="C60" s="28"/>
       <c r="D60" s="28"/>
       <c r="E60" s="28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F60" s="28"/>
       <c r="G60" s="28" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H60" s="28"/>
     </row>
@@ -4939,11 +4945,11 @@
       <c r="C61" s="28"/>
       <c r="D61" s="28"/>
       <c r="E61" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F61" s="28"/>
       <c r="G61" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H61" s="28"/>
     </row>
@@ -4953,11 +4959,11 @@
       <c r="C62" s="28"/>
       <c r="D62" s="28"/>
       <c r="E62" s="28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F62" s="28"/>
       <c r="G62" s="28" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H62" s="28"/>
     </row>
@@ -4967,11 +4973,11 @@
       <c r="C63" s="28"/>
       <c r="D63" s="28"/>
       <c r="E63" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F63" s="28"/>
       <c r="G63" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H63" s="28"/>
     </row>
@@ -4981,11 +4987,11 @@
       <c r="C64" s="28"/>
       <c r="D64" s="28"/>
       <c r="E64" s="28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F64" s="28"/>
       <c r="G64" s="28" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H64" s="28"/>
     </row>
@@ -4995,11 +5001,11 @@
       <c r="C65" s="28"/>
       <c r="D65" s="28"/>
       <c r="E65" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F65" s="28"/>
       <c r="G65" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H65" s="28"/>
     </row>
@@ -5032,13 +5038,13 @@
         <v>123</v>
       </c>
       <c r="B67" s="50" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C67" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="D67" s="28" t="s">
         <v>681</v>
-      </c>
-      <c r="D67" s="28" t="s">
-        <v>682</v>
       </c>
       <c r="E67" s="28" t="s">
         <v>26</v>
@@ -5055,7 +5061,7 @@
       <c r="C68" s="28"/>
       <c r="D68" s="28"/>
       <c r="E68" s="28" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F68" s="28" t="s">
         <v>411</v>
@@ -5083,7 +5089,7 @@
       <c r="C70" s="28"/>
       <c r="D70" s="28"/>
       <c r="E70" s="28" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F70" s="28"/>
       <c r="G70" s="28"/>
@@ -5099,7 +5105,7 @@
       </c>
       <c r="F71" s="28"/>
       <c r="G71" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H71" s="28"/>
     </row>
@@ -5109,11 +5115,11 @@
       <c r="C72" s="28"/>
       <c r="D72" s="28"/>
       <c r="E72" s="28" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F72" s="28"/>
       <c r="G72" s="28" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H72" s="28"/>
     </row>
@@ -5147,10 +5153,10 @@
       </c>
       <c r="B74" s="30"/>
       <c r="C74" s="28" t="s">
+        <v>685</v>
+      </c>
+      <c r="D74" s="28" t="s">
         <v>686</v>
-      </c>
-      <c r="D74" s="28" t="s">
-        <v>687</v>
       </c>
       <c r="E74" s="28" t="s">
         <v>26</v>
@@ -5167,7 +5173,7 @@
       <c r="C75" s="28"/>
       <c r="D75" s="28"/>
       <c r="E75" s="28" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F75" s="28" t="s">
         <v>411</v>
@@ -5195,7 +5201,7 @@
       <c r="C77" s="28"/>
       <c r="D77" s="28"/>
       <c r="E77" s="28" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F77" s="28"/>
       <c r="G77" s="28"/>
@@ -5221,10 +5227,10 @@
       <c r="C79" s="28"/>
       <c r="D79" s="28"/>
       <c r="E79" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="F79" s="28" t="s">
         <v>688</v>
-      </c>
-      <c r="F79" s="28" t="s">
-        <v>689</v>
       </c>
       <c r="G79" s="28"/>
       <c r="H79" s="28"/>
@@ -5235,11 +5241,11 @@
       <c r="C80" s="28"/>
       <c r="D80" s="28"/>
       <c r="E80" s="28" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F80" s="28"/>
       <c r="G80" s="28" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H80" s="28"/>
     </row>
@@ -5273,10 +5279,10 @@
       </c>
       <c r="B82" s="30"/>
       <c r="C82" s="28" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E82" s="28" t="s">
         <v>26</v>
@@ -5293,7 +5299,7 @@
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
       <c r="E83" s="28" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F83" s="28" t="s">
         <v>411</v>
@@ -5321,7 +5327,7 @@
       <c r="C85" s="28"/>
       <c r="D85" s="28"/>
       <c r="E85" s="28" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F85" s="28"/>
       <c r="G85" s="28"/>
@@ -5347,10 +5353,10 @@
       <c r="C87" s="28"/>
       <c r="D87" s="28"/>
       <c r="E87" s="28" t="s">
+        <v>692</v>
+      </c>
+      <c r="F87" s="28" t="s">
         <v>693</v>
-      </c>
-      <c r="F87" s="28" t="s">
-        <v>694</v>
       </c>
       <c r="G87" s="28"/>
       <c r="H87" s="28"/>
@@ -5361,11 +5367,11 @@
       <c r="C88" s="28"/>
       <c r="D88" s="28"/>
       <c r="E88" s="28" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F88" s="28"/>
       <c r="G88" s="28" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H88" s="28"/>
     </row>
@@ -5399,10 +5405,10 @@
       </c>
       <c r="B90" s="30"/>
       <c r="C90" s="28" t="s">
+        <v>696</v>
+      </c>
+      <c r="D90" s="28" t="s">
         <v>697</v>
-      </c>
-      <c r="D90" s="28" t="s">
-        <v>698</v>
       </c>
       <c r="E90" s="28" t="s">
         <v>26</v>
@@ -5461,7 +5467,7 @@
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
       <c r="E94" s="28" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F94" s="28"/>
       <c r="G94" s="28"/>
@@ -5473,11 +5479,11 @@
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
       <c r="E95" s="28" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F95" s="28"/>
       <c r="G95" s="28" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H95" s="28"/>
     </row>
@@ -5487,11 +5493,11 @@
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
       <c r="E96" s="28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F96" s="28"/>
       <c r="G96" s="28" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H96" s="28"/>
     </row>
@@ -5501,11 +5507,11 @@
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
       <c r="E97" s="28" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F97" s="28"/>
       <c r="G97" s="28" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H97" s="28"/>
     </row>
@@ -5539,10 +5545,10 @@
       </c>
       <c r="B99" s="30"/>
       <c r="C99" s="28" t="s">
+        <v>704</v>
+      </c>
+      <c r="D99" s="28" t="s">
         <v>705</v>
-      </c>
-      <c r="D99" s="28" t="s">
-        <v>706</v>
       </c>
       <c r="E99" s="28" t="s">
         <v>26</v>
@@ -5601,7 +5607,7 @@
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
       <c r="E103" s="28" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F103" s="28"/>
       <c r="G103" s="28"/>
@@ -5613,11 +5619,11 @@
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
       <c r="E104" s="28" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F104" s="28"/>
       <c r="G104" s="28" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H104" s="28"/>
     </row>
@@ -5627,11 +5633,11 @@
       <c r="C105" s="28"/>
       <c r="D105" s="28"/>
       <c r="E105" s="28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F105" s="28"/>
       <c r="G105" s="28" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H105" s="28"/>
     </row>
@@ -5641,11 +5647,11 @@
       <c r="C106" s="28"/>
       <c r="D106" s="28"/>
       <c r="E106" s="28" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F106" s="28"/>
       <c r="G106" s="28" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H106" s="28"/>
     </row>
@@ -5655,7 +5661,7 @@
       <c r="C107" s="28"/>
       <c r="D107" s="28"/>
       <c r="E107" s="28" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F107" s="28"/>
       <c r="G107" s="28"/>
@@ -5667,11 +5673,11 @@
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
       <c r="E108" s="28" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F108" s="28"/>
       <c r="G108" s="28" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H108" s="28"/>
     </row>
@@ -5681,7 +5687,7 @@
       <c r="C109" s="28"/>
       <c r="D109" s="28"/>
       <c r="E109" s="28" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F109" s="28"/>
       <c r="G109" s="28"/>
@@ -5693,7 +5699,7 @@
       <c r="C110" s="28"/>
       <c r="D110" s="28"/>
       <c r="E110" s="28" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F110" s="28"/>
       <c r="G110" s="28"/>
@@ -5705,11 +5711,11 @@
       <c r="C111" s="28"/>
       <c r="D111" s="28"/>
       <c r="E111" s="28" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F111" s="28"/>
       <c r="G111" s="28" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H111" s="28"/>
     </row>
@@ -5743,10 +5749,10 @@
       </c>
       <c r="B113" s="30"/>
       <c r="C113" s="28" t="s">
+        <v>711</v>
+      </c>
+      <c r="D113" s="28" t="s">
         <v>712</v>
-      </c>
-      <c r="D113" s="28" t="s">
-        <v>713</v>
       </c>
       <c r="E113" s="28" t="s">
         <v>26</v>
@@ -5805,7 +5811,7 @@
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
       <c r="E117" s="28" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F117" s="28"/>
       <c r="G117" s="28"/>
@@ -5817,11 +5823,11 @@
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
       <c r="E118" s="28" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F118" s="28"/>
       <c r="G118" s="28" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H118" s="28"/>
     </row>
@@ -5831,11 +5837,11 @@
       <c r="C119" s="28"/>
       <c r="D119" s="28"/>
       <c r="E119" s="28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F119" s="28"/>
       <c r="G119" s="28" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H119" s="28"/>
     </row>
@@ -5845,11 +5851,11 @@
       <c r="C120" s="28"/>
       <c r="D120" s="28"/>
       <c r="E120" s="28" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F120" s="28"/>
       <c r="G120" s="28" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H120" s="28"/>
     </row>
@@ -5859,7 +5865,7 @@
       <c r="C121" s="28"/>
       <c r="D121" s="28"/>
       <c r="E121" s="28" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F121" s="28"/>
       <c r="G121" s="28"/>
@@ -5871,11 +5877,11 @@
       <c r="C122" s="28"/>
       <c r="D122" s="28"/>
       <c r="E122" s="28" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F122" s="28"/>
       <c r="G122" s="28" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H122" s="28"/>
     </row>
@@ -5885,7 +5891,7 @@
       <c r="C123" s="28"/>
       <c r="D123" s="28"/>
       <c r="E123" s="28" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F123" s="28"/>
       <c r="G123" s="28"/>
@@ -5897,7 +5903,7 @@
       <c r="C124" s="28"/>
       <c r="D124" s="28"/>
       <c r="E124" s="28" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F124" s="28"/>
       <c r="G124" s="28"/>
@@ -5909,11 +5915,11 @@
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
       <c r="E125" s="28" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F125" s="28"/>
       <c r="G125" s="28" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H125" s="28"/>
     </row>
@@ -5947,7 +5953,7 @@
       </c>
       <c r="B127" s="30"/>
       <c r="C127" s="28" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D127" s="28" t="s">
         <v>25</v>
@@ -6007,11 +6013,11 @@
       <c r="C131" s="28"/>
       <c r="D131" s="28"/>
       <c r="E131" s="28" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F131" s="28"/>
       <c r="G131" s="28" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H131" s="28"/>
     </row>
@@ -6047,11 +6053,11 @@
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
       <c r="E134" s="28" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F134" s="28"/>
       <c r="G134" s="28" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H134" s="28"/>
     </row>
@@ -6085,13 +6091,13 @@
       </c>
       <c r="B136" s="30"/>
       <c r="C136" s="28" t="s">
+        <v>719</v>
+      </c>
+      <c r="D136" s="28" t="s">
+        <v>686</v>
+      </c>
+      <c r="E136" s="28" t="s">
         <v>720</v>
-      </c>
-      <c r="D136" s="28" t="s">
-        <v>687</v>
-      </c>
-      <c r="E136" s="28" t="s">
-        <v>721</v>
       </c>
       <c r="F136" s="28"/>
       <c r="G136" s="28"/>
@@ -6105,7 +6111,7 @@
       <c r="C137" s="28"/>
       <c r="D137" s="28"/>
       <c r="E137" s="28" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F137" s="28"/>
       <c r="G137" s="28"/>
@@ -6117,11 +6123,11 @@
       <c r="C138" s="28"/>
       <c r="D138" s="28"/>
       <c r="E138" s="28" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F138" s="28"/>
       <c r="G138" s="28" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H138" s="28"/>
     </row>
@@ -6131,7 +6137,7 @@
       <c r="C139" s="28"/>
       <c r="D139" s="28"/>
       <c r="E139" s="28" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F139" s="28" t="s">
         <v>411</v>
@@ -6145,7 +6151,7 @@
       <c r="C140" s="28"/>
       <c r="D140" s="28"/>
       <c r="E140" s="28" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F140" s="28"/>
       <c r="G140" s="28"/>
@@ -6157,11 +6163,11 @@
       <c r="C141" s="28"/>
       <c r="D141" s="28"/>
       <c r="E141" s="28" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F141" s="28"/>
       <c r="G141" s="28" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H141" s="28"/>
     </row>
@@ -6195,13 +6201,13 @@
       </c>
       <c r="B143" s="30"/>
       <c r="C143" s="28" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D143" s="28" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E143" s="28" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F143" s="28"/>
       <c r="G143" s="28"/>
@@ -6215,7 +6221,7 @@
       <c r="C144" s="28"/>
       <c r="D144" s="28"/>
       <c r="E144" s="28" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F144" s="28"/>
       <c r="G144" s="28"/>
@@ -6227,11 +6233,11 @@
       <c r="C145" s="28"/>
       <c r="D145" s="28"/>
       <c r="E145" s="28" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F145" s="28"/>
       <c r="G145" s="28" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H145" s="28"/>
     </row>
@@ -6269,7 +6275,7 @@
       <c r="C148" s="28"/>
       <c r="D148" s="28"/>
       <c r="E148" s="28" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F148" s="28"/>
       <c r="G148" s="28"/>
@@ -6281,7 +6287,7 @@
       <c r="C149" s="28"/>
       <c r="D149" s="28"/>
       <c r="E149" s="28" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F149" s="28"/>
       <c r="G149" s="28" t="s">
@@ -6319,13 +6325,13 @@
       </c>
       <c r="B151" s="30"/>
       <c r="C151" s="28" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D151" s="28" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E151" s="28" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F151" s="28"/>
       <c r="G151" s="28"/>
@@ -6339,7 +6345,7 @@
       <c r="C152" s="28"/>
       <c r="D152" s="28"/>
       <c r="E152" s="28" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F152" s="28"/>
       <c r="G152" s="28"/>
@@ -6351,11 +6357,11 @@
       <c r="C153" s="28"/>
       <c r="D153" s="28"/>
       <c r="E153" s="28" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F153" s="28"/>
       <c r="G153" s="28" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H153" s="28"/>
     </row>
@@ -6393,7 +6399,7 @@
       <c r="C156" s="28"/>
       <c r="D156" s="28"/>
       <c r="E156" s="28" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F156" s="28"/>
       <c r="G156" s="28"/>
@@ -6405,7 +6411,7 @@
       <c r="C157" s="28"/>
       <c r="D157" s="28"/>
       <c r="E157" s="28" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F157" s="28"/>
       <c r="G157" s="28" t="s">
@@ -6419,13 +6425,13 @@
       <c r="C158" s="28"/>
       <c r="D158" s="28"/>
       <c r="E158" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="F158" s="28" t="s">
+        <v>693</v>
+      </c>
+      <c r="G158" s="28" t="s">
         <v>732</v>
-      </c>
-      <c r="F158" s="28" t="s">
-        <v>694</v>
-      </c>
-      <c r="G158" s="28" t="s">
-        <v>733</v>
       </c>
       <c r="H158" s="28"/>
     </row>
@@ -6459,13 +6465,13 @@
       </c>
       <c r="B160" s="30"/>
       <c r="C160" s="28" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D160" s="28" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E160" s="28" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F160" s="28"/>
       <c r="G160" s="28"/>
@@ -6479,7 +6485,7 @@
       <c r="C161" s="28"/>
       <c r="D161" s="28"/>
       <c r="E161" s="28" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F161" s="28"/>
       <c r="G161" s="28"/>
@@ -6491,11 +6497,11 @@
       <c r="C162" s="28"/>
       <c r="D162" s="28"/>
       <c r="E162" s="28" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F162" s="28"/>
       <c r="G162" s="28" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H162" s="28"/>
     </row>
@@ -6515,7 +6521,7 @@
       <c r="C164" s="28"/>
       <c r="D164" s="28"/>
       <c r="E164" s="28" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F164" s="28" t="s">
         <v>156</v>
@@ -6543,7 +6549,7 @@
       <c r="C166" s="28"/>
       <c r="D166" s="28"/>
       <c r="E166" s="28" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F166" s="28"/>
       <c r="G166" s="28" t="s">
@@ -6557,11 +6563,11 @@
       <c r="C167" s="28"/>
       <c r="D167" s="28"/>
       <c r="E167" s="28" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F167" s="28"/>
       <c r="G167" s="28" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H167" s="28"/>
     </row>
@@ -6595,13 +6601,13 @@
       </c>
       <c r="B169" s="30"/>
       <c r="C169" s="28" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D169" s="28" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E169" s="28" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F169" s="28"/>
       <c r="G169" s="28"/>
@@ -6615,7 +6621,7 @@
       <c r="C170" s="28"/>
       <c r="D170" s="28"/>
       <c r="E170" s="28" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F170" s="28"/>
       <c r="G170" s="28"/>
@@ -6627,11 +6633,11 @@
       <c r="C171" s="28"/>
       <c r="D171" s="28"/>
       <c r="E171" s="28" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F171" s="28"/>
       <c r="G171" s="28" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H171" s="28"/>
     </row>
@@ -6669,7 +6675,7 @@
       <c r="C174" s="28"/>
       <c r="D174" s="28"/>
       <c r="E174" s="28" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F174" s="28"/>
       <c r="G174" s="28"/>
@@ -6681,7 +6687,7 @@
       <c r="C175" s="28"/>
       <c r="D175" s="28"/>
       <c r="E175" s="28" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F175" s="28"/>
       <c r="G175" s="28" t="s">
@@ -6695,11 +6701,11 @@
       <c r="C176" s="28"/>
       <c r="D176" s="28"/>
       <c r="E176" s="28" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F176" s="28"/>
       <c r="G176" s="28" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H176" s="28"/>
     </row>
@@ -6733,7 +6739,7 @@
       </c>
       <c r="B178" s="30"/>
       <c r="C178" s="28" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D178" s="28" t="s">
         <v>25</v>
@@ -6841,7 +6847,7 @@
       </c>
       <c r="F185" s="28"/>
       <c r="G185" s="28" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H185" s="28"/>
     </row>
@@ -6851,11 +6857,11 @@
       <c r="C186" s="28"/>
       <c r="D186" s="28"/>
       <c r="E186" s="28" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F186" s="28"/>
       <c r="G186" s="28" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H186" s="28"/>
     </row>
@@ -6888,13 +6894,13 @@
         <v>234</v>
       </c>
       <c r="B188" s="50" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C188" s="66" t="s">
+        <v>744</v>
+      </c>
+      <c r="D188" s="66" t="s">
         <v>745</v>
-      </c>
-      <c r="D188" s="66" t="s">
-        <v>746</v>
       </c>
       <c r="E188" s="66" t="s">
         <v>26</v>
@@ -6941,7 +6947,7 @@
       </c>
       <c r="F191" s="28"/>
       <c r="G191" s="28" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H191" s="28"/>
     </row>
@@ -6951,11 +6957,11 @@
       <c r="C192" s="51"/>
       <c r="D192" s="51"/>
       <c r="E192" s="66" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F192" s="66"/>
       <c r="G192" s="39" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="H192" s="66"/>
     </row>
@@ -6967,7 +6973,7 @@
       <c r="E193" s="66"/>
       <c r="F193" s="66"/>
       <c r="G193" s="28" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H193" s="66"/>
     </row>
@@ -7001,10 +7007,10 @@
       </c>
       <c r="B195" s="37"/>
       <c r="C195" s="66" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D195" s="66" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E195" s="66" t="s">
         <v>26</v>
@@ -7051,7 +7057,7 @@
       </c>
       <c r="F198" s="28"/>
       <c r="G198" s="28" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H198" s="28"/>
     </row>
@@ -7061,11 +7067,11 @@
       <c r="C199" s="66"/>
       <c r="D199" s="66"/>
       <c r="E199" s="66" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F199" s="66"/>
       <c r="G199" s="28" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H199" s="66"/>
     </row>
@@ -7077,7 +7083,7 @@
       <c r="E200" s="66"/>
       <c r="F200" s="66"/>
       <c r="G200" s="28" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H200" s="66"/>
     </row>
@@ -7087,11 +7093,11 @@
       <c r="C201" s="28"/>
       <c r="D201" s="28"/>
       <c r="E201" s="28" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F201" s="28"/>
       <c r="G201" s="28" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H201" s="28"/>
     </row>
@@ -7101,11 +7107,11 @@
       <c r="C202" s="28"/>
       <c r="D202" s="28"/>
       <c r="E202" s="28" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F202" s="28"/>
       <c r="G202" s="28" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H202" s="28"/>
     </row>
@@ -7115,11 +7121,11 @@
       <c r="C203" s="28"/>
       <c r="D203" s="28"/>
       <c r="E203" s="28" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F203" s="28"/>
       <c r="G203" s="28" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H203" s="28"/>
     </row>
@@ -7129,11 +7135,11 @@
       <c r="C204" s="28"/>
       <c r="D204" s="28"/>
       <c r="E204" s="28" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F204" s="28"/>
       <c r="G204" s="28" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H204" s="28"/>
     </row>
@@ -7143,11 +7149,11 @@
       <c r="C205" s="28"/>
       <c r="D205" s="28"/>
       <c r="E205" s="28" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F205" s="28"/>
       <c r="G205" s="28" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H205" s="28"/>
     </row>
@@ -7180,13 +7186,13 @@
         <v>243</v>
       </c>
       <c r="B207" s="50" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C207" s="66" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D207" s="66" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E207" s="66" t="s">
         <v>26</v>
@@ -7233,7 +7239,7 @@
       </c>
       <c r="F210" s="28"/>
       <c r="G210" s="28" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H210" s="28"/>
     </row>
@@ -7243,11 +7249,11 @@
       <c r="C211" s="66"/>
       <c r="D211" s="66"/>
       <c r="E211" s="66" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F211" s="66"/>
       <c r="G211" s="28" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H211" s="66"/>
     </row>
@@ -7259,7 +7265,7 @@
       <c r="E212" s="66"/>
       <c r="F212" s="66"/>
       <c r="G212" s="28" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H212" s="66"/>
     </row>
@@ -7269,11 +7275,11 @@
       <c r="C213" s="28"/>
       <c r="D213" s="28"/>
       <c r="E213" s="28" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F213" s="28"/>
       <c r="G213" s="28" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H213" s="28"/>
     </row>
@@ -7283,11 +7289,11 @@
       <c r="C214" s="28"/>
       <c r="D214" s="28"/>
       <c r="E214" s="28" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F214" s="28"/>
       <c r="G214" s="28" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H214" s="28"/>
     </row>
@@ -7297,11 +7303,11 @@
       <c r="C215" s="28"/>
       <c r="D215" s="28"/>
       <c r="E215" s="28" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F215" s="28"/>
       <c r="G215" s="28" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H215" s="28"/>
     </row>
@@ -7335,10 +7341,10 @@
       </c>
       <c r="B217" s="30"/>
       <c r="C217" s="66" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D217" s="66" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E217" s="66" t="s">
         <v>26</v>
@@ -7365,7 +7371,7 @@
       <c r="C219" s="28"/>
       <c r="D219" s="28"/>
       <c r="E219" s="28" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F219" s="28" t="s">
         <v>161</v>
@@ -7385,7 +7391,7 @@
       </c>
       <c r="F220" s="28"/>
       <c r="G220" s="28" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H220" s="28"/>
     </row>
@@ -7395,11 +7401,11 @@
       <c r="C221" s="66"/>
       <c r="D221" s="66"/>
       <c r="E221" s="66" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F221" s="66"/>
       <c r="G221" s="28" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H221" s="66"/>
     </row>
@@ -7411,7 +7417,7 @@
       <c r="E222" s="66"/>
       <c r="F222" s="66"/>
       <c r="G222" s="28" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H222" s="66"/>
     </row>
@@ -7445,10 +7451,10 @@
       </c>
       <c r="B224" s="30"/>
       <c r="C224" s="66" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D224" s="66" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E224" s="66" t="s">
         <v>26</v>
@@ -7475,7 +7481,7 @@
       <c r="C226" s="28"/>
       <c r="D226" s="28"/>
       <c r="E226" s="28" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F226" s="28" t="s">
         <v>161</v>
@@ -7495,7 +7501,7 @@
       </c>
       <c r="F227" s="28"/>
       <c r="G227" s="28" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H227" s="28"/>
     </row>
@@ -7505,11 +7511,11 @@
       <c r="C228" s="66"/>
       <c r="D228" s="66"/>
       <c r="E228" s="66" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F228" s="66"/>
       <c r="G228" s="28" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H228" s="66"/>
     </row>
@@ -7521,7 +7527,7 @@
       <c r="E229" s="66"/>
       <c r="F229" s="66"/>
       <c r="G229" s="28" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H229" s="66"/>
     </row>
@@ -7531,11 +7537,11 @@
       <c r="C230" s="28"/>
       <c r="D230" s="28"/>
       <c r="E230" s="28" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F230" s="28"/>
       <c r="G230" s="28" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H230" s="28"/>
     </row>
@@ -7545,11 +7551,11 @@
       <c r="C231" s="28"/>
       <c r="D231" s="28"/>
       <c r="E231" s="28" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F231" s="28"/>
       <c r="G231" s="28" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H231" s="28"/>
     </row>
@@ -7559,11 +7565,11 @@
       <c r="C232" s="28"/>
       <c r="D232" s="28"/>
       <c r="E232" s="28" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F232" s="28"/>
       <c r="G232" s="28" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H232" s="28"/>
     </row>
@@ -7573,11 +7579,11 @@
       <c r="C233" s="28"/>
       <c r="D233" s="28"/>
       <c r="E233" s="28" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F233" s="28"/>
       <c r="G233" s="28" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H233" s="28"/>
     </row>
@@ -7587,11 +7593,11 @@
       <c r="C234" s="28"/>
       <c r="D234" s="28"/>
       <c r="E234" s="28" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F234" s="28"/>
       <c r="G234" s="28" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H234" s="28"/>
     </row>
@@ -7625,10 +7631,10 @@
       </c>
       <c r="B236" s="30"/>
       <c r="C236" s="66" t="s">
+        <v>767</v>
+      </c>
+      <c r="D236" s="66" t="s">
         <v>768</v>
-      </c>
-      <c r="D236" s="66" t="s">
-        <v>769</v>
       </c>
       <c r="E236" s="66" t="s">
         <v>26</v>
@@ -7655,7 +7661,7 @@
       <c r="C238" s="28"/>
       <c r="D238" s="28"/>
       <c r="E238" s="28" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F238" s="28" t="s">
         <v>161</v>
@@ -7675,7 +7681,7 @@
       </c>
       <c r="F239" s="28"/>
       <c r="G239" s="28" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H239" s="28"/>
     </row>
@@ -7685,11 +7691,11 @@
       <c r="C240" s="66"/>
       <c r="D240" s="66"/>
       <c r="E240" s="66" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F240" s="66"/>
       <c r="G240" s="28" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H240" s="66"/>
     </row>
@@ -7701,7 +7707,7 @@
       <c r="E241" s="66"/>
       <c r="F241" s="66"/>
       <c r="G241" s="28" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H241" s="66"/>
     </row>
@@ -7711,11 +7717,11 @@
       <c r="C242" s="28"/>
       <c r="D242" s="28"/>
       <c r="E242" s="28" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F242" s="28"/>
       <c r="G242" s="28" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H242" s="28"/>
     </row>
@@ -7725,11 +7731,11 @@
       <c r="C243" s="28"/>
       <c r="D243" s="28"/>
       <c r="E243" s="28" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F243" s="28"/>
       <c r="G243" s="28" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H243" s="28"/>
     </row>
@@ -7739,11 +7745,11 @@
       <c r="C244" s="28"/>
       <c r="D244" s="28"/>
       <c r="E244" s="28" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F244" s="28"/>
       <c r="G244" s="28" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H244" s="28"/>
     </row>
@@ -7777,10 +7783,10 @@
       </c>
       <c r="B246" s="30"/>
       <c r="C246" s="66" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D246" s="66" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E246" s="66" t="s">
         <v>26</v>
@@ -7807,7 +7813,7 @@
       <c r="C248" s="28"/>
       <c r="D248" s="28"/>
       <c r="E248" s="28" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F248" s="28" t="s">
         <v>161</v>
@@ -7827,7 +7833,7 @@
       </c>
       <c r="F249" s="28"/>
       <c r="G249" s="28" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H249" s="28"/>
     </row>
@@ -7837,11 +7843,11 @@
       <c r="C250" s="66"/>
       <c r="D250" s="66"/>
       <c r="E250" s="66" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F250" s="66"/>
       <c r="G250" s="28" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H250" s="66"/>
     </row>
@@ -7853,7 +7859,7 @@
       <c r="E251" s="66"/>
       <c r="F251" s="66"/>
       <c r="G251" s="28" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H251" s="66"/>
     </row>
@@ -7863,11 +7869,11 @@
       <c r="C252" s="28"/>
       <c r="D252" s="28"/>
       <c r="E252" s="28" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F252" s="28"/>
       <c r="G252" s="28" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H252" s="28"/>
     </row>
@@ -7877,11 +7883,11 @@
       <c r="C253" s="28"/>
       <c r="D253" s="28"/>
       <c r="E253" s="28" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F253" s="28"/>
       <c r="G253" s="28" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H253" s="28"/>
     </row>
@@ -7891,11 +7897,11 @@
       <c r="C254" s="28"/>
       <c r="D254" s="28"/>
       <c r="E254" s="28" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F254" s="28"/>
       <c r="G254" s="28" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H254" s="28"/>
     </row>
@@ -7905,7 +7911,7 @@
       <c r="C255" s="28"/>
       <c r="D255" s="28"/>
       <c r="E255" s="28" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F255" s="28"/>
       <c r="G255" s="28"/>
@@ -7917,11 +7923,11 @@
       <c r="C256" s="28"/>
       <c r="D256" s="28"/>
       <c r="E256" s="28" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F256" s="28"/>
       <c r="G256" s="28" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H256" s="28"/>
     </row>
@@ -7931,11 +7937,11 @@
       <c r="C257" s="28"/>
       <c r="D257" s="28"/>
       <c r="E257" s="28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F257" s="28"/>
       <c r="G257" s="28" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H257" s="28"/>
     </row>
@@ -7945,11 +7951,11 @@
       <c r="C258" s="28"/>
       <c r="D258" s="28"/>
       <c r="E258" s="28" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F258" s="28"/>
       <c r="G258" s="28" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H258" s="28"/>
     </row>
@@ -7983,7 +7989,7 @@
       </c>
       <c r="B260" s="30"/>
       <c r="C260" s="28" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D260" s="28" t="s">
         <v>25</v>
@@ -8097,7 +8103,7 @@
       </c>
       <c r="B267" s="30"/>
       <c r="C267" s="28" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D267" s="28" t="s">
         <v>25</v>
@@ -8177,7 +8183,7 @@
       </c>
       <c r="F272" s="28"/>
       <c r="G272" s="28" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H272" s="28"/>
     </row>
@@ -19199,76 +19205,30 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="F953:F957"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="D236:D237"/>
-    <mergeCell ref="E236:E237"/>
-    <mergeCell ref="A224:A225"/>
-    <mergeCell ref="C224:C225"/>
-    <mergeCell ref="D224:D225"/>
-    <mergeCell ref="E224:E225"/>
-    <mergeCell ref="F224:F225"/>
-    <mergeCell ref="A240:A241"/>
-    <mergeCell ref="C240:C241"/>
-    <mergeCell ref="D240:D241"/>
-    <mergeCell ref="E240:E241"/>
-    <mergeCell ref="F240:F241"/>
-    <mergeCell ref="E953:E957"/>
-    <mergeCell ref="F188:F189"/>
-    <mergeCell ref="G188:G189"/>
-    <mergeCell ref="H188:H189"/>
-    <mergeCell ref="E192:E193"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="H192:H193"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="G195:G196"/>
-    <mergeCell ref="H195:H196"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="E199:E200"/>
-    <mergeCell ref="F199:F200"/>
-    <mergeCell ref="H199:H200"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="D195:D196"/>
-    <mergeCell ref="E195:E196"/>
-    <mergeCell ref="F207:F208"/>
-    <mergeCell ref="G207:G208"/>
-    <mergeCell ref="H207:H208"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="E211:E212"/>
-    <mergeCell ref="F211:F212"/>
-    <mergeCell ref="H211:H212"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="D207:D208"/>
-    <mergeCell ref="E207:E208"/>
-    <mergeCell ref="F217:F218"/>
-    <mergeCell ref="G217:G218"/>
-    <mergeCell ref="H217:H218"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="F221:F222"/>
-    <mergeCell ref="H221:H222"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="E217:E218"/>
-    <mergeCell ref="G224:G225"/>
-    <mergeCell ref="H224:H225"/>
-    <mergeCell ref="A228:A229"/>
-    <mergeCell ref="C228:C229"/>
-    <mergeCell ref="D228:D229"/>
-    <mergeCell ref="E228:E229"/>
-    <mergeCell ref="F228:F229"/>
-    <mergeCell ref="H228:H229"/>
-    <mergeCell ref="F236:F237"/>
-    <mergeCell ref="G236:G237"/>
-    <mergeCell ref="H236:H237"/>
+    <mergeCell ref="F1334:F1336"/>
+    <mergeCell ref="H1334:H1336"/>
+    <mergeCell ref="A1370:A1371"/>
+    <mergeCell ref="C1370:C1371"/>
+    <mergeCell ref="D1370:D1371"/>
+    <mergeCell ref="E1370:E1371"/>
+    <mergeCell ref="F1370:F1371"/>
+    <mergeCell ref="H1370:H1371"/>
+    <mergeCell ref="F1287:F1289"/>
+    <mergeCell ref="H1287:H1289"/>
+    <mergeCell ref="A1308:A1314"/>
+    <mergeCell ref="C1308:C1314"/>
+    <mergeCell ref="D1308:D1314"/>
+    <mergeCell ref="E1308:E1314"/>
+    <mergeCell ref="F1308:F1314"/>
+    <mergeCell ref="H1308:H1314"/>
+    <mergeCell ref="A1334:A1336"/>
+    <mergeCell ref="C1334:C1336"/>
+    <mergeCell ref="D1334:D1336"/>
+    <mergeCell ref="E1334:E1336"/>
+    <mergeCell ref="A1287:A1289"/>
+    <mergeCell ref="C1287:C1289"/>
+    <mergeCell ref="D1287:D1289"/>
+    <mergeCell ref="E1287:E1289"/>
     <mergeCell ref="H240:H241"/>
     <mergeCell ref="G953:G957"/>
     <mergeCell ref="H953:H957"/>
@@ -19293,30 +19253,76 @@
     <mergeCell ref="G246:G247"/>
     <mergeCell ref="A953:A957"/>
     <mergeCell ref="C953:C957"/>
-    <mergeCell ref="F1334:F1336"/>
-    <mergeCell ref="H1334:H1336"/>
-    <mergeCell ref="A1370:A1371"/>
-    <mergeCell ref="C1370:C1371"/>
-    <mergeCell ref="D1370:D1371"/>
-    <mergeCell ref="E1370:E1371"/>
-    <mergeCell ref="F1370:F1371"/>
-    <mergeCell ref="H1370:H1371"/>
-    <mergeCell ref="F1287:F1289"/>
-    <mergeCell ref="H1287:H1289"/>
-    <mergeCell ref="A1308:A1314"/>
-    <mergeCell ref="C1308:C1314"/>
-    <mergeCell ref="D1308:D1314"/>
-    <mergeCell ref="E1308:E1314"/>
-    <mergeCell ref="F1308:F1314"/>
-    <mergeCell ref="H1308:H1314"/>
-    <mergeCell ref="A1334:A1336"/>
-    <mergeCell ref="C1334:C1336"/>
-    <mergeCell ref="D1334:D1336"/>
-    <mergeCell ref="E1334:E1336"/>
-    <mergeCell ref="A1287:A1289"/>
-    <mergeCell ref="C1287:C1289"/>
-    <mergeCell ref="D1287:D1289"/>
-    <mergeCell ref="E1287:E1289"/>
+    <mergeCell ref="G224:G225"/>
+    <mergeCell ref="H224:H225"/>
+    <mergeCell ref="A228:A229"/>
+    <mergeCell ref="C228:C229"/>
+    <mergeCell ref="D228:D229"/>
+    <mergeCell ref="E228:E229"/>
+    <mergeCell ref="F228:F229"/>
+    <mergeCell ref="H228:H229"/>
+    <mergeCell ref="F236:F237"/>
+    <mergeCell ref="G236:G237"/>
+    <mergeCell ref="H236:H237"/>
+    <mergeCell ref="F217:F218"/>
+    <mergeCell ref="G217:G218"/>
+    <mergeCell ref="H217:H218"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="H221:H222"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="E217:E218"/>
+    <mergeCell ref="F207:F208"/>
+    <mergeCell ref="G207:G208"/>
+    <mergeCell ref="H207:H208"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="E211:E212"/>
+    <mergeCell ref="F211:F212"/>
+    <mergeCell ref="H211:H212"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="D207:D208"/>
+    <mergeCell ref="E207:E208"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="G195:G196"/>
+    <mergeCell ref="H195:H196"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="E199:E200"/>
+    <mergeCell ref="F199:F200"/>
+    <mergeCell ref="H199:H200"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="E195:E196"/>
+    <mergeCell ref="F188:F189"/>
+    <mergeCell ref="G188:G189"/>
+    <mergeCell ref="H188:H189"/>
+    <mergeCell ref="E192:E193"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="H192:H193"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="F953:F957"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="D236:D237"/>
+    <mergeCell ref="E236:E237"/>
+    <mergeCell ref="A224:A225"/>
+    <mergeCell ref="C224:C225"/>
+    <mergeCell ref="D224:D225"/>
+    <mergeCell ref="E224:E225"/>
+    <mergeCell ref="F224:F225"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="D240:D241"/>
+    <mergeCell ref="E240:E241"/>
+    <mergeCell ref="F240:F241"/>
+    <mergeCell ref="E953:E957"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19349,7 +19355,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>17</v>
@@ -19378,7 +19384,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>24</v>
@@ -19827,7 +19833,7 @@
         <v>83</v>
       </c>
       <c r="B64" s="55" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>84</v>
@@ -23001,7 +23007,7 @@
         <v>200</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D500" s="3" t="s">
         <v>25</v>
@@ -23234,7 +23240,7 @@
         <v>212</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D531" s="3" t="s">
         <v>25</v>
@@ -29120,8 +29126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C91E246-139C-4A27-993D-1954A0D58EAF}">
   <dimension ref="A1:H1335"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C575" sqref="C575"/>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -29141,7 +29147,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>17</v>
@@ -29167,7 +29173,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>364</v>
@@ -29567,7 +29573,7 @@
         <v>76</v>
       </c>
       <c r="B31" s="49" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>380</v>
@@ -30717,11 +30723,11 @@
       <c r="H114" s="19"/>
     </row>
     <row r="115" spans="1:8" ht="28.8">
-      <c r="A115" s="17" t="s">
+      <c r="A115" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="B115" s="21" t="s">
-        <v>798</v>
+      <c r="B115" s="56" t="s">
+        <v>794</v>
       </c>
       <c r="C115" s="17" t="s">
         <v>397</v>
@@ -36925,7 +36931,7 @@
         <v>234</v>
       </c>
       <c r="B569" s="56" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C569" s="17" t="s">
         <v>463</v>
@@ -47488,8 +47494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3C25F2-2599-4CFA-BD29-E51596B78028}">
   <dimension ref="A1:H1376"/>
   <sheetViews>
-    <sheetView topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="B241" sqref="A241:B241"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -47510,7 +47516,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>17</v>
@@ -47536,7 +47542,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>499</v>
@@ -47731,7 +47737,7 @@
         <v>76</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>503</v>
@@ -48286,7 +48292,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="32" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>509</v>
@@ -49246,7 +49252,7 @@
         <v>128</v>
       </c>
       <c r="B217" s="55" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>526</v>
@@ -49434,7 +49440,7 @@
         <v>132</v>
       </c>
       <c r="B241" s="55" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>528</v>
@@ -59046,7 +59052,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>17</v>
@@ -59072,10 +59078,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>25</v>
@@ -59093,7 +59099,7 @@
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
       <c r="E3" s="39" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>411</v>
@@ -59107,11 +59113,11 @@
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
       <c r="E4" s="39" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F4" s="37"/>
       <c r="G4" s="39" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="H4" s="37"/>
     </row>
@@ -59130,10 +59136,10 @@
         <v>76</v>
       </c>
       <c r="B6" s="39" t="s">
+        <v>794</v>
+      </c>
+      <c r="C6" s="39" t="s">
         <v>798</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>802</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>25</v>
@@ -59151,10 +59157,10 @@
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
       <c r="E7" s="39" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
@@ -59165,11 +59171,11 @@
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
       <c r="E8" s="39" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="39" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="H8" s="37"/>
     </row>
@@ -59179,10 +59185,10 @@
         <v>83</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D10" s="37" t="s">
         <v>25</v>
@@ -59200,7 +59206,7 @@
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
       <c r="E11" s="39" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F11" s="37" t="s">
         <v>29</v>
@@ -59214,11 +59220,11 @@
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
       <c r="E12" s="39" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="39" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="H12" s="37"/>
     </row>
@@ -59237,10 +59243,10 @@
         <v>93</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>25</v>
@@ -59257,7 +59263,7 @@
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
       <c r="E15" s="39" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F15" s="37" t="s">
         <v>404</v>
@@ -59270,11 +59276,11 @@
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
       <c r="E16" s="39" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="39" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="41" customFormat="1"/>
@@ -59283,10 +59289,10 @@
         <v>95</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>25</v>
@@ -59303,7 +59309,7 @@
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
       <c r="E19" s="39" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="F19" s="37" t="s">
         <v>161</v>
@@ -59316,11 +59322,11 @@
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
       <c r="E20" s="39" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="39" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="41" customFormat="1"/>
@@ -59329,10 +59335,10 @@
         <v>103</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>25</v>
@@ -59349,7 +59355,7 @@
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
       <c r="E23" s="39" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="F23" s="37" t="s">
         <v>391</v>
@@ -59362,11 +59368,11 @@
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
       <c r="E24" s="39" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="39" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="41" customFormat="1"/>
@@ -59375,10 +59381,10 @@
         <v>105</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="D26" s="37" t="s">
         <v>25</v>
@@ -59395,10 +59401,10 @@
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
       <c r="E27" s="39" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="F27" s="39" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="G27" s="37"/>
     </row>
@@ -59408,11 +59414,11 @@
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
       <c r="E28" s="39" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F28" s="37"/>
       <c r="G28" s="39" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="41" customFormat="1"/>
@@ -59421,10 +59427,10 @@
         <v>111</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C30" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="E30" s="38" t="s">
         <v>26</v>
@@ -59434,18 +59440,18 @@
     </row>
     <row r="31" spans="1:7">
       <c r="E31" s="39" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="F31" s="39"/>
       <c r="G31" s="38"/>
     </row>
     <row r="32" spans="1:7" ht="43.2">
       <c r="E32" s="39" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F32" s="38"/>
       <c r="G32" s="39" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="41" customFormat="1"/>
@@ -59454,10 +59460,10 @@
         <v>123</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C34" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="E34" s="38" t="s">
         <v>26</v>
@@ -59467,18 +59473,18 @@
     </row>
     <row r="35" spans="1:7">
       <c r="E35" s="39" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="F35" s="39"/>
       <c r="G35" s="38"/>
     </row>
     <row r="36" spans="1:7" ht="43.2">
       <c r="E36" s="39" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F36" s="38"/>
       <c r="G36" s="39" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="41" customFormat="1"/>
@@ -59487,10 +59493,10 @@
         <v>128</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C38" s="61" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="E38" s="38" t="s">
         <v>26</v>
@@ -59500,29 +59506,29 @@
     </row>
     <row r="39" spans="1:7">
       <c r="E39" s="39" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="F39" s="39"/>
       <c r="G39" s="38"/>
     </row>
     <row r="40" spans="1:7">
       <c r="E40" s="39" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F40" s="38"/>
       <c r="G40" s="39"/>
     </row>
     <row r="41" spans="1:7">
       <c r="E41" s="39" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="28.8">
       <c r="E42" s="39" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="G42" s="43" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="41" customFormat="1"/>
@@ -59531,10 +59537,10 @@
         <v>132</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C44" s="61" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="E44" s="38" t="s">
         <v>26</v>
@@ -59544,29 +59550,29 @@
     </row>
     <row r="45" spans="1:7">
       <c r="E45" s="39" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="F45" s="39"/>
       <c r="G45" s="38"/>
     </row>
     <row r="46" spans="1:7">
       <c r="E46" s="39" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F46" s="38"/>
       <c r="G46" s="39"/>
     </row>
     <row r="47" spans="1:7">
       <c r="E47" s="39" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="28.8">
       <c r="E48" s="39" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="G48" s="43" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="41" customFormat="1"/>
@@ -59575,10 +59581,10 @@
         <v>136</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C50" s="61" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="E50" s="38" t="s">
         <v>26</v>
@@ -59588,29 +59594,29 @@
     </row>
     <row r="51" spans="1:7">
       <c r="E51" s="39" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="F51" s="39"/>
       <c r="G51" s="38"/>
     </row>
     <row r="52" spans="1:7">
       <c r="E52" s="39" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F52" s="38"/>
       <c r="G52" s="39"/>
     </row>
     <row r="53" spans="1:7">
       <c r="E53" s="39" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="28.8">
       <c r="E54" s="39" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="G54" s="43" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="41" customFormat="1"/>
@@ -59619,10 +59625,10 @@
         <v>142</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C56" s="61" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="E56" s="38" t="s">
         <v>26</v>
@@ -59632,29 +59638,29 @@
     </row>
     <row r="57" spans="1:7">
       <c r="E57" s="39" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="F57" s="39"/>
       <c r="G57" s="38"/>
     </row>
     <row r="58" spans="1:7">
       <c r="E58" s="39" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F58" s="38"/>
       <c r="G58" s="39"/>
     </row>
     <row r="59" spans="1:7">
       <c r="E59" s="39" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="28.8">
       <c r="E60" s="39" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="G60" s="43" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="41" customFormat="1" ht="15" customHeight="1"/>
@@ -59663,10 +59669,10 @@
         <v>146</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="D62" s="38" t="s">
         <v>25</v>
@@ -59683,7 +59689,7 @@
       <c r="C63" s="39"/>
       <c r="D63" s="38"/>
       <c r="E63" s="39" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="F63" s="38"/>
       <c r="G63" s="38"/>
@@ -59694,7 +59700,7 @@
       <c r="C64" s="38"/>
       <c r="D64" s="38"/>
       <c r="E64" s="39" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F64" s="38" t="s">
         <v>411</v>
@@ -59707,11 +59713,11 @@
       <c r="C65" s="38"/>
       <c r="D65" s="38"/>
       <c r="E65" s="39" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F65" s="38"/>
       <c r="G65" s="39" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -59728,10 +59734,10 @@
         <v>153</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="D67" s="38" t="s">
         <v>25</v>
@@ -59748,7 +59754,7 @@
       <c r="C68" s="39"/>
       <c r="D68" s="38"/>
       <c r="E68" s="39" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="F68" s="38"/>
       <c r="G68" s="38"/>
@@ -59759,10 +59765,10 @@
       <c r="C69" s="38"/>
       <c r="D69" s="38"/>
       <c r="E69" s="39" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F69" s="38" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="G69" s="38"/>
     </row>
@@ -59772,11 +59778,11 @@
       <c r="C70" s="38"/>
       <c r="D70" s="38"/>
       <c r="E70" s="39" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F70" s="38"/>
       <c r="G70" s="39" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -59793,10 +59799,10 @@
         <v>176</v>
       </c>
       <c r="B72" s="39" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C72" s="39" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="D72" s="38" t="s">
         <v>25</v>
@@ -59813,7 +59819,7 @@
       <c r="C73" s="38"/>
       <c r="D73" s="38"/>
       <c r="E73" s="39" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F73" s="38" t="s">
         <v>29</v>
@@ -59826,11 +59832,11 @@
       <c r="C74" s="38"/>
       <c r="D74" s="38"/>
       <c r="E74" s="39" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F74" s="38"/>
       <c r="G74" s="39" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -59847,10 +59853,10 @@
         <v>181</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D76" s="38" t="s">
         <v>25</v>
@@ -59867,7 +59873,7 @@
       <c r="C77" s="39"/>
       <c r="D77" s="38"/>
       <c r="E77" s="39" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="F77" s="38"/>
       <c r="G77" s="38"/>
@@ -59878,7 +59884,7 @@
       <c r="C78" s="38"/>
       <c r="D78" s="38"/>
       <c r="E78" s="39" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F78" s="38" t="s">
         <v>404</v>
@@ -59891,11 +59897,11 @@
       <c r="C79" s="38"/>
       <c r="D79" s="38"/>
       <c r="E79" s="39" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F79" s="38"/>
       <c r="G79" s="39" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -59912,10 +59918,10 @@
         <v>191</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C81" s="39" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="D81" s="38" t="s">
         <v>25</v>
@@ -59932,7 +59938,7 @@
       <c r="C82" s="39"/>
       <c r="D82" s="38"/>
       <c r="E82" s="39" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="F82" s="38"/>
       <c r="G82" s="38"/>
@@ -59943,7 +59949,7 @@
       <c r="C83" s="38"/>
       <c r="D83" s="38"/>
       <c r="E83" s="39" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="F83" s="38" t="s">
         <v>161</v>
@@ -59956,11 +59962,11 @@
       <c r="C84" s="38"/>
       <c r="D84" s="38"/>
       <c r="E84" s="39" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F84" s="38"/>
       <c r="G84" s="39" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -59977,10 +59983,10 @@
         <v>200</v>
       </c>
       <c r="B86" s="39" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C86" s="39" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D86" s="38" t="s">
         <v>25</v>
@@ -59997,7 +60003,7 @@
       <c r="C87" s="39"/>
       <c r="D87" s="38"/>
       <c r="E87" s="39" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="F87" s="38"/>
       <c r="G87" s="38"/>
@@ -60008,7 +60014,7 @@
       <c r="C88" s="38"/>
       <c r="D88" s="38"/>
       <c r="E88" s="39" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="F88" s="38" t="s">
         <v>391</v>
@@ -60021,11 +60027,11 @@
       <c r="C89" s="38"/>
       <c r="D89" s="38"/>
       <c r="E89" s="39" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F89" s="38"/>
       <c r="G89" s="39" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -60042,10 +60048,10 @@
         <v>212</v>
       </c>
       <c r="B91" s="39" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C91" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="E91" s="38" t="s">
         <v>26</v>
@@ -60056,25 +60062,25 @@
     <row r="92" spans="1:7">
       <c r="A92" s="39"/>
       <c r="E92" s="39" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="F92" s="38"/>
       <c r="G92" s="38"/>
     </row>
     <row r="93" spans="1:7">
       <c r="E93" s="39" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="F93" s="39"/>
       <c r="G93" s="38"/>
     </row>
     <row r="94" spans="1:7" ht="43.2">
       <c r="E94" s="39" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F94" s="38"/>
       <c r="G94" s="39" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="41" customFormat="1"/>
@@ -60110,7 +60116,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>17</v>
@@ -60136,13 +60142,13 @@
         <v>23</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>26</v>
@@ -60157,7 +60163,7 @@
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
       <c r="E3" s="39" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
@@ -60169,7 +60175,7 @@
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
       <c r="E4" s="42" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="F4" s="37"/>
       <c r="G4" s="39"/>
@@ -60177,30 +60183,30 @@
     </row>
     <row r="5" spans="1:8">
       <c r="E5" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="E6" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="E7" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="E8" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="E9" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="G9" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="41" customFormat="1"/>
@@ -60209,13 +60215,13 @@
         <v>76</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="E11" s="37" t="s">
         <v>26</v>
@@ -60229,7 +60235,7 @@
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
       <c r="E12" s="39" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
@@ -60240,7 +60246,7 @@
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
       <c r="E13" s="39" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
@@ -60251,37 +60257,37 @@
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
       <c r="E14" s="42" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="39"/>
     </row>
     <row r="15" spans="1:8">
       <c r="E15" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="E16" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="E17" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="E18" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="E19" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="G19" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="41" customFormat="1"/>
@@ -60290,10 +60296,10 @@
         <v>83</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D21" s="39"/>
       <c r="E21" s="37" t="s">
@@ -60308,7 +60314,7 @@
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
       <c r="E22" s="39" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
@@ -60319,7 +60325,7 @@
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
       <c r="E23" s="39" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
@@ -60330,27 +60336,27 @@
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
       <c r="E24" s="42" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="39"/>
     </row>
     <row r="25" spans="1:7">
       <c r="E25" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="E26" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="E27" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="G27" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="41" customFormat="1"/>
@@ -60359,10 +60365,10 @@
         <v>93</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="D29" s="39"/>
       <c r="E29" s="37" t="s">
@@ -60377,7 +60383,7 @@
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
       <c r="E30" s="39" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
@@ -60388,7 +60394,7 @@
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
       <c r="E31" s="39" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
@@ -60399,22 +60405,22 @@
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
       <c r="E32" s="42" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="39"/>
     </row>
     <row r="33" spans="1:7">
       <c r="E33" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="28.8">
       <c r="E34" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="G34" s="43" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="41" customFormat="1"/>
@@ -60423,10 +60429,10 @@
         <v>95</v>
       </c>
       <c r="B36" s="50" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="D36" s="39"/>
       <c r="E36" s="37" t="s">
@@ -60441,7 +60447,7 @@
       <c r="C37" s="39"/>
       <c r="D37" s="39"/>
       <c r="E37" s="39" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
@@ -60452,7 +60458,7 @@
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
       <c r="E38" s="39" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
@@ -60463,22 +60469,22 @@
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
       <c r="E39" s="42" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="39"/>
     </row>
     <row r="40" spans="1:7">
       <c r="E40" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="28.8">
       <c r="E41" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="G41" s="43" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="41" customFormat="1"/>
@@ -60487,10 +60493,10 @@
         <v>103</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="D43" s="39"/>
       <c r="E43" s="37" t="s">
@@ -60505,7 +60511,7 @@
       <c r="C44" s="39"/>
       <c r="D44" s="39"/>
       <c r="E44" s="39" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
@@ -60516,7 +60522,7 @@
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
       <c r="E45" s="39" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
@@ -60527,27 +60533,27 @@
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
       <c r="E46" s="39" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="39"/>
     </row>
     <row r="47" spans="1:7">
       <c r="E47" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="E48" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="28.8">
       <c r="E49" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="G49" s="43" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="41" customFormat="1"/>
@@ -60556,10 +60562,10 @@
         <v>105</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="D51" s="39"/>
       <c r="E51" s="37" t="s">
@@ -60574,7 +60580,7 @@
       <c r="C52" s="39"/>
       <c r="D52" s="39"/>
       <c r="E52" s="39" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
@@ -60585,7 +60591,7 @@
       <c r="C53" s="37"/>
       <c r="D53" s="37"/>
       <c r="E53" s="39" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
@@ -60596,19 +60602,19 @@
       <c r="C54" s="37"/>
       <c r="D54" s="37"/>
       <c r="E54" s="39" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="F54" s="37"/>
       <c r="G54" s="39"/>
     </row>
     <row r="55" spans="1:7">
       <c r="E55" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="E56" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -60616,7 +60622,7 @@
         <v>228</v>
       </c>
       <c r="G57" s="43" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="41" customFormat="1"/>
@@ -60625,10 +60631,10 @@
         <v>111</v>
       </c>
       <c r="B59" s="50" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="D59" s="39"/>
       <c r="E59" s="37" t="s">
@@ -60643,7 +60649,7 @@
       <c r="C60" s="39"/>
       <c r="D60" s="39"/>
       <c r="E60" s="39" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
@@ -60654,7 +60660,7 @@
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
       <c r="E61" s="39" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
@@ -60665,27 +60671,27 @@
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
       <c r="E62" s="39" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F62" s="37"/>
       <c r="G62" s="39"/>
     </row>
     <row r="63" spans="1:7">
       <c r="E63" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="E64" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="E65" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="G65" s="43" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="41" customFormat="1"/>
@@ -60694,10 +60700,10 @@
         <v>123</v>
       </c>
       <c r="B67" s="50" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="D67" s="39"/>
       <c r="E67" s="37" t="s">
@@ -60712,7 +60718,7 @@
       <c r="C68" s="39"/>
       <c r="D68" s="39"/>
       <c r="E68" s="39" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="F68" s="37"/>
       <c r="G68" s="37"/>
@@ -60723,7 +60729,7 @@
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
       <c r="E69" s="39" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F69" s="37"/>
       <c r="G69" s="37"/>
@@ -60734,27 +60740,27 @@
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
       <c r="E70" s="39" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="F70" s="37"/>
       <c r="G70" s="39"/>
     </row>
     <row r="71" spans="1:7">
       <c r="E71" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="E72" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="43" customFormat="1" ht="14.4" customHeight="1">
       <c r="E73" s="43" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="G73" s="43" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="41" customFormat="1"/>
@@ -60763,10 +60769,10 @@
         <v>128</v>
       </c>
       <c r="B75" s="50" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="D75" s="39"/>
       <c r="E75" s="37" t="s">
@@ -60781,7 +60787,7 @@
       <c r="C76" s="39"/>
       <c r="D76" s="39"/>
       <c r="E76" s="39" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="F76" s="37"/>
       <c r="G76" s="37"/>
@@ -60792,7 +60798,7 @@
       <c r="C77" s="37"/>
       <c r="D77" s="37"/>
       <c r="E77" s="39" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F77" s="37"/>
       <c r="G77" s="37"/>
@@ -60803,19 +60809,19 @@
       <c r="C78" s="37"/>
       <c r="D78" s="37"/>
       <c r="E78" s="39" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="F78" s="37"/>
       <c r="G78" s="39"/>
     </row>
     <row r="79" spans="1:7">
       <c r="E79" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="E80" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="12.6" customHeight="1">
@@ -60824,11 +60830,11 @@
       <c r="C81" s="43"/>
       <c r="D81" s="43"/>
       <c r="E81" s="43" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="F81" s="43"/>
       <c r="G81" s="43" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="82" spans="1:7" s="41" customFormat="1"/>
@@ -60837,10 +60843,10 @@
         <v>132</v>
       </c>
       <c r="B83" s="50" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C83" s="39" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="D83" s="39"/>
       <c r="E83" s="37" t="s">
@@ -60855,7 +60861,7 @@
       <c r="C84" s="39"/>
       <c r="D84" s="39"/>
       <c r="E84" s="39" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="F84" s="37"/>
       <c r="G84" s="37"/>
@@ -60866,7 +60872,7 @@
       <c r="C85" s="37"/>
       <c r="D85" s="37"/>
       <c r="E85" s="39" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F85" s="37"/>
       <c r="G85" s="37"/>
@@ -60877,19 +60883,19 @@
       <c r="C86" s="37"/>
       <c r="D86" s="37"/>
       <c r="E86" s="39" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="F86" s="37"/>
       <c r="G86" s="39"/>
     </row>
     <row r="87" spans="1:7">
       <c r="E87" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="E88" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="28.8">
@@ -60898,11 +60904,11 @@
       <c r="C89" s="43"/>
       <c r="D89" s="43"/>
       <c r="E89" s="43" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="F89" s="43"/>
       <c r="G89" s="43" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="41" customFormat="1"/>
@@ -60911,10 +60917,10 @@
         <v>132</v>
       </c>
       <c r="B91" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="C91" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
   </sheetData>
@@ -60923,21 +60929,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101007976F8CCA0ED0D47930681AA21DEEE24" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="5d6bb8c47ca5c908ea932f041c0d02bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="21ec7336-031d-40ce-b88b-6a916b8e11b4" xmlns:ns4="fe969a12-aade-4ac2-a23f-8e1b54a37ff5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79bbd8f77373bcb0829ef1b6439f04bf" ns3:_="" ns4:_="">
     <xsd:import namespace="21ec7336-031d-40ce-b88b-6a916b8e11b4"/>
@@ -61140,24 +61131,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF8AABAE-A744-4E9C-8170-C8585CA79AEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CB26C50-9672-46A3-BDE2-4208B21162A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1020987D-2736-4945-83CD-D094942F0B74}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -61174,4 +61163,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CB26C50-9672-46A3-BDE2-4208B21162A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF8AABAE-A744-4E9C-8170-C8585CA79AEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/AutomationTracker.xlsx
+++ b/AutomationTracker.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hassan01.bhuiyan\Documents\Automation\lg-functional-ui-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vikas\Desktop\LG\captcha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E79D5C-42A7-48B1-A941-82923F423FEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8076" tabRatio="791" activeTab="1" xr2:uid="{D71951CC-364C-4D9A-91EE-71621FE37BBF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8076" tabRatio="791"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="16" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="Search" sheetId="17" r:id="rId6"/>
     <sheet name="Signup" sheetId="18" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8545" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8563" uniqueCount="897">
   <si>
     <t>Areas</t>
   </si>
@@ -2729,12 +2728,24 @@
   <si>
     <t xml:space="preserve">As a guest user, ensure guest user able to add two different type of OMV Non Subscription and Subscription Product and remove one of them </t>
   </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>A927KGMS</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>Inomplete</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2904,6 +2915,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -3013,7 +3030,7 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3183,6 +3200,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3511,11 +3529,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36E9015-B80A-42A4-B2EF-0D61F796F00F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3552,16 +3570,16 @@
       <c r="G1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="64" t="s">
         <v>852</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
       <c r="P1" s="46"/>
     </row>
     <row r="2" spans="1:16">
@@ -3724,11 +3742,11 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="23.4" customHeight="1">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="65" t="s">
         <v>863</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="60">
         <f>SUM(D2:D7)</f>
         <v>35</v>
@@ -3780,6 +3798,9 @@
         <f>SUM(C13-D13)</f>
         <v>9</v>
       </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
@@ -3795,8 +3816,11 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:F18" si="1">SUM(C14-D14)</f>
+        <f t="shared" ref="E14:E18" si="1">SUM(C14-D14)</f>
         <v>22</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
       </c>
       <c r="H14" s="48" t="s">
         <v>855</v>
@@ -3902,6 +3926,9 @@
     <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>858</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
       </c>
       <c r="H21" s="43" t="s">
         <v>790</v>
@@ -3917,11 +3944,11 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="66" t="s">
         <v>865</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
       <c r="D23" s="59">
         <f>SUM(D13:D22)</f>
         <v>47</v>
@@ -3935,10 +3962,10 @@
     <mergeCell ref="A23:C23"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{E043A932-556A-4FE0-AB16-2A9450683D1E}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{6271FC5D-D2FB-4F2C-ACBC-E2E25758315E}"/>
-    <hyperlink ref="G5" r:id="rId3" xr:uid="{D9822F51-0FB5-4485-B6A0-B459BC63D316}"/>
-    <hyperlink ref="G2" r:id="rId4" xr:uid="{6C029E2F-B8D0-4EFD-9A85-2F21A26EEEDE}"/>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -3946,11 +3973,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD143452-8BB0-49B7-BC0A-526429C7C157}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="14.4"/>
@@ -4378,7 +4405,7 @@
         <v>93</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>860</v>
+        <v>893</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>655</v>
@@ -4479,8 +4506,8 @@
       <c r="A32" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="50" t="s">
-        <v>794</v>
+      <c r="B32" s="52" t="s">
+        <v>893</v>
       </c>
       <c r="C32" s="39" t="s">
         <v>892</v>
@@ -4637,7 +4664,9 @@
       <c r="A42" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="30"/>
+      <c r="B42" s="52" t="s">
+        <v>893</v>
+      </c>
       <c r="C42" s="28" t="s">
         <v>663</v>
       </c>
@@ -4739,7 +4768,9 @@
       <c r="A48" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="30"/>
+      <c r="B48" s="52" t="s">
+        <v>893</v>
+      </c>
       <c r="C48" s="28" t="s">
         <v>667</v>
       </c>
@@ -4855,7 +4886,9 @@
       <c r="A55" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="30"/>
+      <c r="B55" s="52" t="s">
+        <v>893</v>
+      </c>
       <c r="C55" s="28" t="s">
         <v>670</v>
       </c>
@@ -5151,7 +5184,9 @@
       <c r="A74" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B74" s="30"/>
+      <c r="B74" s="52" t="s">
+        <v>893</v>
+      </c>
       <c r="C74" s="28" t="s">
         <v>685</v>
       </c>
@@ -5277,7 +5312,9 @@
       <c r="A82" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B82" s="30"/>
+      <c r="B82" s="52" t="s">
+        <v>893</v>
+      </c>
       <c r="C82" s="28" t="s">
         <v>691</v>
       </c>
@@ -6896,30 +6933,30 @@
       <c r="B188" s="50" t="s">
         <v>794</v>
       </c>
-      <c r="C188" s="66" t="s">
+      <c r="C188" s="67" t="s">
         <v>744</v>
       </c>
-      <c r="D188" s="66" t="s">
+      <c r="D188" s="67" t="s">
         <v>745</v>
       </c>
-      <c r="E188" s="66" t="s">
+      <c r="E188" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F188" s="66"/>
-      <c r="G188" s="66"/>
-      <c r="H188" s="66" t="s">
+      <c r="F188" s="67"/>
+      <c r="G188" s="67"/>
+      <c r="H188" s="67" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="51"/>
       <c r="B189" s="37"/>
-      <c r="C189" s="66"/>
-      <c r="D189" s="66"/>
-      <c r="E189" s="66"/>
-      <c r="F189" s="66"/>
-      <c r="G189" s="66"/>
-      <c r="H189" s="66"/>
+      <c r="C189" s="67"/>
+      <c r="D189" s="67"/>
+      <c r="E189" s="67"/>
+      <c r="F189" s="67"/>
+      <c r="G189" s="67"/>
+      <c r="H189" s="67"/>
     </row>
     <row r="190" spans="1:8" ht="28.8">
       <c r="A190" s="37"/>
@@ -6956,26 +6993,26 @@
       <c r="B192" s="51"/>
       <c r="C192" s="51"/>
       <c r="D192" s="51"/>
-      <c r="E192" s="66" t="s">
+      <c r="E192" s="67" t="s">
         <v>747</v>
       </c>
-      <c r="F192" s="66"/>
+      <c r="F192" s="67"/>
       <c r="G192" s="39" t="s">
         <v>861</v>
       </c>
-      <c r="H192" s="66"/>
+      <c r="H192" s="67"/>
     </row>
     <row r="193" spans="1:8" ht="53.25" customHeight="1">
       <c r="A193" s="51"/>
       <c r="B193" s="51"/>
       <c r="C193" s="51"/>
       <c r="D193" s="51"/>
-      <c r="E193" s="66"/>
-      <c r="F193" s="66"/>
+      <c r="E193" s="67"/>
+      <c r="F193" s="67"/>
       <c r="G193" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H193" s="66"/>
+      <c r="H193" s="67"/>
     </row>
     <row r="194" spans="1:8" ht="13.8" customHeight="1">
       <c r="A194" s="29" t="s">
@@ -7005,42 +7042,44 @@
       <c r="A195" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="B195" s="37"/>
-      <c r="C195" s="66" t="s">
+      <c r="B195" s="52" t="s">
+        <v>893</v>
+      </c>
+      <c r="C195" s="67" t="s">
         <v>750</v>
       </c>
-      <c r="D195" s="66" t="s">
+      <c r="D195" s="67" t="s">
         <v>745</v>
       </c>
-      <c r="E195" s="66" t="s">
+      <c r="E195" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F195" s="66"/>
-      <c r="G195" s="66"/>
-      <c r="H195" s="66" t="s">
+      <c r="F195" s="67"/>
+      <c r="G195" s="67"/>
+      <c r="H195" s="67" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="51"/>
       <c r="B196" s="37"/>
-      <c r="C196" s="66"/>
-      <c r="D196" s="66"/>
-      <c r="E196" s="66"/>
-      <c r="F196" s="66"/>
-      <c r="G196" s="66"/>
-      <c r="H196" s="66"/>
+      <c r="C196" s="67"/>
+      <c r="D196" s="67"/>
+      <c r="E196" s="67"/>
+      <c r="F196" s="67"/>
+      <c r="G196" s="67"/>
+      <c r="H196" s="67"/>
     </row>
     <row r="197" spans="1:8" ht="28.8">
       <c r="A197" s="37"/>
       <c r="B197" s="37"/>
       <c r="C197" s="28"/>
       <c r="D197" s="28"/>
-      <c r="E197" s="28" t="s">
+      <c r="E197" s="39" t="s">
         <v>429</v>
       </c>
-      <c r="F197" s="28" t="s">
-        <v>161</v>
+      <c r="F197" s="63" t="s">
+        <v>894</v>
       </c>
       <c r="G197" s="28" t="s">
         <v>382</v>
@@ -7052,7 +7091,7 @@
       <c r="B198" s="37"/>
       <c r="C198" s="28"/>
       <c r="D198" s="28"/>
-      <c r="E198" s="28" t="s">
+      <c r="E198" s="39" t="s">
         <v>383</v>
       </c>
       <c r="F198" s="28"/>
@@ -7064,28 +7103,28 @@
     <row r="199" spans="1:8">
       <c r="A199" s="51"/>
       <c r="B199" s="37"/>
-      <c r="C199" s="66"/>
-      <c r="D199" s="66"/>
-      <c r="E199" s="66" t="s">
+      <c r="C199" s="67"/>
+      <c r="D199" s="67"/>
+      <c r="E199" s="67" t="s">
         <v>747</v>
       </c>
-      <c r="F199" s="66"/>
+      <c r="F199" s="67"/>
       <c r="G199" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="H199" s="66"/>
+      <c r="H199" s="67"/>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="51"/>
       <c r="B200" s="37"/>
-      <c r="C200" s="66"/>
-      <c r="D200" s="66"/>
-      <c r="E200" s="66"/>
-      <c r="F200" s="66"/>
+      <c r="C200" s="67"/>
+      <c r="D200" s="67"/>
+      <c r="E200" s="67"/>
+      <c r="F200" s="67"/>
       <c r="G200" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H200" s="66"/>
+      <c r="H200" s="67"/>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="37"/>
@@ -7134,7 +7173,7 @@
       <c r="B204" s="30"/>
       <c r="C204" s="28"/>
       <c r="D204" s="28"/>
-      <c r="E204" s="28" t="s">
+      <c r="E204" s="39" t="s">
         <v>756</v>
       </c>
       <c r="F204" s="28"/>
@@ -7188,30 +7227,30 @@
       <c r="B207" s="50" t="s">
         <v>794</v>
       </c>
-      <c r="C207" s="66" t="s">
+      <c r="C207" s="67" t="s">
         <v>759</v>
       </c>
-      <c r="D207" s="66" t="s">
+      <c r="D207" s="67" t="s">
         <v>745</v>
       </c>
-      <c r="E207" s="66" t="s">
+      <c r="E207" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F207" s="66"/>
-      <c r="G207" s="66"/>
-      <c r="H207" s="66" t="s">
+      <c r="F207" s="67"/>
+      <c r="G207" s="67"/>
+      <c r="H207" s="67" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="51"/>
       <c r="B208" s="37"/>
-      <c r="C208" s="66"/>
-      <c r="D208" s="66"/>
-      <c r="E208" s="66"/>
-      <c r="F208" s="66"/>
-      <c r="G208" s="66"/>
-      <c r="H208" s="66"/>
+      <c r="C208" s="67"/>
+      <c r="D208" s="67"/>
+      <c r="E208" s="67"/>
+      <c r="F208" s="67"/>
+      <c r="G208" s="67"/>
+      <c r="H208" s="67"/>
     </row>
     <row r="209" spans="1:8" ht="28.8">
       <c r="A209" s="37"/>
@@ -7246,28 +7285,28 @@
     <row r="211" spans="1:8" ht="46.5" customHeight="1">
       <c r="A211" s="51"/>
       <c r="B211" s="37"/>
-      <c r="C211" s="66"/>
-      <c r="D211" s="66"/>
-      <c r="E211" s="66" t="s">
+      <c r="C211" s="67"/>
+      <c r="D211" s="67"/>
+      <c r="E211" s="67" t="s">
         <v>747</v>
       </c>
-      <c r="F211" s="66"/>
+      <c r="F211" s="67"/>
       <c r="G211" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="H211" s="66"/>
+      <c r="H211" s="67"/>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="51"/>
       <c r="B212" s="37"/>
-      <c r="C212" s="66"/>
-      <c r="D212" s="66"/>
-      <c r="E212" s="66"/>
-      <c r="F212" s="66"/>
+      <c r="C212" s="67"/>
+      <c r="D212" s="67"/>
+      <c r="E212" s="67"/>
+      <c r="F212" s="67"/>
       <c r="G212" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H212" s="66"/>
+      <c r="H212" s="67"/>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="37"/>
@@ -7336,34 +7375,34 @@
       </c>
     </row>
     <row r="217" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A217" s="66" t="s">
+      <c r="A217" s="67" t="s">
         <v>245</v>
       </c>
       <c r="B217" s="30"/>
-      <c r="C217" s="66" t="s">
+      <c r="C217" s="67" t="s">
         <v>763</v>
       </c>
-      <c r="D217" s="66" t="s">
+      <c r="D217" s="67" t="s">
         <v>745</v>
       </c>
-      <c r="E217" s="66" t="s">
+      <c r="E217" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F217" s="66"/>
-      <c r="G217" s="66"/>
-      <c r="H217" s="66" t="s">
+      <c r="F217" s="67"/>
+      <c r="G217" s="67"/>
+      <c r="H217" s="67" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="66"/>
+      <c r="A218" s="67"/>
       <c r="B218" s="30"/>
-      <c r="C218" s="66"/>
-      <c r="D218" s="66"/>
-      <c r="E218" s="66"/>
-      <c r="F218" s="66"/>
-      <c r="G218" s="66"/>
-      <c r="H218" s="66"/>
+      <c r="C218" s="67"/>
+      <c r="D218" s="67"/>
+      <c r="E218" s="67"/>
+      <c r="F218" s="67"/>
+      <c r="G218" s="67"/>
+      <c r="H218" s="67"/>
     </row>
     <row r="219" spans="1:8" ht="28.8">
       <c r="A219" s="28"/>
@@ -7398,28 +7437,28 @@
     <row r="221" spans="1:8" ht="27" customHeight="1">
       <c r="A221" s="51"/>
       <c r="B221" s="37"/>
-      <c r="C221" s="66"/>
-      <c r="D221" s="66"/>
-      <c r="E221" s="66" t="s">
+      <c r="C221" s="67"/>
+      <c r="D221" s="67"/>
+      <c r="E221" s="67" t="s">
         <v>765</v>
       </c>
-      <c r="F221" s="66"/>
+      <c r="F221" s="67"/>
       <c r="G221" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="H221" s="66"/>
+      <c r="H221" s="67"/>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="51"/>
       <c r="B222" s="37"/>
-      <c r="C222" s="66"/>
-      <c r="D222" s="66"/>
-      <c r="E222" s="66"/>
-      <c r="F222" s="66"/>
+      <c r="C222" s="67"/>
+      <c r="D222" s="67"/>
+      <c r="E222" s="67"/>
+      <c r="F222" s="67"/>
       <c r="G222" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H222" s="66"/>
+      <c r="H222" s="67"/>
     </row>
     <row r="223" spans="1:8" ht="18" customHeight="1">
       <c r="A223" s="29" t="s">
@@ -7446,34 +7485,34 @@
       </c>
     </row>
     <row r="224" spans="1:8" ht="27" customHeight="1">
-      <c r="A224" s="66" t="s">
+      <c r="A224" s="67" t="s">
         <v>249</v>
       </c>
       <c r="B224" s="30"/>
-      <c r="C224" s="66" t="s">
+      <c r="C224" s="67" t="s">
         <v>766</v>
       </c>
-      <c r="D224" s="66" t="s">
+      <c r="D224" s="67" t="s">
         <v>745</v>
       </c>
-      <c r="E224" s="66" t="s">
+      <c r="E224" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F224" s="66"/>
-      <c r="G224" s="66"/>
-      <c r="H224" s="66" t="s">
+      <c r="F224" s="67"/>
+      <c r="G224" s="67"/>
+      <c r="H224" s="67" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:8">
-      <c r="A225" s="66"/>
+      <c r="A225" s="67"/>
       <c r="B225" s="30"/>
-      <c r="C225" s="66"/>
-      <c r="D225" s="66"/>
-      <c r="E225" s="66"/>
-      <c r="F225" s="66"/>
-      <c r="G225" s="66"/>
-      <c r="H225" s="66"/>
+      <c r="C225" s="67"/>
+      <c r="D225" s="67"/>
+      <c r="E225" s="67"/>
+      <c r="F225" s="67"/>
+      <c r="G225" s="67"/>
+      <c r="H225" s="67"/>
     </row>
     <row r="226" spans="1:8" ht="47.25" customHeight="1">
       <c r="A226" s="28"/>
@@ -7506,30 +7545,30 @@
       <c r="H227" s="28"/>
     </row>
     <row r="228" spans="1:8" ht="27" customHeight="1">
-      <c r="A228" s="66"/>
+      <c r="A228" s="67"/>
       <c r="B228" s="30"/>
-      <c r="C228" s="66"/>
-      <c r="D228" s="66"/>
-      <c r="E228" s="66" t="s">
+      <c r="C228" s="67"/>
+      <c r="D228" s="67"/>
+      <c r="E228" s="67" t="s">
         <v>765</v>
       </c>
-      <c r="F228" s="66"/>
+      <c r="F228" s="67"/>
       <c r="G228" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="H228" s="66"/>
+      <c r="H228" s="67"/>
     </row>
     <row r="229" spans="1:8">
-      <c r="A229" s="66"/>
+      <c r="A229" s="67"/>
       <c r="B229" s="30"/>
-      <c r="C229" s="66"/>
-      <c r="D229" s="66"/>
-      <c r="E229" s="66"/>
-      <c r="F229" s="66"/>
+      <c r="C229" s="67"/>
+      <c r="D229" s="67"/>
+      <c r="E229" s="67"/>
+      <c r="F229" s="67"/>
       <c r="G229" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H229" s="66"/>
+      <c r="H229" s="67"/>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="28"/>
@@ -7626,34 +7665,34 @@
       </c>
     </row>
     <row r="236" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A236" s="66" t="s">
+      <c r="A236" s="67" t="s">
         <v>251</v>
       </c>
       <c r="B236" s="30"/>
-      <c r="C236" s="66" t="s">
+      <c r="C236" s="67" t="s">
         <v>767</v>
       </c>
-      <c r="D236" s="66" t="s">
+      <c r="D236" s="67" t="s">
         <v>768</v>
       </c>
-      <c r="E236" s="66" t="s">
+      <c r="E236" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F236" s="66"/>
-      <c r="G236" s="66"/>
-      <c r="H236" s="66" t="s">
+      <c r="F236" s="67"/>
+      <c r="G236" s="67"/>
+      <c r="H236" s="67" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:8">
-      <c r="A237" s="66"/>
+      <c r="A237" s="67"/>
       <c r="B237" s="30"/>
-      <c r="C237" s="66"/>
-      <c r="D237" s="66"/>
-      <c r="E237" s="66"/>
-      <c r="F237" s="66"/>
-      <c r="G237" s="66"/>
-      <c r="H237" s="66"/>
+      <c r="C237" s="67"/>
+      <c r="D237" s="67"/>
+      <c r="E237" s="67"/>
+      <c r="F237" s="67"/>
+      <c r="G237" s="67"/>
+      <c r="H237" s="67"/>
     </row>
     <row r="238" spans="1:8" ht="28.8">
       <c r="A238" s="28"/>
@@ -7686,30 +7725,30 @@
       <c r="H239" s="28"/>
     </row>
     <row r="240" spans="1:8" ht="27" customHeight="1">
-      <c r="A240" s="66"/>
+      <c r="A240" s="67"/>
       <c r="B240" s="30"/>
-      <c r="C240" s="66"/>
-      <c r="D240" s="66"/>
-      <c r="E240" s="66" t="s">
+      <c r="C240" s="67"/>
+      <c r="D240" s="67"/>
+      <c r="E240" s="67" t="s">
         <v>765</v>
       </c>
-      <c r="F240" s="66"/>
+      <c r="F240" s="67"/>
       <c r="G240" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="H240" s="66"/>
+      <c r="H240" s="67"/>
     </row>
     <row r="241" spans="1:8">
-      <c r="A241" s="66"/>
+      <c r="A241" s="67"/>
       <c r="B241" s="30"/>
-      <c r="C241" s="66"/>
-      <c r="D241" s="66"/>
-      <c r="E241" s="66"/>
-      <c r="F241" s="66"/>
+      <c r="C241" s="67"/>
+      <c r="D241" s="67"/>
+      <c r="E241" s="67"/>
+      <c r="F241" s="67"/>
       <c r="G241" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H241" s="66"/>
+      <c r="H241" s="67"/>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="28"/>
@@ -7778,34 +7817,34 @@
       </c>
     </row>
     <row r="246" spans="1:8">
-      <c r="A246" s="66" t="s">
+      <c r="A246" s="67" t="s">
         <v>253</v>
       </c>
       <c r="B246" s="30"/>
-      <c r="C246" s="66" t="s">
+      <c r="C246" s="67" t="s">
         <v>769</v>
       </c>
-      <c r="D246" s="66" t="s">
+      <c r="D246" s="67" t="s">
         <v>768</v>
       </c>
-      <c r="E246" s="66" t="s">
+      <c r="E246" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F246" s="66"/>
-      <c r="G246" s="66"/>
-      <c r="H246" s="66" t="s">
+      <c r="F246" s="67"/>
+      <c r="G246" s="67"/>
+      <c r="H246" s="67" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:8">
-      <c r="A247" s="66"/>
+      <c r="A247" s="67"/>
       <c r="B247" s="30"/>
-      <c r="C247" s="66"/>
-      <c r="D247" s="66"/>
-      <c r="E247" s="66"/>
-      <c r="F247" s="66"/>
-      <c r="G247" s="66"/>
-      <c r="H247" s="66"/>
+      <c r="C247" s="67"/>
+      <c r="D247" s="67"/>
+      <c r="E247" s="67"/>
+      <c r="F247" s="67"/>
+      <c r="G247" s="67"/>
+      <c r="H247" s="67"/>
     </row>
     <row r="248" spans="1:8" ht="30" customHeight="1">
       <c r="A248" s="28"/>
@@ -7838,30 +7877,30 @@
       <c r="H249" s="28"/>
     </row>
     <row r="250" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A250" s="66"/>
+      <c r="A250" s="67"/>
       <c r="B250" s="30"/>
-      <c r="C250" s="66"/>
-      <c r="D250" s="66"/>
-      <c r="E250" s="66" t="s">
+      <c r="C250" s="67"/>
+      <c r="D250" s="67"/>
+      <c r="E250" s="67" t="s">
         <v>765</v>
       </c>
-      <c r="F250" s="66"/>
+      <c r="F250" s="67"/>
       <c r="G250" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="H250" s="66"/>
+      <c r="H250" s="67"/>
     </row>
     <row r="251" spans="1:8">
-      <c r="A251" s="66"/>
+      <c r="A251" s="67"/>
       <c r="B251" s="30"/>
-      <c r="C251" s="66"/>
-      <c r="D251" s="66"/>
-      <c r="E251" s="66"/>
-      <c r="F251" s="66"/>
+      <c r="C251" s="67"/>
+      <c r="D251" s="67"/>
+      <c r="E251" s="67"/>
+      <c r="F251" s="67"/>
       <c r="G251" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H251" s="66"/>
+      <c r="H251" s="67"/>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="28"/>
@@ -15014,54 +15053,54 @@
       <c r="H952" s="28"/>
     </row>
     <row r="953" spans="1:8">
-      <c r="A953" s="66"/>
+      <c r="A953" s="67"/>
       <c r="B953" s="30"/>
-      <c r="C953" s="66"/>
+      <c r="C953" s="67"/>
       <c r="D953" s="28"/>
-      <c r="E953" s="66"/>
-      <c r="F953" s="66"/>
-      <c r="G953" s="66"/>
-      <c r="H953" s="66"/>
+      <c r="E953" s="67"/>
+      <c r="F953" s="67"/>
+      <c r="G953" s="67"/>
+      <c r="H953" s="67"/>
     </row>
     <row r="954" spans="1:8">
-      <c r="A954" s="66"/>
+      <c r="A954" s="67"/>
       <c r="B954" s="30"/>
-      <c r="C954" s="66"/>
+      <c r="C954" s="67"/>
       <c r="D954" s="28"/>
-      <c r="E954" s="66"/>
-      <c r="F954" s="66"/>
-      <c r="G954" s="66"/>
-      <c r="H954" s="66"/>
+      <c r="E954" s="67"/>
+      <c r="F954" s="67"/>
+      <c r="G954" s="67"/>
+      <c r="H954" s="67"/>
     </row>
     <row r="955" spans="1:8">
-      <c r="A955" s="66"/>
+      <c r="A955" s="67"/>
       <c r="B955" s="30"/>
-      <c r="C955" s="66"/>
+      <c r="C955" s="67"/>
       <c r="D955" s="28"/>
-      <c r="E955" s="66"/>
-      <c r="F955" s="66"/>
-      <c r="G955" s="66"/>
-      <c r="H955" s="66"/>
+      <c r="E955" s="67"/>
+      <c r="F955" s="67"/>
+      <c r="G955" s="67"/>
+      <c r="H955" s="67"/>
     </row>
     <row r="956" spans="1:8">
-      <c r="A956" s="66"/>
+      <c r="A956" s="67"/>
       <c r="B956" s="30"/>
-      <c r="C956" s="66"/>
+      <c r="C956" s="67"/>
       <c r="D956" s="28"/>
-      <c r="E956" s="66"/>
-      <c r="F956" s="66"/>
-      <c r="G956" s="66"/>
-      <c r="H956" s="66"/>
+      <c r="E956" s="67"/>
+      <c r="F956" s="67"/>
+      <c r="G956" s="67"/>
+      <c r="H956" s="67"/>
     </row>
     <row r="957" spans="1:8">
-      <c r="A957" s="66"/>
+      <c r="A957" s="67"/>
       <c r="B957" s="30"/>
-      <c r="C957" s="66"/>
+      <c r="C957" s="67"/>
       <c r="D957" s="28"/>
-      <c r="E957" s="66"/>
-      <c r="F957" s="66"/>
-      <c r="G957" s="66"/>
-      <c r="H957" s="66"/>
+      <c r="E957" s="67"/>
+      <c r="F957" s="67"/>
+      <c r="G957" s="67"/>
+      <c r="H957" s="67"/>
     </row>
     <row r="958" spans="1:8">
       <c r="A958" s="28"/>
@@ -15304,54 +15343,54 @@
       <c r="H981" s="28"/>
     </row>
     <row r="982" spans="1:8">
-      <c r="A982" s="66"/>
+      <c r="A982" s="67"/>
       <c r="B982" s="30"/>
-      <c r="C982" s="66"/>
+      <c r="C982" s="67"/>
       <c r="D982" s="28"/>
-      <c r="E982" s="66"/>
-      <c r="F982" s="66"/>
-      <c r="G982" s="66"/>
-      <c r="H982" s="66"/>
+      <c r="E982" s="67"/>
+      <c r="F982" s="67"/>
+      <c r="G982" s="67"/>
+      <c r="H982" s="67"/>
     </row>
     <row r="983" spans="1:8">
-      <c r="A983" s="66"/>
+      <c r="A983" s="67"/>
       <c r="B983" s="30"/>
-      <c r="C983" s="66"/>
+      <c r="C983" s="67"/>
       <c r="D983" s="28"/>
-      <c r="E983" s="66"/>
-      <c r="F983" s="66"/>
-      <c r="G983" s="66"/>
-      <c r="H983" s="66"/>
+      <c r="E983" s="67"/>
+      <c r="F983" s="67"/>
+      <c r="G983" s="67"/>
+      <c r="H983" s="67"/>
     </row>
     <row r="984" spans="1:8">
-      <c r="A984" s="66"/>
+      <c r="A984" s="67"/>
       <c r="B984" s="30"/>
-      <c r="C984" s="66"/>
+      <c r="C984" s="67"/>
       <c r="D984" s="28"/>
-      <c r="E984" s="66"/>
-      <c r="F984" s="66"/>
-      <c r="G984" s="66"/>
-      <c r="H984" s="66"/>
+      <c r="E984" s="67"/>
+      <c r="F984" s="67"/>
+      <c r="G984" s="67"/>
+      <c r="H984" s="67"/>
     </row>
     <row r="985" spans="1:8">
-      <c r="A985" s="66"/>
+      <c r="A985" s="67"/>
       <c r="B985" s="30"/>
-      <c r="C985" s="66"/>
+      <c r="C985" s="67"/>
       <c r="D985" s="28"/>
-      <c r="E985" s="66"/>
-      <c r="F985" s="66"/>
-      <c r="G985" s="66"/>
-      <c r="H985" s="66"/>
+      <c r="E985" s="67"/>
+      <c r="F985" s="67"/>
+      <c r="G985" s="67"/>
+      <c r="H985" s="67"/>
     </row>
     <row r="986" spans="1:8">
-      <c r="A986" s="66"/>
+      <c r="A986" s="67"/>
       <c r="B986" s="30"/>
-      <c r="C986" s="66"/>
+      <c r="C986" s="67"/>
       <c r="D986" s="28"/>
-      <c r="E986" s="66"/>
-      <c r="F986" s="66"/>
-      <c r="G986" s="66"/>
-      <c r="H986" s="66"/>
+      <c r="E986" s="67"/>
+      <c r="F986" s="67"/>
+      <c r="G986" s="67"/>
+      <c r="H986" s="67"/>
     </row>
     <row r="987" spans="1:8">
       <c r="A987" s="28"/>
@@ -18354,34 +18393,34 @@
       <c r="H1286" s="28"/>
     </row>
     <row r="1287" spans="1:8">
-      <c r="A1287" s="66"/>
+      <c r="A1287" s="67"/>
       <c r="B1287" s="30"/>
-      <c r="C1287" s="66"/>
-      <c r="D1287" s="66"/>
-      <c r="E1287" s="66"/>
-      <c r="F1287" s="66"/>
+      <c r="C1287" s="67"/>
+      <c r="D1287" s="67"/>
+      <c r="E1287" s="67"/>
+      <c r="F1287" s="67"/>
       <c r="G1287" s="28"/>
-      <c r="H1287" s="66"/>
+      <c r="H1287" s="67"/>
     </row>
     <row r="1288" spans="1:8">
-      <c r="A1288" s="66"/>
+      <c r="A1288" s="67"/>
       <c r="B1288" s="30"/>
-      <c r="C1288" s="66"/>
-      <c r="D1288" s="66"/>
-      <c r="E1288" s="66"/>
-      <c r="F1288" s="66"/>
+      <c r="C1288" s="67"/>
+      <c r="D1288" s="67"/>
+      <c r="E1288" s="67"/>
+      <c r="F1288" s="67"/>
       <c r="G1288" s="28"/>
-      <c r="H1288" s="66"/>
+      <c r="H1288" s="67"/>
     </row>
     <row r="1289" spans="1:8">
-      <c r="A1289" s="66"/>
+      <c r="A1289" s="67"/>
       <c r="B1289" s="30"/>
-      <c r="C1289" s="66"/>
-      <c r="D1289" s="66"/>
-      <c r="E1289" s="66"/>
-      <c r="F1289" s="66"/>
+      <c r="C1289" s="67"/>
+      <c r="D1289" s="67"/>
+      <c r="E1289" s="67"/>
+      <c r="F1289" s="67"/>
       <c r="G1289" s="28"/>
-      <c r="H1289" s="66"/>
+      <c r="H1289" s="67"/>
     </row>
     <row r="1290" spans="1:8">
       <c r="A1290" s="28"/>
@@ -18564,74 +18603,74 @@
       <c r="H1307" s="28"/>
     </row>
     <row r="1308" spans="1:8">
-      <c r="A1308" s="66"/>
+      <c r="A1308" s="67"/>
       <c r="B1308" s="30"/>
-      <c r="C1308" s="66"/>
-      <c r="D1308" s="66"/>
-      <c r="E1308" s="66"/>
-      <c r="F1308" s="66"/>
+      <c r="C1308" s="67"/>
+      <c r="D1308" s="67"/>
+      <c r="E1308" s="67"/>
+      <c r="F1308" s="67"/>
       <c r="G1308" s="28"/>
-      <c r="H1308" s="66"/>
+      <c r="H1308" s="67"/>
     </row>
     <row r="1309" spans="1:8">
-      <c r="A1309" s="66"/>
+      <c r="A1309" s="67"/>
       <c r="B1309" s="30"/>
-      <c r="C1309" s="66"/>
-      <c r="D1309" s="66"/>
-      <c r="E1309" s="66"/>
-      <c r="F1309" s="66"/>
+      <c r="C1309" s="67"/>
+      <c r="D1309" s="67"/>
+      <c r="E1309" s="67"/>
+      <c r="F1309" s="67"/>
       <c r="G1309" s="28"/>
-      <c r="H1309" s="66"/>
+      <c r="H1309" s="67"/>
     </row>
     <row r="1310" spans="1:8">
-      <c r="A1310" s="66"/>
+      <c r="A1310" s="67"/>
       <c r="B1310" s="30"/>
-      <c r="C1310" s="66"/>
-      <c r="D1310" s="66"/>
-      <c r="E1310" s="66"/>
-      <c r="F1310" s="66"/>
+      <c r="C1310" s="67"/>
+      <c r="D1310" s="67"/>
+      <c r="E1310" s="67"/>
+      <c r="F1310" s="67"/>
       <c r="G1310" s="28"/>
-      <c r="H1310" s="66"/>
+      <c r="H1310" s="67"/>
     </row>
     <row r="1311" spans="1:8">
-      <c r="A1311" s="66"/>
+      <c r="A1311" s="67"/>
       <c r="B1311" s="30"/>
-      <c r="C1311" s="66"/>
-      <c r="D1311" s="66"/>
-      <c r="E1311" s="66"/>
-      <c r="F1311" s="66"/>
+      <c r="C1311" s="67"/>
+      <c r="D1311" s="67"/>
+      <c r="E1311" s="67"/>
+      <c r="F1311" s="67"/>
       <c r="G1311" s="28"/>
-      <c r="H1311" s="66"/>
+      <c r="H1311" s="67"/>
     </row>
     <row r="1312" spans="1:8">
-      <c r="A1312" s="66"/>
+      <c r="A1312" s="67"/>
       <c r="B1312" s="30"/>
-      <c r="C1312" s="66"/>
-      <c r="D1312" s="66"/>
-      <c r="E1312" s="66"/>
-      <c r="F1312" s="66"/>
+      <c r="C1312" s="67"/>
+      <c r="D1312" s="67"/>
+      <c r="E1312" s="67"/>
+      <c r="F1312" s="67"/>
       <c r="G1312" s="28"/>
-      <c r="H1312" s="66"/>
+      <c r="H1312" s="67"/>
     </row>
     <row r="1313" spans="1:8">
-      <c r="A1313" s="66"/>
+      <c r="A1313" s="67"/>
       <c r="B1313" s="30"/>
-      <c r="C1313" s="66"/>
-      <c r="D1313" s="66"/>
-      <c r="E1313" s="66"/>
-      <c r="F1313" s="66"/>
+      <c r="C1313" s="67"/>
+      <c r="D1313" s="67"/>
+      <c r="E1313" s="67"/>
+      <c r="F1313" s="67"/>
       <c r="G1313" s="28"/>
-      <c r="H1313" s="66"/>
+      <c r="H1313" s="67"/>
     </row>
     <row r="1314" spans="1:8">
-      <c r="A1314" s="66"/>
+      <c r="A1314" s="67"/>
       <c r="B1314" s="30"/>
-      <c r="C1314" s="66"/>
-      <c r="D1314" s="66"/>
-      <c r="E1314" s="66"/>
-      <c r="F1314" s="66"/>
+      <c r="C1314" s="67"/>
+      <c r="D1314" s="67"/>
+      <c r="E1314" s="67"/>
+      <c r="F1314" s="67"/>
       <c r="G1314" s="28"/>
-      <c r="H1314" s="66"/>
+      <c r="H1314" s="67"/>
     </row>
     <row r="1315" spans="1:8">
       <c r="A1315" s="28"/>
@@ -18824,34 +18863,34 @@
       <c r="H1333" s="28"/>
     </row>
     <row r="1334" spans="1:8">
-      <c r="A1334" s="66"/>
+      <c r="A1334" s="67"/>
       <c r="B1334" s="30"/>
-      <c r="C1334" s="66"/>
-      <c r="D1334" s="66"/>
-      <c r="E1334" s="66"/>
-      <c r="F1334" s="66"/>
+      <c r="C1334" s="67"/>
+      <c r="D1334" s="67"/>
+      <c r="E1334" s="67"/>
+      <c r="F1334" s="67"/>
       <c r="G1334" s="28"/>
-      <c r="H1334" s="66"/>
+      <c r="H1334" s="67"/>
     </row>
     <row r="1335" spans="1:8">
-      <c r="A1335" s="66"/>
+      <c r="A1335" s="67"/>
       <c r="B1335" s="30"/>
-      <c r="C1335" s="66"/>
-      <c r="D1335" s="66"/>
-      <c r="E1335" s="66"/>
-      <c r="F1335" s="66"/>
+      <c r="C1335" s="67"/>
+      <c r="D1335" s="67"/>
+      <c r="E1335" s="67"/>
+      <c r="F1335" s="67"/>
       <c r="G1335" s="28"/>
-      <c r="H1335" s="66"/>
+      <c r="H1335" s="67"/>
     </row>
     <row r="1336" spans="1:8">
-      <c r="A1336" s="66"/>
+      <c r="A1336" s="67"/>
       <c r="B1336" s="30"/>
-      <c r="C1336" s="66"/>
-      <c r="D1336" s="66"/>
-      <c r="E1336" s="66"/>
-      <c r="F1336" s="66"/>
+      <c r="C1336" s="67"/>
+      <c r="D1336" s="67"/>
+      <c r="E1336" s="67"/>
+      <c r="F1336" s="67"/>
       <c r="G1336" s="28"/>
-      <c r="H1336" s="66"/>
+      <c r="H1336" s="67"/>
     </row>
     <row r="1337" spans="1:8">
       <c r="A1337" s="28"/>
@@ -19184,27 +19223,121 @@
       <c r="H1369" s="28"/>
     </row>
     <row r="1370" spans="1:8">
-      <c r="A1370" s="66"/>
+      <c r="A1370" s="67"/>
       <c r="B1370" s="30"/>
-      <c r="C1370" s="66"/>
-      <c r="D1370" s="66"/>
-      <c r="E1370" s="66"/>
-      <c r="F1370" s="66"/>
+      <c r="C1370" s="67"/>
+      <c r="D1370" s="67"/>
+      <c r="E1370" s="67"/>
+      <c r="F1370" s="67"/>
       <c r="G1370" s="28"/>
-      <c r="H1370" s="66"/>
+      <c r="H1370" s="67"/>
     </row>
     <row r="1371" spans="1:8">
-      <c r="A1371" s="66"/>
+      <c r="A1371" s="67"/>
       <c r="B1371" s="30"/>
-      <c r="C1371" s="66"/>
-      <c r="D1371" s="66"/>
-      <c r="E1371" s="66"/>
-      <c r="F1371" s="66"/>
+      <c r="C1371" s="67"/>
+      <c r="D1371" s="67"/>
+      <c r="E1371" s="67"/>
+      <c r="F1371" s="67"/>
       <c r="G1371" s="28"/>
-      <c r="H1371" s="66"/>
+      <c r="H1371" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="118">
+    <mergeCell ref="F953:F957"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="D236:D237"/>
+    <mergeCell ref="E236:E237"/>
+    <mergeCell ref="A224:A225"/>
+    <mergeCell ref="C224:C225"/>
+    <mergeCell ref="D224:D225"/>
+    <mergeCell ref="E224:E225"/>
+    <mergeCell ref="F224:F225"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="D240:D241"/>
+    <mergeCell ref="E240:E241"/>
+    <mergeCell ref="F240:F241"/>
+    <mergeCell ref="E953:E957"/>
+    <mergeCell ref="F188:F189"/>
+    <mergeCell ref="G188:G189"/>
+    <mergeCell ref="H188:H189"/>
+    <mergeCell ref="E192:E193"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="H192:H193"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="G195:G196"/>
+    <mergeCell ref="H195:H196"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="E199:E200"/>
+    <mergeCell ref="F199:F200"/>
+    <mergeCell ref="H199:H200"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="E195:E196"/>
+    <mergeCell ref="F207:F208"/>
+    <mergeCell ref="G207:G208"/>
+    <mergeCell ref="H207:H208"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="E211:E212"/>
+    <mergeCell ref="F211:F212"/>
+    <mergeCell ref="H211:H212"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="D207:D208"/>
+    <mergeCell ref="E207:E208"/>
+    <mergeCell ref="F217:F218"/>
+    <mergeCell ref="G217:G218"/>
+    <mergeCell ref="H217:H218"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="H221:H222"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="E217:E218"/>
+    <mergeCell ref="G224:G225"/>
+    <mergeCell ref="H224:H225"/>
+    <mergeCell ref="A228:A229"/>
+    <mergeCell ref="C228:C229"/>
+    <mergeCell ref="D228:D229"/>
+    <mergeCell ref="E228:E229"/>
+    <mergeCell ref="F228:F229"/>
+    <mergeCell ref="H228:H229"/>
+    <mergeCell ref="F236:F237"/>
+    <mergeCell ref="G236:G237"/>
+    <mergeCell ref="H236:H237"/>
+    <mergeCell ref="H240:H241"/>
+    <mergeCell ref="G953:G957"/>
+    <mergeCell ref="H953:H957"/>
+    <mergeCell ref="A982:A986"/>
+    <mergeCell ref="C982:C986"/>
+    <mergeCell ref="E982:E986"/>
+    <mergeCell ref="F982:F986"/>
+    <mergeCell ref="G982:G986"/>
+    <mergeCell ref="H982:H986"/>
+    <mergeCell ref="H246:H247"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="C250:C251"/>
+    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="E250:E251"/>
+    <mergeCell ref="F250:F251"/>
+    <mergeCell ref="H250:H251"/>
+    <mergeCell ref="A246:A247"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="D246:D247"/>
+    <mergeCell ref="E246:E247"/>
+    <mergeCell ref="F246:F247"/>
+    <mergeCell ref="G246:G247"/>
+    <mergeCell ref="A953:A957"/>
+    <mergeCell ref="C953:C957"/>
     <mergeCell ref="F1334:F1336"/>
     <mergeCell ref="H1334:H1336"/>
     <mergeCell ref="A1370:A1371"/>
@@ -19229,100 +19362,6 @@
     <mergeCell ref="C1287:C1289"/>
     <mergeCell ref="D1287:D1289"/>
     <mergeCell ref="E1287:E1289"/>
-    <mergeCell ref="H240:H241"/>
-    <mergeCell ref="G953:G957"/>
-    <mergeCell ref="H953:H957"/>
-    <mergeCell ref="A982:A986"/>
-    <mergeCell ref="C982:C986"/>
-    <mergeCell ref="E982:E986"/>
-    <mergeCell ref="F982:F986"/>
-    <mergeCell ref="G982:G986"/>
-    <mergeCell ref="H982:H986"/>
-    <mergeCell ref="H246:H247"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="C250:C251"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="E250:E251"/>
-    <mergeCell ref="F250:F251"/>
-    <mergeCell ref="H250:H251"/>
-    <mergeCell ref="A246:A247"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="D246:D247"/>
-    <mergeCell ref="E246:E247"/>
-    <mergeCell ref="F246:F247"/>
-    <mergeCell ref="G246:G247"/>
-    <mergeCell ref="A953:A957"/>
-    <mergeCell ref="C953:C957"/>
-    <mergeCell ref="G224:G225"/>
-    <mergeCell ref="H224:H225"/>
-    <mergeCell ref="A228:A229"/>
-    <mergeCell ref="C228:C229"/>
-    <mergeCell ref="D228:D229"/>
-    <mergeCell ref="E228:E229"/>
-    <mergeCell ref="F228:F229"/>
-    <mergeCell ref="H228:H229"/>
-    <mergeCell ref="F236:F237"/>
-    <mergeCell ref="G236:G237"/>
-    <mergeCell ref="H236:H237"/>
-    <mergeCell ref="F217:F218"/>
-    <mergeCell ref="G217:G218"/>
-    <mergeCell ref="H217:H218"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="F221:F222"/>
-    <mergeCell ref="H221:H222"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="E217:E218"/>
-    <mergeCell ref="F207:F208"/>
-    <mergeCell ref="G207:G208"/>
-    <mergeCell ref="H207:H208"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="E211:E212"/>
-    <mergeCell ref="F211:F212"/>
-    <mergeCell ref="H211:H212"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="D207:D208"/>
-    <mergeCell ref="E207:E208"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="G195:G196"/>
-    <mergeCell ref="H195:H196"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="E199:E200"/>
-    <mergeCell ref="F199:F200"/>
-    <mergeCell ref="H199:H200"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="D195:D196"/>
-    <mergeCell ref="E195:E196"/>
-    <mergeCell ref="F188:F189"/>
-    <mergeCell ref="G188:G189"/>
-    <mergeCell ref="H188:H189"/>
-    <mergeCell ref="E192:E193"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="H192:H193"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="F953:F957"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="D236:D237"/>
-    <mergeCell ref="E236:E237"/>
-    <mergeCell ref="A224:A225"/>
-    <mergeCell ref="C224:C225"/>
-    <mergeCell ref="D224:D225"/>
-    <mergeCell ref="E224:E225"/>
-    <mergeCell ref="F224:F225"/>
-    <mergeCell ref="A240:A241"/>
-    <mergeCell ref="C240:C241"/>
-    <mergeCell ref="D240:D241"/>
-    <mergeCell ref="E240:E241"/>
-    <mergeCell ref="F240:F241"/>
-    <mergeCell ref="E953:E957"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19330,11 +19369,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C28FAAC-D5E5-4732-A6FD-A0E4E9CDEB69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1245"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B64" sqref="A64:B64"/>
+    <sheetView topLeftCell="A724" workbookViewId="0">
+      <selection activeCell="D770" sqref="D770"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -19612,6 +19651,9 @@
       <c r="A33" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="B33" s="3" t="s">
+        <v>895</v>
+      </c>
       <c r="C33" s="3" t="s">
         <v>77</v>
       </c>
@@ -19960,7 +20002,7 @@
       </c>
     </row>
     <row r="80" spans="5:7" ht="28.8">
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="15" t="s">
         <v>86</v>
       </c>
       <c r="G80" s="3" t="s">
@@ -20043,6 +20085,9 @@
       <c r="A94" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="B94" s="3" t="s">
+        <v>895</v>
+      </c>
       <c r="C94" s="3" t="s">
         <v>94</v>
       </c>
@@ -20168,7 +20213,7 @@
       </c>
     </row>
     <row r="110" spans="5:7" ht="28.8">
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="15" t="s">
         <v>86</v>
       </c>
       <c r="G110" s="3" t="s">
@@ -21035,6 +21080,9 @@
       <c r="A232" s="3" t="s">
         <v>123</v>
       </c>
+      <c r="B232" s="3" t="s">
+        <v>895</v>
+      </c>
       <c r="C232" s="3" t="s">
         <v>124</v>
       </c>
@@ -21165,7 +21213,7 @@
       </c>
     </row>
     <row r="249" spans="5:7" ht="28.8">
-      <c r="E249" s="3" t="s">
+      <c r="E249" s="15" t="s">
         <v>86</v>
       </c>
       <c r="G249" s="3" t="s">
@@ -21464,6 +21512,9 @@
       <c r="A293" s="3" t="s">
         <v>132</v>
       </c>
+      <c r="B293" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="C293" s="3" t="s">
         <v>133</v>
       </c>
@@ -21589,7 +21640,7 @@
       </c>
     </row>
     <row r="309" spans="1:8" ht="43.2">
-      <c r="E309" s="3" t="s">
+      <c r="E309" s="15" t="s">
         <v>56</v>
       </c>
       <c r="G309" s="3" t="s">
@@ -21609,7 +21660,9 @@
       <c r="A312" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="B312" s="31"/>
+      <c r="B312" s="31" t="s">
+        <v>895</v>
+      </c>
       <c r="C312" s="3" t="s">
         <v>137</v>
       </c>
@@ -21735,7 +21788,7 @@
       </c>
     </row>
     <row r="328" spans="5:7" ht="43.2">
-      <c r="E328" s="3" t="s">
+      <c r="E328" s="15" t="s">
         <v>56</v>
       </c>
       <c r="G328" s="3" t="s">
@@ -21790,7 +21843,7 @@
       </c>
     </row>
     <row r="336" spans="5:7">
-      <c r="E336" s="3" t="s">
+      <c r="E336" s="15" t="s">
         <v>66</v>
       </c>
     </row>
@@ -22064,6 +22117,9 @@
       <c r="A378" s="3" t="s">
         <v>146</v>
       </c>
+      <c r="B378" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="C378" s="3" t="s">
         <v>147</v>
       </c>
@@ -22176,6 +22232,9 @@
     <row r="393" spans="1:8" ht="28.8">
       <c r="A393" s="3" t="s">
         <v>153</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>893</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>154</v>
@@ -24196,6 +24255,9 @@
       <c r="A659" s="3" t="s">
         <v>243</v>
       </c>
+      <c r="B659" s="3" t="s">
+        <v>895</v>
+      </c>
       <c r="C659" s="3" t="s">
         <v>244</v>
       </c>
@@ -24458,6 +24520,9 @@
       <c r="A694" s="3" t="s">
         <v>245</v>
       </c>
+      <c r="B694" s="3" t="s">
+        <v>895</v>
+      </c>
       <c r="C694" s="3" t="s">
         <v>246</v>
       </c>
@@ -24717,6 +24782,9 @@
       <c r="A729" s="3" t="s">
         <v>249</v>
       </c>
+      <c r="B729" s="3" t="s">
+        <v>895</v>
+      </c>
       <c r="C729" s="3" t="s">
         <v>250</v>
       </c>
@@ -24867,7 +24935,7 @@
       </c>
     </row>
     <row r="748" spans="5:7" ht="43.2">
-      <c r="E748" s="3" t="s">
+      <c r="E748" s="15" t="s">
         <v>189</v>
       </c>
       <c r="G748" s="3" t="s">
@@ -29123,11 +29191,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C91E246-139C-4A27-993D-1954A0D58EAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1335"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+    <sheetView topLeftCell="A423" workbookViewId="0">
+      <selection activeCell="C440" sqref="C440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -29986,14 +30054,16 @@
       <c r="A61" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="17"/>
+      <c r="B61" s="21" t="s">
+        <v>895</v>
+      </c>
       <c r="C61" s="17" t="s">
         <v>389</v>
       </c>
       <c r="D61" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E61" s="17" t="s">
+      <c r="E61" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F61" s="18" t="s">
@@ -30012,7 +30082,7 @@
       <c r="E62" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="F62" s="17" t="s">
+      <c r="F62" s="21" t="s">
         <v>391</v>
       </c>
       <c r="G62" s="17" t="s">
@@ -30356,7 +30426,9 @@
       <c r="A88" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="17"/>
+      <c r="B88" s="21" t="s">
+        <v>895</v>
+      </c>
       <c r="C88" s="17" t="s">
         <v>396</v>
       </c>
@@ -47491,7 +47563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3C25F2-2599-4CFA-BD29-E51596B78028}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1376"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
@@ -59028,7 +59100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8C4D94-3FE6-406E-AFF5-2B5FF44B23CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -60092,7 +60164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E587B08D-2061-4D0C-9AFE-FE081811DD48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -60929,6 +61001,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101007976F8CCA0ED0D47930681AA21DEEE24" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="5d6bb8c47ca5c908ea932f041c0d02bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="21ec7336-031d-40ce-b88b-6a916b8e11b4" xmlns:ns4="fe969a12-aade-4ac2-a23f-8e1b54a37ff5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79bbd8f77373bcb0829ef1b6439f04bf" ns3:_="" ns4:_="">
     <xsd:import namespace="21ec7336-031d-40ce-b88b-6a916b8e11b4"/>
@@ -61131,22 +61218,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF8AABAE-A744-4E9C-8170-C8585CA79AEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CB26C50-9672-46A3-BDE2-4208B21162A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1020987D-2736-4945-83CD-D094942F0B74}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -61163,21 +61252,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CB26C50-9672-46A3-BDE2-4208B21162A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF8AABAE-A744-4E9C-8170-C8585CA79AEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/AutomationTracker.xlsx
+++ b/AutomationTracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vikas\Desktop\LG\captcha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vikas\Desktop\Latest_lg\captcha\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8563" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8564" uniqueCount="897">
   <si>
     <t>Areas</t>
   </si>
@@ -3533,7 +3533,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3792,14 +3792,14 @@
         <v>15</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <f>SUM(C13-D13)</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>9</v>
-      </c>
-      <c r="F13">
-        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -3813,14 +3813,14 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <f t="shared" ref="E14:E18" si="1">SUM(C14-D14)</f>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H14" s="48" t="s">
         <v>855</v>
@@ -3837,11 +3837,14 @@
         <v>25</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>786</v>
@@ -3927,6 +3930,12 @@
       <c r="A21" t="s">
         <v>858</v>
       </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
       <c r="F21">
         <v>1</v>
       </c>
@@ -3937,7 +3946,7 @@
     <row r="22" spans="1:8">
       <c r="E22">
         <f>SUM(E13:E21)</f>
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="H22" s="43" t="s">
         <v>792</v>
@@ -3951,7 +3960,7 @@
       <c r="C23" s="66"/>
       <c r="D23" s="59">
         <f>SUM(D13:D22)</f>
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E23" s="58"/>
     </row>
@@ -19244,76 +19253,30 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="F953:F957"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="D236:D237"/>
-    <mergeCell ref="E236:E237"/>
-    <mergeCell ref="A224:A225"/>
-    <mergeCell ref="C224:C225"/>
-    <mergeCell ref="D224:D225"/>
-    <mergeCell ref="E224:E225"/>
-    <mergeCell ref="F224:F225"/>
-    <mergeCell ref="A240:A241"/>
-    <mergeCell ref="C240:C241"/>
-    <mergeCell ref="D240:D241"/>
-    <mergeCell ref="E240:E241"/>
-    <mergeCell ref="F240:F241"/>
-    <mergeCell ref="E953:E957"/>
-    <mergeCell ref="F188:F189"/>
-    <mergeCell ref="G188:G189"/>
-    <mergeCell ref="H188:H189"/>
-    <mergeCell ref="E192:E193"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="H192:H193"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="G195:G196"/>
-    <mergeCell ref="H195:H196"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="E199:E200"/>
-    <mergeCell ref="F199:F200"/>
-    <mergeCell ref="H199:H200"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="D195:D196"/>
-    <mergeCell ref="E195:E196"/>
-    <mergeCell ref="F207:F208"/>
-    <mergeCell ref="G207:G208"/>
-    <mergeCell ref="H207:H208"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="E211:E212"/>
-    <mergeCell ref="F211:F212"/>
-    <mergeCell ref="H211:H212"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="D207:D208"/>
-    <mergeCell ref="E207:E208"/>
-    <mergeCell ref="F217:F218"/>
-    <mergeCell ref="G217:G218"/>
-    <mergeCell ref="H217:H218"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="F221:F222"/>
-    <mergeCell ref="H221:H222"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="E217:E218"/>
-    <mergeCell ref="G224:G225"/>
-    <mergeCell ref="H224:H225"/>
-    <mergeCell ref="A228:A229"/>
-    <mergeCell ref="C228:C229"/>
-    <mergeCell ref="D228:D229"/>
-    <mergeCell ref="E228:E229"/>
-    <mergeCell ref="F228:F229"/>
-    <mergeCell ref="H228:H229"/>
-    <mergeCell ref="F236:F237"/>
-    <mergeCell ref="G236:G237"/>
-    <mergeCell ref="H236:H237"/>
+    <mergeCell ref="F1334:F1336"/>
+    <mergeCell ref="H1334:H1336"/>
+    <mergeCell ref="A1370:A1371"/>
+    <mergeCell ref="C1370:C1371"/>
+    <mergeCell ref="D1370:D1371"/>
+    <mergeCell ref="E1370:E1371"/>
+    <mergeCell ref="F1370:F1371"/>
+    <mergeCell ref="H1370:H1371"/>
+    <mergeCell ref="F1287:F1289"/>
+    <mergeCell ref="H1287:H1289"/>
+    <mergeCell ref="A1308:A1314"/>
+    <mergeCell ref="C1308:C1314"/>
+    <mergeCell ref="D1308:D1314"/>
+    <mergeCell ref="E1308:E1314"/>
+    <mergeCell ref="F1308:F1314"/>
+    <mergeCell ref="H1308:H1314"/>
+    <mergeCell ref="A1334:A1336"/>
+    <mergeCell ref="C1334:C1336"/>
+    <mergeCell ref="D1334:D1336"/>
+    <mergeCell ref="E1334:E1336"/>
+    <mergeCell ref="A1287:A1289"/>
+    <mergeCell ref="C1287:C1289"/>
+    <mergeCell ref="D1287:D1289"/>
+    <mergeCell ref="E1287:E1289"/>
     <mergeCell ref="H240:H241"/>
     <mergeCell ref="G953:G957"/>
     <mergeCell ref="H953:H957"/>
@@ -19338,30 +19301,76 @@
     <mergeCell ref="G246:G247"/>
     <mergeCell ref="A953:A957"/>
     <mergeCell ref="C953:C957"/>
-    <mergeCell ref="F1334:F1336"/>
-    <mergeCell ref="H1334:H1336"/>
-    <mergeCell ref="A1370:A1371"/>
-    <mergeCell ref="C1370:C1371"/>
-    <mergeCell ref="D1370:D1371"/>
-    <mergeCell ref="E1370:E1371"/>
-    <mergeCell ref="F1370:F1371"/>
-    <mergeCell ref="H1370:H1371"/>
-    <mergeCell ref="F1287:F1289"/>
-    <mergeCell ref="H1287:H1289"/>
-    <mergeCell ref="A1308:A1314"/>
-    <mergeCell ref="C1308:C1314"/>
-    <mergeCell ref="D1308:D1314"/>
-    <mergeCell ref="E1308:E1314"/>
-    <mergeCell ref="F1308:F1314"/>
-    <mergeCell ref="H1308:H1314"/>
-    <mergeCell ref="A1334:A1336"/>
-    <mergeCell ref="C1334:C1336"/>
-    <mergeCell ref="D1334:D1336"/>
-    <mergeCell ref="E1334:E1336"/>
-    <mergeCell ref="A1287:A1289"/>
-    <mergeCell ref="C1287:C1289"/>
-    <mergeCell ref="D1287:D1289"/>
-    <mergeCell ref="E1287:E1289"/>
+    <mergeCell ref="G224:G225"/>
+    <mergeCell ref="H224:H225"/>
+    <mergeCell ref="A228:A229"/>
+    <mergeCell ref="C228:C229"/>
+    <mergeCell ref="D228:D229"/>
+    <mergeCell ref="E228:E229"/>
+    <mergeCell ref="F228:F229"/>
+    <mergeCell ref="H228:H229"/>
+    <mergeCell ref="F236:F237"/>
+    <mergeCell ref="G236:G237"/>
+    <mergeCell ref="H236:H237"/>
+    <mergeCell ref="F217:F218"/>
+    <mergeCell ref="G217:G218"/>
+    <mergeCell ref="H217:H218"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="H221:H222"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="E217:E218"/>
+    <mergeCell ref="F207:F208"/>
+    <mergeCell ref="G207:G208"/>
+    <mergeCell ref="H207:H208"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="E211:E212"/>
+    <mergeCell ref="F211:F212"/>
+    <mergeCell ref="H211:H212"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="D207:D208"/>
+    <mergeCell ref="E207:E208"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="G195:G196"/>
+    <mergeCell ref="H195:H196"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="E199:E200"/>
+    <mergeCell ref="F199:F200"/>
+    <mergeCell ref="H199:H200"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="E195:E196"/>
+    <mergeCell ref="F188:F189"/>
+    <mergeCell ref="G188:G189"/>
+    <mergeCell ref="H188:H189"/>
+    <mergeCell ref="E192:E193"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="H192:H193"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="F953:F957"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="D236:D237"/>
+    <mergeCell ref="E236:E237"/>
+    <mergeCell ref="A224:A225"/>
+    <mergeCell ref="C224:C225"/>
+    <mergeCell ref="D224:D225"/>
+    <mergeCell ref="E224:E225"/>
+    <mergeCell ref="F224:F225"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="D240:D241"/>
+    <mergeCell ref="E240:E241"/>
+    <mergeCell ref="F240:F241"/>
+    <mergeCell ref="E953:E957"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19372,8 +19381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1245"/>
   <sheetViews>
-    <sheetView topLeftCell="A724" workbookViewId="0">
-      <selection activeCell="D770" sqref="D770"/>
+    <sheetView topLeftCell="A793" workbookViewId="0">
+      <selection activeCell="B764" sqref="B764"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -25038,6 +25047,9 @@
     <row r="763" spans="1:8" ht="43.2">
       <c r="A763" s="3" t="s">
         <v>251</v>
+      </c>
+      <c r="B763" s="3" t="s">
+        <v>895</v>
       </c>
       <c r="C763" s="3" t="s">
         <v>252</v>
@@ -61001,21 +61013,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101007976F8CCA0ED0D47930681AA21DEEE24" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="5d6bb8c47ca5c908ea932f041c0d02bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="21ec7336-031d-40ce-b88b-6a916b8e11b4" xmlns:ns4="fe969a12-aade-4ac2-a23f-8e1b54a37ff5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79bbd8f77373bcb0829ef1b6439f04bf" ns3:_="" ns4:_="">
     <xsd:import namespace="21ec7336-031d-40ce-b88b-6a916b8e11b4"/>
@@ -61218,24 +61215,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF8AABAE-A744-4E9C-8170-C8585CA79AEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CB26C50-9672-46A3-BDE2-4208B21162A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1020987D-2736-4945-83CD-D094942F0B74}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -61252,4 +61247,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CB26C50-9672-46A3-BDE2-4208B21162A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF8AABAE-A744-4E9C-8170-C8585CA79AEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/AutomationTracker.xlsx
+++ b/AutomationTracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8076" tabRatio="791"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8076" tabRatio="791" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="16" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8564" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8570" uniqueCount="897">
   <si>
     <t>Areas</t>
   </si>
@@ -3532,8 +3532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3861,11 +3861,14 @@
         <v>27</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
       </c>
       <c r="H16" s="43" t="s">
         <v>787</v>
@@ -3946,7 +3949,7 @@
     <row r="22" spans="1:8">
       <c r="E22">
         <f>SUM(E13:E21)</f>
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H22" s="43" t="s">
         <v>792</v>
@@ -3960,7 +3963,7 @@
       <c r="C23" s="66"/>
       <c r="D23" s="59">
         <f>SUM(D13:D22)</f>
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E23" s="58"/>
     </row>
@@ -19253,6 +19256,100 @@
     </row>
   </sheetData>
   <mergeCells count="118">
+    <mergeCell ref="F953:F957"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="D236:D237"/>
+    <mergeCell ref="E236:E237"/>
+    <mergeCell ref="A224:A225"/>
+    <mergeCell ref="C224:C225"/>
+    <mergeCell ref="D224:D225"/>
+    <mergeCell ref="E224:E225"/>
+    <mergeCell ref="F224:F225"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="D240:D241"/>
+    <mergeCell ref="E240:E241"/>
+    <mergeCell ref="F240:F241"/>
+    <mergeCell ref="E953:E957"/>
+    <mergeCell ref="F188:F189"/>
+    <mergeCell ref="G188:G189"/>
+    <mergeCell ref="H188:H189"/>
+    <mergeCell ref="E192:E193"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="H192:H193"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="G195:G196"/>
+    <mergeCell ref="H195:H196"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="E199:E200"/>
+    <mergeCell ref="F199:F200"/>
+    <mergeCell ref="H199:H200"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="E195:E196"/>
+    <mergeCell ref="F207:F208"/>
+    <mergeCell ref="G207:G208"/>
+    <mergeCell ref="H207:H208"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="E211:E212"/>
+    <mergeCell ref="F211:F212"/>
+    <mergeCell ref="H211:H212"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="D207:D208"/>
+    <mergeCell ref="E207:E208"/>
+    <mergeCell ref="F217:F218"/>
+    <mergeCell ref="G217:G218"/>
+    <mergeCell ref="H217:H218"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="H221:H222"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="E217:E218"/>
+    <mergeCell ref="G224:G225"/>
+    <mergeCell ref="H224:H225"/>
+    <mergeCell ref="A228:A229"/>
+    <mergeCell ref="C228:C229"/>
+    <mergeCell ref="D228:D229"/>
+    <mergeCell ref="E228:E229"/>
+    <mergeCell ref="F228:F229"/>
+    <mergeCell ref="H228:H229"/>
+    <mergeCell ref="F236:F237"/>
+    <mergeCell ref="G236:G237"/>
+    <mergeCell ref="H236:H237"/>
+    <mergeCell ref="H240:H241"/>
+    <mergeCell ref="G953:G957"/>
+    <mergeCell ref="H953:H957"/>
+    <mergeCell ref="A982:A986"/>
+    <mergeCell ref="C982:C986"/>
+    <mergeCell ref="E982:E986"/>
+    <mergeCell ref="F982:F986"/>
+    <mergeCell ref="G982:G986"/>
+    <mergeCell ref="H982:H986"/>
+    <mergeCell ref="H246:H247"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="C250:C251"/>
+    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="E250:E251"/>
+    <mergeCell ref="F250:F251"/>
+    <mergeCell ref="H250:H251"/>
+    <mergeCell ref="A246:A247"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="D246:D247"/>
+    <mergeCell ref="E246:E247"/>
+    <mergeCell ref="F246:F247"/>
+    <mergeCell ref="G246:G247"/>
+    <mergeCell ref="A953:A957"/>
+    <mergeCell ref="C953:C957"/>
     <mergeCell ref="F1334:F1336"/>
     <mergeCell ref="H1334:H1336"/>
     <mergeCell ref="A1370:A1371"/>
@@ -19277,100 +19374,6 @@
     <mergeCell ref="C1287:C1289"/>
     <mergeCell ref="D1287:D1289"/>
     <mergeCell ref="E1287:E1289"/>
-    <mergeCell ref="H240:H241"/>
-    <mergeCell ref="G953:G957"/>
-    <mergeCell ref="H953:H957"/>
-    <mergeCell ref="A982:A986"/>
-    <mergeCell ref="C982:C986"/>
-    <mergeCell ref="E982:E986"/>
-    <mergeCell ref="F982:F986"/>
-    <mergeCell ref="G982:G986"/>
-    <mergeCell ref="H982:H986"/>
-    <mergeCell ref="H246:H247"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="C250:C251"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="E250:E251"/>
-    <mergeCell ref="F250:F251"/>
-    <mergeCell ref="H250:H251"/>
-    <mergeCell ref="A246:A247"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="D246:D247"/>
-    <mergeCell ref="E246:E247"/>
-    <mergeCell ref="F246:F247"/>
-    <mergeCell ref="G246:G247"/>
-    <mergeCell ref="A953:A957"/>
-    <mergeCell ref="C953:C957"/>
-    <mergeCell ref="G224:G225"/>
-    <mergeCell ref="H224:H225"/>
-    <mergeCell ref="A228:A229"/>
-    <mergeCell ref="C228:C229"/>
-    <mergeCell ref="D228:D229"/>
-    <mergeCell ref="E228:E229"/>
-    <mergeCell ref="F228:F229"/>
-    <mergeCell ref="H228:H229"/>
-    <mergeCell ref="F236:F237"/>
-    <mergeCell ref="G236:G237"/>
-    <mergeCell ref="H236:H237"/>
-    <mergeCell ref="F217:F218"/>
-    <mergeCell ref="G217:G218"/>
-    <mergeCell ref="H217:H218"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="F221:F222"/>
-    <mergeCell ref="H221:H222"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="E217:E218"/>
-    <mergeCell ref="F207:F208"/>
-    <mergeCell ref="G207:G208"/>
-    <mergeCell ref="H207:H208"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="E211:E212"/>
-    <mergeCell ref="F211:F212"/>
-    <mergeCell ref="H211:H212"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="D207:D208"/>
-    <mergeCell ref="E207:E208"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="G195:G196"/>
-    <mergeCell ref="H195:H196"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="E199:E200"/>
-    <mergeCell ref="F199:F200"/>
-    <mergeCell ref="H199:H200"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="D195:D196"/>
-    <mergeCell ref="E195:E196"/>
-    <mergeCell ref="F188:F189"/>
-    <mergeCell ref="G188:G189"/>
-    <mergeCell ref="H188:H189"/>
-    <mergeCell ref="E192:E193"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="H192:H193"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="F953:F957"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="D236:D237"/>
-    <mergeCell ref="E236:E237"/>
-    <mergeCell ref="A224:A225"/>
-    <mergeCell ref="C224:C225"/>
-    <mergeCell ref="D224:D225"/>
-    <mergeCell ref="E224:E225"/>
-    <mergeCell ref="F224:F225"/>
-    <mergeCell ref="A240:A241"/>
-    <mergeCell ref="C240:C241"/>
-    <mergeCell ref="D240:D241"/>
-    <mergeCell ref="E240:E241"/>
-    <mergeCell ref="F240:F241"/>
-    <mergeCell ref="E953:E957"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -47578,8 +47581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1376"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E133" sqref="E133"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -48023,6 +48026,9 @@
       <c r="A51" s="3" t="s">
         <v>83</v>
       </c>
+      <c r="B51" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="C51" s="3" t="s">
         <v>505</v>
       </c>
@@ -48199,6 +48205,9 @@
       <c r="A73" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="B73" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="C73" s="3" t="s">
         <v>508</v>
       </c>
@@ -48578,6 +48587,9 @@
     <row r="121" spans="1:8" ht="28.8">
       <c r="A121" s="3" t="s">
         <v>103</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>893</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>514</v>
@@ -48763,6 +48775,9 @@
       <c r="A143" s="3" t="s">
         <v>105</v>
       </c>
+      <c r="B143" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="C143" s="3" t="s">
         <v>518</v>
       </c>
@@ -48948,6 +48963,9 @@
       <c r="A167" s="3" t="s">
         <v>111</v>
       </c>
+      <c r="B167" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="C167" s="3" t="s">
         <v>521</v>
       </c>
@@ -49716,6 +49734,9 @@
     <row r="265" spans="1:8" ht="28.8">
       <c r="A265" s="3" t="s">
         <v>136</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>893</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>533</v>
@@ -61013,6 +61034,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101007976F8CCA0ED0D47930681AA21DEEE24" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="5d6bb8c47ca5c908ea932f041c0d02bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="21ec7336-031d-40ce-b88b-6a916b8e11b4" xmlns:ns4="fe969a12-aade-4ac2-a23f-8e1b54a37ff5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79bbd8f77373bcb0829ef1b6439f04bf" ns3:_="" ns4:_="">
     <xsd:import namespace="21ec7336-031d-40ce-b88b-6a916b8e11b4"/>
@@ -61215,22 +61251,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF8AABAE-A744-4E9C-8170-C8585CA79AEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CB26C50-9672-46A3-BDE2-4208B21162A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1020987D-2736-4945-83CD-D094942F0B74}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -61247,21 +61285,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CB26C50-9672-46A3-BDE2-4208B21162A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF8AABAE-A744-4E9C-8170-C8585CA79AEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/AutomationTracker.xlsx
+++ b/AutomationTracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8076" tabRatio="791" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8076" tabRatio="791"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="16" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8570" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8575" uniqueCount="898">
   <si>
     <t>Areas</t>
   </si>
@@ -2739,6 +2739,9 @@
   </si>
   <si>
     <t>Inomplete</t>
+  </si>
+  <si>
+    <t>InComplete</t>
   </si>
 </sst>
 </file>
@@ -3532,8 +3535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3813,14 +3816,14 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <f t="shared" ref="E14:E18" si="1">SUM(C14-D14)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H14" s="48" t="s">
         <v>855</v>
@@ -3949,7 +3952,7 @@
     <row r="22" spans="1:8">
       <c r="E22">
         <f>SUM(E13:E21)</f>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H22" s="43" t="s">
         <v>792</v>
@@ -3963,7 +3966,7 @@
       <c r="C23" s="66"/>
       <c r="D23" s="59">
         <f>SUM(D13:D22)</f>
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E23" s="58"/>
     </row>
@@ -19256,76 +19259,30 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="F953:F957"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="D236:D237"/>
-    <mergeCell ref="E236:E237"/>
-    <mergeCell ref="A224:A225"/>
-    <mergeCell ref="C224:C225"/>
-    <mergeCell ref="D224:D225"/>
-    <mergeCell ref="E224:E225"/>
-    <mergeCell ref="F224:F225"/>
-    <mergeCell ref="A240:A241"/>
-    <mergeCell ref="C240:C241"/>
-    <mergeCell ref="D240:D241"/>
-    <mergeCell ref="E240:E241"/>
-    <mergeCell ref="F240:F241"/>
-    <mergeCell ref="E953:E957"/>
-    <mergeCell ref="F188:F189"/>
-    <mergeCell ref="G188:G189"/>
-    <mergeCell ref="H188:H189"/>
-    <mergeCell ref="E192:E193"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="H192:H193"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="G195:G196"/>
-    <mergeCell ref="H195:H196"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="E199:E200"/>
-    <mergeCell ref="F199:F200"/>
-    <mergeCell ref="H199:H200"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="D195:D196"/>
-    <mergeCell ref="E195:E196"/>
-    <mergeCell ref="F207:F208"/>
-    <mergeCell ref="G207:G208"/>
-    <mergeCell ref="H207:H208"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="E211:E212"/>
-    <mergeCell ref="F211:F212"/>
-    <mergeCell ref="H211:H212"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="D207:D208"/>
-    <mergeCell ref="E207:E208"/>
-    <mergeCell ref="F217:F218"/>
-    <mergeCell ref="G217:G218"/>
-    <mergeCell ref="H217:H218"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="F221:F222"/>
-    <mergeCell ref="H221:H222"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="E217:E218"/>
-    <mergeCell ref="G224:G225"/>
-    <mergeCell ref="H224:H225"/>
-    <mergeCell ref="A228:A229"/>
-    <mergeCell ref="C228:C229"/>
-    <mergeCell ref="D228:D229"/>
-    <mergeCell ref="E228:E229"/>
-    <mergeCell ref="F228:F229"/>
-    <mergeCell ref="H228:H229"/>
-    <mergeCell ref="F236:F237"/>
-    <mergeCell ref="G236:G237"/>
-    <mergeCell ref="H236:H237"/>
+    <mergeCell ref="F1334:F1336"/>
+    <mergeCell ref="H1334:H1336"/>
+    <mergeCell ref="A1370:A1371"/>
+    <mergeCell ref="C1370:C1371"/>
+    <mergeCell ref="D1370:D1371"/>
+    <mergeCell ref="E1370:E1371"/>
+    <mergeCell ref="F1370:F1371"/>
+    <mergeCell ref="H1370:H1371"/>
+    <mergeCell ref="F1287:F1289"/>
+    <mergeCell ref="H1287:H1289"/>
+    <mergeCell ref="A1308:A1314"/>
+    <mergeCell ref="C1308:C1314"/>
+    <mergeCell ref="D1308:D1314"/>
+    <mergeCell ref="E1308:E1314"/>
+    <mergeCell ref="F1308:F1314"/>
+    <mergeCell ref="H1308:H1314"/>
+    <mergeCell ref="A1334:A1336"/>
+    <mergeCell ref="C1334:C1336"/>
+    <mergeCell ref="D1334:D1336"/>
+    <mergeCell ref="E1334:E1336"/>
+    <mergeCell ref="A1287:A1289"/>
+    <mergeCell ref="C1287:C1289"/>
+    <mergeCell ref="D1287:D1289"/>
+    <mergeCell ref="E1287:E1289"/>
     <mergeCell ref="H240:H241"/>
     <mergeCell ref="G953:G957"/>
     <mergeCell ref="H953:H957"/>
@@ -19350,30 +19307,76 @@
     <mergeCell ref="G246:G247"/>
     <mergeCell ref="A953:A957"/>
     <mergeCell ref="C953:C957"/>
-    <mergeCell ref="F1334:F1336"/>
-    <mergeCell ref="H1334:H1336"/>
-    <mergeCell ref="A1370:A1371"/>
-    <mergeCell ref="C1370:C1371"/>
-    <mergeCell ref="D1370:D1371"/>
-    <mergeCell ref="E1370:E1371"/>
-    <mergeCell ref="F1370:F1371"/>
-    <mergeCell ref="H1370:H1371"/>
-    <mergeCell ref="F1287:F1289"/>
-    <mergeCell ref="H1287:H1289"/>
-    <mergeCell ref="A1308:A1314"/>
-    <mergeCell ref="C1308:C1314"/>
-    <mergeCell ref="D1308:D1314"/>
-    <mergeCell ref="E1308:E1314"/>
-    <mergeCell ref="F1308:F1314"/>
-    <mergeCell ref="H1308:H1314"/>
-    <mergeCell ref="A1334:A1336"/>
-    <mergeCell ref="C1334:C1336"/>
-    <mergeCell ref="D1334:D1336"/>
-    <mergeCell ref="E1334:E1336"/>
-    <mergeCell ref="A1287:A1289"/>
-    <mergeCell ref="C1287:C1289"/>
-    <mergeCell ref="D1287:D1289"/>
-    <mergeCell ref="E1287:E1289"/>
+    <mergeCell ref="G224:G225"/>
+    <mergeCell ref="H224:H225"/>
+    <mergeCell ref="A228:A229"/>
+    <mergeCell ref="C228:C229"/>
+    <mergeCell ref="D228:D229"/>
+    <mergeCell ref="E228:E229"/>
+    <mergeCell ref="F228:F229"/>
+    <mergeCell ref="H228:H229"/>
+    <mergeCell ref="F236:F237"/>
+    <mergeCell ref="G236:G237"/>
+    <mergeCell ref="H236:H237"/>
+    <mergeCell ref="F217:F218"/>
+    <mergeCell ref="G217:G218"/>
+    <mergeCell ref="H217:H218"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="H221:H222"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="E217:E218"/>
+    <mergeCell ref="F207:F208"/>
+    <mergeCell ref="G207:G208"/>
+    <mergeCell ref="H207:H208"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="E211:E212"/>
+    <mergeCell ref="F211:F212"/>
+    <mergeCell ref="H211:H212"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="D207:D208"/>
+    <mergeCell ref="E207:E208"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="G195:G196"/>
+    <mergeCell ref="H195:H196"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="E199:E200"/>
+    <mergeCell ref="F199:F200"/>
+    <mergeCell ref="H199:H200"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="E195:E196"/>
+    <mergeCell ref="F188:F189"/>
+    <mergeCell ref="G188:G189"/>
+    <mergeCell ref="H188:H189"/>
+    <mergeCell ref="E192:E193"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="H192:H193"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="F953:F957"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="D236:D237"/>
+    <mergeCell ref="E236:E237"/>
+    <mergeCell ref="A224:A225"/>
+    <mergeCell ref="C224:C225"/>
+    <mergeCell ref="D224:D225"/>
+    <mergeCell ref="E224:E225"/>
+    <mergeCell ref="F224:F225"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="D240:D241"/>
+    <mergeCell ref="E240:E241"/>
+    <mergeCell ref="F240:F241"/>
+    <mergeCell ref="E953:E957"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19384,8 +19387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1245"/>
   <sheetViews>
-    <sheetView topLeftCell="A793" workbookViewId="0">
-      <selection activeCell="B764" sqref="B764"/>
+    <sheetView topLeftCell="A968" workbookViewId="0">
+      <selection activeCell="B976" sqref="B976"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -25220,7 +25223,7 @@
       </c>
     </row>
     <row r="784" spans="5:7" ht="43.2">
-      <c r="E784" s="3" t="s">
+      <c r="E784" s="15" t="s">
         <v>189</v>
       </c>
       <c r="G784" s="3" t="s">
@@ -25321,11 +25324,13 @@
       <c r="H798" s="4"/>
     </row>
     <row r="799" spans="1:8" ht="129.6">
-      <c r="A799" s="17" t="s">
+      <c r="A799" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="B799" s="17"/>
-      <c r="C799" s="17" t="s">
+      <c r="B799" s="21" t="s">
+        <v>897</v>
+      </c>
+      <c r="C799" s="21" t="s">
         <v>254</v>
       </c>
       <c r="D799" s="17" t="s">
@@ -25350,7 +25355,7 @@
       <c r="E800" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="F800" s="12" t="s">
+      <c r="F800" s="1" t="s">
         <v>258</v>
       </c>
       <c r="G800" s="12" t="s">
@@ -25594,7 +25599,7 @@
       <c r="B818" s="17"/>
       <c r="C818" s="17"/>
       <c r="D818" s="17"/>
-      <c r="E818" s="3" t="s">
+      <c r="E818" s="15" t="s">
         <v>189</v>
       </c>
       <c r="G818" s="3" t="s">
@@ -26213,6 +26218,9 @@
       <c r="A868" s="3" t="s">
         <v>273</v>
       </c>
+      <c r="B868" s="3" t="s">
+        <v>897</v>
+      </c>
       <c r="C868" s="3" t="s">
         <v>274</v>
       </c>
@@ -26508,6 +26516,9 @@
       <c r="A908" s="3" t="s">
         <v>282</v>
       </c>
+      <c r="B908" s="3" t="s">
+        <v>897</v>
+      </c>
       <c r="C908" s="3" t="s">
         <v>283</v>
       </c>
@@ -26803,6 +26814,9 @@
       <c r="A948" s="3" t="s">
         <v>287</v>
       </c>
+      <c r="B948" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="C948" s="3" t="s">
         <v>288</v>
       </c>
@@ -27031,6 +27045,9 @@
     <row r="976" spans="1:8" ht="43.2">
       <c r="A976" s="3" t="s">
         <v>300</v>
+      </c>
+      <c r="B976" s="3" t="s">
+        <v>893</v>
       </c>
       <c r="C976" s="3" t="s">
         <v>301</v>
@@ -29209,8 +29226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1335"/>
   <sheetViews>
-    <sheetView topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="C440" sqref="C440"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B423" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -47581,7 +47598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
@@ -61034,21 +61051,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101007976F8CCA0ED0D47930681AA21DEEE24" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="5d6bb8c47ca5c908ea932f041c0d02bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="21ec7336-031d-40ce-b88b-6a916b8e11b4" xmlns:ns4="fe969a12-aade-4ac2-a23f-8e1b54a37ff5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79bbd8f77373bcb0829ef1b6439f04bf" ns3:_="" ns4:_="">
     <xsd:import namespace="21ec7336-031d-40ce-b88b-6a916b8e11b4"/>
@@ -61251,24 +61253,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF8AABAE-A744-4E9C-8170-C8585CA79AEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CB26C50-9672-46A3-BDE2-4208B21162A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1020987D-2736-4945-83CD-D094942F0B74}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -61285,4 +61285,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CB26C50-9672-46A3-BDE2-4208B21162A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF8AABAE-A744-4E9C-8170-C8585CA79AEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/AutomationTracker.xlsx
+++ b/AutomationTracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8076" tabRatio="791"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8076" tabRatio="791" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="16" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8575" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8584" uniqueCount="898">
   <si>
     <t>Areas</t>
   </si>
@@ -3535,8 +3535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3816,14 +3816,14 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <f t="shared" ref="E14:E18" si="1">SUM(C14-D14)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H14" s="48" t="s">
         <v>855</v>
@@ -3840,14 +3840,14 @@
         <v>25</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>786</v>
@@ -3864,14 +3864,14 @@
         <v>27</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H16" s="43" t="s">
         <v>787</v>
@@ -3952,7 +3952,7 @@
     <row r="22" spans="1:8">
       <c r="E22">
         <f>SUM(E13:E21)</f>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H22" s="43" t="s">
         <v>792</v>
@@ -3966,7 +3966,7 @@
       <c r="C23" s="66"/>
       <c r="D23" s="59">
         <f>SUM(D13:D22)</f>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E23" s="58"/>
     </row>
@@ -3991,8 +3991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1371"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="14.4"/>
@@ -19387,8 +19387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1245"/>
   <sheetViews>
-    <sheetView topLeftCell="A968" workbookViewId="0">
-      <selection activeCell="B976" sqref="B976"/>
+    <sheetView topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="E225" sqref="E225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -28378,6 +28378,9 @@
       <c r="A1147" s="3" t="s">
         <v>327</v>
       </c>
+      <c r="B1147" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="C1147" s="3" t="s">
         <v>328</v>
       </c>
@@ -28443,7 +28446,7 @@
       </c>
     </row>
     <row r="1154" spans="1:8" ht="64.5" customHeight="1">
-      <c r="E1154" s="17" t="s">
+      <c r="E1154" s="21" t="s">
         <v>331</v>
       </c>
       <c r="F1154" s="17"/>
@@ -28456,7 +28459,7 @@
         <v>333</v>
       </c>
       <c r="F1155" s="17"/>
-      <c r="G1155" s="17" t="s">
+      <c r="G1155" s="21" t="s">
         <v>334</v>
       </c>
     </row>
@@ -28474,6 +28477,9 @@
       <c r="A1157" s="3" t="s">
         <v>335</v>
       </c>
+      <c r="B1157" s="3" t="s">
+        <v>897</v>
+      </c>
       <c r="C1157" s="3" t="s">
         <v>336</v>
       </c>
@@ -28561,6 +28567,9 @@
       <c r="A1166" s="3" t="s">
         <v>339</v>
       </c>
+      <c r="B1166" s="3" t="s">
+        <v>897</v>
+      </c>
       <c r="C1166" s="3" t="s">
         <v>340</v>
       </c>
@@ -28953,6 +28962,9 @@
     <row r="1213" spans="1:8" ht="43.2">
       <c r="A1213" s="3" t="s">
         <v>359</v>
+      </c>
+      <c r="B1213" s="3" t="s">
+        <v>897</v>
       </c>
       <c r="C1213" s="3" t="s">
         <v>360</v>
@@ -29226,8 +29238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1335"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="B423" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="E265" sqref="E265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -31254,8 +31266,10 @@
       <c r="A146" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B146" s="17"/>
-      <c r="C146" s="17" t="s">
+      <c r="B146" s="21" t="s">
+        <v>897</v>
+      </c>
+      <c r="C146" s="21" t="s">
         <v>401</v>
       </c>
       <c r="D146" s="17" t="s">
@@ -31624,8 +31638,10 @@
       <c r="A173" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B173" s="17"/>
-      <c r="C173" s="17" t="s">
+      <c r="B173" s="21" t="s">
+        <v>897</v>
+      </c>
+      <c r="C173" s="21" t="s">
         <v>408</v>
       </c>
       <c r="D173" s="17" t="s">
@@ -32018,8 +32034,10 @@
       <c r="A202" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B202" s="17"/>
-      <c r="C202" s="17" t="s">
+      <c r="B202" s="21" t="s">
+        <v>897</v>
+      </c>
+      <c r="C202" s="21" t="s">
         <v>414</v>
       </c>
       <c r="D202" s="17" t="s">
@@ -32400,8 +32418,10 @@
       <c r="A230" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B230" s="8"/>
-      <c r="C230" s="17" t="s">
+      <c r="B230" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="C230" s="21" t="s">
         <v>154</v>
       </c>
       <c r="D230" s="17" t="s">
@@ -47598,8 +47618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1376"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
+      <selection activeCell="E294" sqref="E294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -49162,6 +49182,9 @@
     <row r="190" spans="1:8" ht="28.8">
       <c r="A190" s="3" t="s">
         <v>123</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>893</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>524</v>

--- a/AutomationTracker.xlsx
+++ b/AutomationTracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8076" tabRatio="791" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8076" tabRatio="791"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="16" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8584" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8592" uniqueCount="898">
   <si>
     <t>Areas</t>
   </si>
@@ -3535,8 +3535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3840,14 +3840,14 @@
         <v>25</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>786</v>
@@ -3952,7 +3952,7 @@
     <row r="22" spans="1:8">
       <c r="E22">
         <f>SUM(E13:E21)</f>
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H22" s="43" t="s">
         <v>792</v>
@@ -3966,7 +3966,7 @@
       <c r="C23" s="66"/>
       <c r="D23" s="59">
         <f>SUM(D13:D22)</f>
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E23" s="58"/>
     </row>
@@ -29238,8 +29238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1335"/>
   <sheetViews>
-    <sheetView topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="E265" sqref="E265"/>
+    <sheetView topLeftCell="A956" workbookViewId="0">
+      <selection activeCell="B968" sqref="B968"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -36652,7 +36652,9 @@
       <c r="A540" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B540" s="8"/>
+      <c r="B540" s="8" t="s">
+        <v>893</v>
+      </c>
       <c r="C540" s="17" t="s">
         <v>462</v>
       </c>
@@ -37440,7 +37442,9 @@
       <c r="A597" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="B597" s="17"/>
+      <c r="B597" s="21" t="s">
+        <v>893</v>
+      </c>
       <c r="C597" s="17" t="s">
         <v>464</v>
       </c>
@@ -37824,7 +37828,9 @@
       <c r="A625" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="B625" s="17"/>
+      <c r="B625" s="21" t="s">
+        <v>893</v>
+      </c>
       <c r="C625" s="17" t="s">
         <v>465</v>
       </c>
@@ -41255,7 +41261,9 @@
       <c r="A875" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B875" s="3"/>
+      <c r="B875" s="21" t="s">
+        <v>893</v>
+      </c>
       <c r="C875" s="3" t="s">
         <v>478</v>
       </c>
@@ -41679,7 +41687,9 @@
       <c r="A906" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B906" s="3"/>
+      <c r="B906" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="C906" s="3" t="s">
         <v>479</v>
       </c>
@@ -42091,7 +42101,9 @@
       <c r="A936" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B936" s="3"/>
+      <c r="B936" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="C936" s="3" t="s">
         <v>480</v>
       </c>
@@ -42531,7 +42543,9 @@
       <c r="A968" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="B968" s="17"/>
+      <c r="B968" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="C968" s="17" t="s">
         <v>481</v>
       </c>
@@ -47618,8 +47632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="E294" sqref="E294"/>
+    <sheetView topLeftCell="A811" workbookViewId="0">
+      <selection activeCell="D816" sqref="D816"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -49935,6 +49949,9 @@
     <row r="286" spans="1:8" ht="28.8">
       <c r="A286" s="3" t="s">
         <v>142</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>893</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>538</v>

--- a/AutomationTracker.xlsx
+++ b/AutomationTracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8076" tabRatio="791"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8076" tabRatio="791" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="16" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8592" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8601" uniqueCount="899">
   <si>
     <t>Areas</t>
   </si>
@@ -2742,6 +2742,9 @@
   </si>
   <si>
     <t>InComplete</t>
+  </si>
+  <si>
+    <t>As a guest usee ensure that OMV Subscription item can be added to cart from Kitchen PLP page</t>
   </si>
 </sst>
 </file>
@@ -3033,7 +3036,7 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3204,6 +3207,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3535,8 +3541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3573,16 +3579,16 @@
       <c r="G1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="65" t="s">
         <v>852</v>
       </c>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
       <c r="P1" s="46"/>
     </row>
     <row r="2" spans="1:16">
@@ -3745,11 +3751,11 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="23.4" customHeight="1">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="66" t="s">
         <v>863</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="60">
         <f>SUM(D2:D7)</f>
         <v>35</v>
@@ -3802,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -3864,14 +3870,14 @@
         <v>27</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H16" s="43" t="s">
         <v>787</v>
@@ -3952,21 +3958,21 @@
     <row r="22" spans="1:8">
       <c r="E22">
         <f>SUM(E13:E21)</f>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H22" s="43" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="67" t="s">
         <v>865</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="59">
         <f>SUM(D13:D22)</f>
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E23" s="58"/>
     </row>
@@ -3991,8 +3997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1371"/>
   <sheetViews>
-    <sheetView topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="B207" sqref="B207"/>
+    <sheetView topLeftCell="A267" workbookViewId="0">
+      <selection activeCell="B278" sqref="B278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="14.4"/>
@@ -6948,30 +6954,30 @@
       <c r="B188" s="50" t="s">
         <v>794</v>
       </c>
-      <c r="C188" s="67" t="s">
+      <c r="C188" s="68" t="s">
         <v>744</v>
       </c>
-      <c r="D188" s="67" t="s">
+      <c r="D188" s="68" t="s">
         <v>745</v>
       </c>
-      <c r="E188" s="67" t="s">
+      <c r="E188" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="F188" s="67"/>
-      <c r="G188" s="67"/>
-      <c r="H188" s="67" t="s">
+      <c r="F188" s="68"/>
+      <c r="G188" s="68"/>
+      <c r="H188" s="68" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="51"/>
       <c r="B189" s="37"/>
-      <c r="C189" s="67"/>
-      <c r="D189" s="67"/>
-      <c r="E189" s="67"/>
-      <c r="F189" s="67"/>
-      <c r="G189" s="67"/>
-      <c r="H189" s="67"/>
+      <c r="C189" s="68"/>
+      <c r="D189" s="68"/>
+      <c r="E189" s="68"/>
+      <c r="F189" s="68"/>
+      <c r="G189" s="68"/>
+      <c r="H189" s="68"/>
     </row>
     <row r="190" spans="1:8" ht="28.8">
       <c r="A190" s="37"/>
@@ -7008,26 +7014,26 @@
       <c r="B192" s="51"/>
       <c r="C192" s="51"/>
       <c r="D192" s="51"/>
-      <c r="E192" s="67" t="s">
+      <c r="E192" s="68" t="s">
         <v>747</v>
       </c>
-      <c r="F192" s="67"/>
+      <c r="F192" s="68"/>
       <c r="G192" s="39" t="s">
         <v>861</v>
       </c>
-      <c r="H192" s="67"/>
+      <c r="H192" s="68"/>
     </row>
     <row r="193" spans="1:8" ht="53.25" customHeight="1">
       <c r="A193" s="51"/>
       <c r="B193" s="51"/>
       <c r="C193" s="51"/>
       <c r="D193" s="51"/>
-      <c r="E193" s="67"/>
-      <c r="F193" s="67"/>
+      <c r="E193" s="68"/>
+      <c r="F193" s="68"/>
       <c r="G193" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H193" s="67"/>
+      <c r="H193" s="68"/>
     </row>
     <row r="194" spans="1:8" ht="13.8" customHeight="1">
       <c r="A194" s="29" t="s">
@@ -7060,30 +7066,30 @@
       <c r="B195" s="52" t="s">
         <v>893</v>
       </c>
-      <c r="C195" s="67" t="s">
+      <c r="C195" s="68" t="s">
         <v>750</v>
       </c>
-      <c r="D195" s="67" t="s">
+      <c r="D195" s="68" t="s">
         <v>745</v>
       </c>
-      <c r="E195" s="67" t="s">
+      <c r="E195" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="F195" s="67"/>
-      <c r="G195" s="67"/>
-      <c r="H195" s="67" t="s">
+      <c r="F195" s="68"/>
+      <c r="G195" s="68"/>
+      <c r="H195" s="68" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="51"/>
       <c r="B196" s="37"/>
-      <c r="C196" s="67"/>
-      <c r="D196" s="67"/>
-      <c r="E196" s="67"/>
-      <c r="F196" s="67"/>
-      <c r="G196" s="67"/>
-      <c r="H196" s="67"/>
+      <c r="C196" s="68"/>
+      <c r="D196" s="68"/>
+      <c r="E196" s="68"/>
+      <c r="F196" s="68"/>
+      <c r="G196" s="68"/>
+      <c r="H196" s="68"/>
     </row>
     <row r="197" spans="1:8" ht="28.8">
       <c r="A197" s="37"/>
@@ -7118,28 +7124,28 @@
     <row r="199" spans="1:8">
       <c r="A199" s="51"/>
       <c r="B199" s="37"/>
-      <c r="C199" s="67"/>
-      <c r="D199" s="67"/>
-      <c r="E199" s="67" t="s">
+      <c r="C199" s="68"/>
+      <c r="D199" s="68"/>
+      <c r="E199" s="68" t="s">
         <v>747</v>
       </c>
-      <c r="F199" s="67"/>
+      <c r="F199" s="68"/>
       <c r="G199" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="H199" s="67"/>
+      <c r="H199" s="68"/>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="51"/>
       <c r="B200" s="37"/>
-      <c r="C200" s="67"/>
-      <c r="D200" s="67"/>
-      <c r="E200" s="67"/>
-      <c r="F200" s="67"/>
+      <c r="C200" s="68"/>
+      <c r="D200" s="68"/>
+      <c r="E200" s="68"/>
+      <c r="F200" s="68"/>
       <c r="G200" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H200" s="67"/>
+      <c r="H200" s="68"/>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="37"/>
@@ -7242,30 +7248,30 @@
       <c r="B207" s="50" t="s">
         <v>794</v>
       </c>
-      <c r="C207" s="67" t="s">
+      <c r="C207" s="68" t="s">
         <v>759</v>
       </c>
-      <c r="D207" s="67" t="s">
+      <c r="D207" s="68" t="s">
         <v>745</v>
       </c>
-      <c r="E207" s="67" t="s">
+      <c r="E207" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="F207" s="67"/>
-      <c r="G207" s="67"/>
-      <c r="H207" s="67" t="s">
+      <c r="F207" s="68"/>
+      <c r="G207" s="68"/>
+      <c r="H207" s="68" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="51"/>
       <c r="B208" s="37"/>
-      <c r="C208" s="67"/>
-      <c r="D208" s="67"/>
-      <c r="E208" s="67"/>
-      <c r="F208" s="67"/>
-      <c r="G208" s="67"/>
-      <c r="H208" s="67"/>
+      <c r="C208" s="68"/>
+      <c r="D208" s="68"/>
+      <c r="E208" s="68"/>
+      <c r="F208" s="68"/>
+      <c r="G208" s="68"/>
+      <c r="H208" s="68"/>
     </row>
     <row r="209" spans="1:8" ht="28.8">
       <c r="A209" s="37"/>
@@ -7300,28 +7306,28 @@
     <row r="211" spans="1:8" ht="46.5" customHeight="1">
       <c r="A211" s="51"/>
       <c r="B211" s="37"/>
-      <c r="C211" s="67"/>
-      <c r="D211" s="67"/>
-      <c r="E211" s="67" t="s">
+      <c r="C211" s="68"/>
+      <c r="D211" s="68"/>
+      <c r="E211" s="68" t="s">
         <v>747</v>
       </c>
-      <c r="F211" s="67"/>
+      <c r="F211" s="68"/>
       <c r="G211" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="H211" s="67"/>
+      <c r="H211" s="68"/>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="51"/>
       <c r="B212" s="37"/>
-      <c r="C212" s="67"/>
-      <c r="D212" s="67"/>
-      <c r="E212" s="67"/>
-      <c r="F212" s="67"/>
+      <c r="C212" s="68"/>
+      <c r="D212" s="68"/>
+      <c r="E212" s="68"/>
+      <c r="F212" s="68"/>
       <c r="G212" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H212" s="67"/>
+      <c r="H212" s="68"/>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="37"/>
@@ -7390,34 +7396,34 @@
       </c>
     </row>
     <row r="217" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A217" s="67" t="s">
+      <c r="A217" s="68" t="s">
         <v>245</v>
       </c>
       <c r="B217" s="30"/>
-      <c r="C217" s="67" t="s">
+      <c r="C217" s="68" t="s">
         <v>763</v>
       </c>
-      <c r="D217" s="67" t="s">
+      <c r="D217" s="68" t="s">
         <v>745</v>
       </c>
-      <c r="E217" s="67" t="s">
+      <c r="E217" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="F217" s="67"/>
-      <c r="G217" s="67"/>
-      <c r="H217" s="67" t="s">
+      <c r="F217" s="68"/>
+      <c r="G217" s="68"/>
+      <c r="H217" s="68" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="67"/>
+      <c r="A218" s="68"/>
       <c r="B218" s="30"/>
-      <c r="C218" s="67"/>
-      <c r="D218" s="67"/>
-      <c r="E218" s="67"/>
-      <c r="F218" s="67"/>
-      <c r="G218" s="67"/>
-      <c r="H218" s="67"/>
+      <c r="C218" s="68"/>
+      <c r="D218" s="68"/>
+      <c r="E218" s="68"/>
+      <c r="F218" s="68"/>
+      <c r="G218" s="68"/>
+      <c r="H218" s="68"/>
     </row>
     <row r="219" spans="1:8" ht="28.8">
       <c r="A219" s="28"/>
@@ -7452,28 +7458,28 @@
     <row r="221" spans="1:8" ht="27" customHeight="1">
       <c r="A221" s="51"/>
       <c r="B221" s="37"/>
-      <c r="C221" s="67"/>
-      <c r="D221" s="67"/>
-      <c r="E221" s="67" t="s">
+      <c r="C221" s="68"/>
+      <c r="D221" s="68"/>
+      <c r="E221" s="68" t="s">
         <v>765</v>
       </c>
-      <c r="F221" s="67"/>
+      <c r="F221" s="68"/>
       <c r="G221" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="H221" s="67"/>
+      <c r="H221" s="68"/>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="51"/>
       <c r="B222" s="37"/>
-      <c r="C222" s="67"/>
-      <c r="D222" s="67"/>
-      <c r="E222" s="67"/>
-      <c r="F222" s="67"/>
+      <c r="C222" s="68"/>
+      <c r="D222" s="68"/>
+      <c r="E222" s="68"/>
+      <c r="F222" s="68"/>
       <c r="G222" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H222" s="67"/>
+      <c r="H222" s="68"/>
     </row>
     <row r="223" spans="1:8" ht="18" customHeight="1">
       <c r="A223" s="29" t="s">
@@ -7500,34 +7506,34 @@
       </c>
     </row>
     <row r="224" spans="1:8" ht="27" customHeight="1">
-      <c r="A224" s="67" t="s">
+      <c r="A224" s="68" t="s">
         <v>249</v>
       </c>
       <c r="B224" s="30"/>
-      <c r="C224" s="67" t="s">
+      <c r="C224" s="68" t="s">
         <v>766</v>
       </c>
-      <c r="D224" s="67" t="s">
+      <c r="D224" s="68" t="s">
         <v>745</v>
       </c>
-      <c r="E224" s="67" t="s">
+      <c r="E224" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="F224" s="67"/>
-      <c r="G224" s="67"/>
-      <c r="H224" s="67" t="s">
+      <c r="F224" s="68"/>
+      <c r="G224" s="68"/>
+      <c r="H224" s="68" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:8">
-      <c r="A225" s="67"/>
+      <c r="A225" s="68"/>
       <c r="B225" s="30"/>
-      <c r="C225" s="67"/>
-      <c r="D225" s="67"/>
-      <c r="E225" s="67"/>
-      <c r="F225" s="67"/>
-      <c r="G225" s="67"/>
-      <c r="H225" s="67"/>
+      <c r="C225" s="68"/>
+      <c r="D225" s="68"/>
+      <c r="E225" s="68"/>
+      <c r="F225" s="68"/>
+      <c r="G225" s="68"/>
+      <c r="H225" s="68"/>
     </row>
     <row r="226" spans="1:8" ht="47.25" customHeight="1">
       <c r="A226" s="28"/>
@@ -7560,30 +7566,30 @@
       <c r="H227" s="28"/>
     </row>
     <row r="228" spans="1:8" ht="27" customHeight="1">
-      <c r="A228" s="67"/>
+      <c r="A228" s="68"/>
       <c r="B228" s="30"/>
-      <c r="C228" s="67"/>
-      <c r="D228" s="67"/>
-      <c r="E228" s="67" t="s">
+      <c r="C228" s="68"/>
+      <c r="D228" s="68"/>
+      <c r="E228" s="68" t="s">
         <v>765</v>
       </c>
-      <c r="F228" s="67"/>
+      <c r="F228" s="68"/>
       <c r="G228" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="H228" s="67"/>
+      <c r="H228" s="68"/>
     </row>
     <row r="229" spans="1:8">
-      <c r="A229" s="67"/>
+      <c r="A229" s="68"/>
       <c r="B229" s="30"/>
-      <c r="C229" s="67"/>
-      <c r="D229" s="67"/>
-      <c r="E229" s="67"/>
-      <c r="F229" s="67"/>
+      <c r="C229" s="68"/>
+      <c r="D229" s="68"/>
+      <c r="E229" s="68"/>
+      <c r="F229" s="68"/>
       <c r="G229" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H229" s="67"/>
+      <c r="H229" s="68"/>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="28"/>
@@ -7680,34 +7686,34 @@
       </c>
     </row>
     <row r="236" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A236" s="67" t="s">
+      <c r="A236" s="68" t="s">
         <v>251</v>
       </c>
       <c r="B236" s="30"/>
-      <c r="C236" s="67" t="s">
+      <c r="C236" s="68" t="s">
         <v>767</v>
       </c>
-      <c r="D236" s="67" t="s">
+      <c r="D236" s="68" t="s">
         <v>768</v>
       </c>
-      <c r="E236" s="67" t="s">
+      <c r="E236" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="F236" s="67"/>
-      <c r="G236" s="67"/>
-      <c r="H236" s="67" t="s">
+      <c r="F236" s="68"/>
+      <c r="G236" s="68"/>
+      <c r="H236" s="68" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:8">
-      <c r="A237" s="67"/>
+      <c r="A237" s="68"/>
       <c r="B237" s="30"/>
-      <c r="C237" s="67"/>
-      <c r="D237" s="67"/>
-      <c r="E237" s="67"/>
-      <c r="F237" s="67"/>
-      <c r="G237" s="67"/>
-      <c r="H237" s="67"/>
+      <c r="C237" s="68"/>
+      <c r="D237" s="68"/>
+      <c r="E237" s="68"/>
+      <c r="F237" s="68"/>
+      <c r="G237" s="68"/>
+      <c r="H237" s="68"/>
     </row>
     <row r="238" spans="1:8" ht="28.8">
       <c r="A238" s="28"/>
@@ -7740,30 +7746,30 @@
       <c r="H239" s="28"/>
     </row>
     <row r="240" spans="1:8" ht="27" customHeight="1">
-      <c r="A240" s="67"/>
+      <c r="A240" s="68"/>
       <c r="B240" s="30"/>
-      <c r="C240" s="67"/>
-      <c r="D240" s="67"/>
-      <c r="E240" s="67" t="s">
+      <c r="C240" s="68"/>
+      <c r="D240" s="68"/>
+      <c r="E240" s="68" t="s">
         <v>765</v>
       </c>
-      <c r="F240" s="67"/>
+      <c r="F240" s="68"/>
       <c r="G240" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="H240" s="67"/>
+      <c r="H240" s="68"/>
     </row>
     <row r="241" spans="1:8">
-      <c r="A241" s="67"/>
+      <c r="A241" s="68"/>
       <c r="B241" s="30"/>
-      <c r="C241" s="67"/>
-      <c r="D241" s="67"/>
-      <c r="E241" s="67"/>
-      <c r="F241" s="67"/>
+      <c r="C241" s="68"/>
+      <c r="D241" s="68"/>
+      <c r="E241" s="68"/>
+      <c r="F241" s="68"/>
       <c r="G241" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H241" s="67"/>
+      <c r="H241" s="68"/>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="28"/>
@@ -7832,34 +7838,34 @@
       </c>
     </row>
     <row r="246" spans="1:8">
-      <c r="A246" s="67" t="s">
+      <c r="A246" s="68" t="s">
         <v>253</v>
       </c>
       <c r="B246" s="30"/>
-      <c r="C246" s="67" t="s">
+      <c r="C246" s="68" t="s">
         <v>769</v>
       </c>
-      <c r="D246" s="67" t="s">
+      <c r="D246" s="68" t="s">
         <v>768</v>
       </c>
-      <c r="E246" s="67" t="s">
+      <c r="E246" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="F246" s="67"/>
-      <c r="G246" s="67"/>
-      <c r="H246" s="67" t="s">
+      <c r="F246" s="68"/>
+      <c r="G246" s="68"/>
+      <c r="H246" s="68" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:8">
-      <c r="A247" s="67"/>
+      <c r="A247" s="68"/>
       <c r="B247" s="30"/>
-      <c r="C247" s="67"/>
-      <c r="D247" s="67"/>
-      <c r="E247" s="67"/>
-      <c r="F247" s="67"/>
-      <c r="G247" s="67"/>
-      <c r="H247" s="67"/>
+      <c r="C247" s="68"/>
+      <c r="D247" s="68"/>
+      <c r="E247" s="68"/>
+      <c r="F247" s="68"/>
+      <c r="G247" s="68"/>
+      <c r="H247" s="68"/>
     </row>
     <row r="248" spans="1:8" ht="30" customHeight="1">
       <c r="A248" s="28"/>
@@ -7892,30 +7898,30 @@
       <c r="H249" s="28"/>
     </row>
     <row r="250" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A250" s="67"/>
+      <c r="A250" s="68"/>
       <c r="B250" s="30"/>
-      <c r="C250" s="67"/>
-      <c r="D250" s="67"/>
-      <c r="E250" s="67" t="s">
+      <c r="C250" s="68"/>
+      <c r="D250" s="68"/>
+      <c r="E250" s="68" t="s">
         <v>765</v>
       </c>
-      <c r="F250" s="67"/>
+      <c r="F250" s="68"/>
       <c r="G250" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="H250" s="67"/>
+      <c r="H250" s="68"/>
     </row>
     <row r="251" spans="1:8">
-      <c r="A251" s="67"/>
+      <c r="A251" s="68"/>
       <c r="B251" s="30"/>
-      <c r="C251" s="67"/>
-      <c r="D251" s="67"/>
-      <c r="E251" s="67"/>
-      <c r="F251" s="67"/>
+      <c r="C251" s="68"/>
+      <c r="D251" s="68"/>
+      <c r="E251" s="68"/>
+      <c r="F251" s="68"/>
       <c r="G251" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H251" s="67"/>
+      <c r="H251" s="68"/>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="28"/>
@@ -8307,10 +8313,16 @@
         <v>644</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
-      <c r="A277" s="28"/>
-      <c r="B277" s="30"/>
-      <c r="C277" s="28"/>
+    <row r="277" spans="1:8" ht="28.8">
+      <c r="A277" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="B277" s="39" t="s">
+        <v>893</v>
+      </c>
+      <c r="C277" s="64" t="s">
+        <v>898</v>
+      </c>
       <c r="D277" s="28"/>
       <c r="E277" s="28"/>
       <c r="F277" s="28"/>
@@ -15068,54 +15080,54 @@
       <c r="H952" s="28"/>
     </row>
     <row r="953" spans="1:8">
-      <c r="A953" s="67"/>
+      <c r="A953" s="68"/>
       <c r="B953" s="30"/>
-      <c r="C953" s="67"/>
+      <c r="C953" s="68"/>
       <c r="D953" s="28"/>
-      <c r="E953" s="67"/>
-      <c r="F953" s="67"/>
-      <c r="G953" s="67"/>
-      <c r="H953" s="67"/>
+      <c r="E953" s="68"/>
+      <c r="F953" s="68"/>
+      <c r="G953" s="68"/>
+      <c r="H953" s="68"/>
     </row>
     <row r="954" spans="1:8">
-      <c r="A954" s="67"/>
+      <c r="A954" s="68"/>
       <c r="B954" s="30"/>
-      <c r="C954" s="67"/>
+      <c r="C954" s="68"/>
       <c r="D954" s="28"/>
-      <c r="E954" s="67"/>
-      <c r="F954" s="67"/>
-      <c r="G954" s="67"/>
-      <c r="H954" s="67"/>
+      <c r="E954" s="68"/>
+      <c r="F954" s="68"/>
+      <c r="G954" s="68"/>
+      <c r="H954" s="68"/>
     </row>
     <row r="955" spans="1:8">
-      <c r="A955" s="67"/>
+      <c r="A955" s="68"/>
       <c r="B955" s="30"/>
-      <c r="C955" s="67"/>
+      <c r="C955" s="68"/>
       <c r="D955" s="28"/>
-      <c r="E955" s="67"/>
-      <c r="F955" s="67"/>
-      <c r="G955" s="67"/>
-      <c r="H955" s="67"/>
+      <c r="E955" s="68"/>
+      <c r="F955" s="68"/>
+      <c r="G955" s="68"/>
+      <c r="H955" s="68"/>
     </row>
     <row r="956" spans="1:8">
-      <c r="A956" s="67"/>
+      <c r="A956" s="68"/>
       <c r="B956" s="30"/>
-      <c r="C956" s="67"/>
+      <c r="C956" s="68"/>
       <c r="D956" s="28"/>
-      <c r="E956" s="67"/>
-      <c r="F956" s="67"/>
-      <c r="G956" s="67"/>
-      <c r="H956" s="67"/>
+      <c r="E956" s="68"/>
+      <c r="F956" s="68"/>
+      <c r="G956" s="68"/>
+      <c r="H956" s="68"/>
     </row>
     <row r="957" spans="1:8">
-      <c r="A957" s="67"/>
+      <c r="A957" s="68"/>
       <c r="B957" s="30"/>
-      <c r="C957" s="67"/>
+      <c r="C957" s="68"/>
       <c r="D957" s="28"/>
-      <c r="E957" s="67"/>
-      <c r="F957" s="67"/>
-      <c r="G957" s="67"/>
-      <c r="H957" s="67"/>
+      <c r="E957" s="68"/>
+      <c r="F957" s="68"/>
+      <c r="G957" s="68"/>
+      <c r="H957" s="68"/>
     </row>
     <row r="958" spans="1:8">
       <c r="A958" s="28"/>
@@ -15358,54 +15370,54 @@
       <c r="H981" s="28"/>
     </row>
     <row r="982" spans="1:8">
-      <c r="A982" s="67"/>
+      <c r="A982" s="68"/>
       <c r="B982" s="30"/>
-      <c r="C982" s="67"/>
+      <c r="C982" s="68"/>
       <c r="D982" s="28"/>
-      <c r="E982" s="67"/>
-      <c r="F982" s="67"/>
-      <c r="G982" s="67"/>
-      <c r="H982" s="67"/>
+      <c r="E982" s="68"/>
+      <c r="F982" s="68"/>
+      <c r="G982" s="68"/>
+      <c r="H982" s="68"/>
     </row>
     <row r="983" spans="1:8">
-      <c r="A983" s="67"/>
+      <c r="A983" s="68"/>
       <c r="B983" s="30"/>
-      <c r="C983" s="67"/>
+      <c r="C983" s="68"/>
       <c r="D983" s="28"/>
-      <c r="E983" s="67"/>
-      <c r="F983" s="67"/>
-      <c r="G983" s="67"/>
-      <c r="H983" s="67"/>
+      <c r="E983" s="68"/>
+      <c r="F983" s="68"/>
+      <c r="G983" s="68"/>
+      <c r="H983" s="68"/>
     </row>
     <row r="984" spans="1:8">
-      <c r="A984" s="67"/>
+      <c r="A984" s="68"/>
       <c r="B984" s="30"/>
-      <c r="C984" s="67"/>
+      <c r="C984" s="68"/>
       <c r="D984" s="28"/>
-      <c r="E984" s="67"/>
-      <c r="F984" s="67"/>
-      <c r="G984" s="67"/>
-      <c r="H984" s="67"/>
+      <c r="E984" s="68"/>
+      <c r="F984" s="68"/>
+      <c r="G984" s="68"/>
+      <c r="H984" s="68"/>
     </row>
     <row r="985" spans="1:8">
-      <c r="A985" s="67"/>
+      <c r="A985" s="68"/>
       <c r="B985" s="30"/>
-      <c r="C985" s="67"/>
+      <c r="C985" s="68"/>
       <c r="D985" s="28"/>
-      <c r="E985" s="67"/>
-      <c r="F985" s="67"/>
-      <c r="G985" s="67"/>
-      <c r="H985" s="67"/>
+      <c r="E985" s="68"/>
+      <c r="F985" s="68"/>
+      <c r="G985" s="68"/>
+      <c r="H985" s="68"/>
     </row>
     <row r="986" spans="1:8">
-      <c r="A986" s="67"/>
+      <c r="A986" s="68"/>
       <c r="B986" s="30"/>
-      <c r="C986" s="67"/>
+      <c r="C986" s="68"/>
       <c r="D986" s="28"/>
-      <c r="E986" s="67"/>
-      <c r="F986" s="67"/>
-      <c r="G986" s="67"/>
-      <c r="H986" s="67"/>
+      <c r="E986" s="68"/>
+      <c r="F986" s="68"/>
+      <c r="G986" s="68"/>
+      <c r="H986" s="68"/>
     </row>
     <row r="987" spans="1:8">
       <c r="A987" s="28"/>
@@ -18408,34 +18420,34 @@
       <c r="H1286" s="28"/>
     </row>
     <row r="1287" spans="1:8">
-      <c r="A1287" s="67"/>
+      <c r="A1287" s="68"/>
       <c r="B1287" s="30"/>
-      <c r="C1287" s="67"/>
-      <c r="D1287" s="67"/>
-      <c r="E1287" s="67"/>
-      <c r="F1287" s="67"/>
+      <c r="C1287" s="68"/>
+      <c r="D1287" s="68"/>
+      <c r="E1287" s="68"/>
+      <c r="F1287" s="68"/>
       <c r="G1287" s="28"/>
-      <c r="H1287" s="67"/>
+      <c r="H1287" s="68"/>
     </row>
     <row r="1288" spans="1:8">
-      <c r="A1288" s="67"/>
+      <c r="A1288" s="68"/>
       <c r="B1288" s="30"/>
-      <c r="C1288" s="67"/>
-      <c r="D1288" s="67"/>
-      <c r="E1288" s="67"/>
-      <c r="F1288" s="67"/>
+      <c r="C1288" s="68"/>
+      <c r="D1288" s="68"/>
+      <c r="E1288" s="68"/>
+      <c r="F1288" s="68"/>
       <c r="G1288" s="28"/>
-      <c r="H1288" s="67"/>
+      <c r="H1288" s="68"/>
     </row>
     <row r="1289" spans="1:8">
-      <c r="A1289" s="67"/>
+      <c r="A1289" s="68"/>
       <c r="B1289" s="30"/>
-      <c r="C1289" s="67"/>
-      <c r="D1289" s="67"/>
-      <c r="E1289" s="67"/>
-      <c r="F1289" s="67"/>
+      <c r="C1289" s="68"/>
+      <c r="D1289" s="68"/>
+      <c r="E1289" s="68"/>
+      <c r="F1289" s="68"/>
       <c r="G1289" s="28"/>
-      <c r="H1289" s="67"/>
+      <c r="H1289" s="68"/>
     </row>
     <row r="1290" spans="1:8">
       <c r="A1290" s="28"/>
@@ -18618,74 +18630,74 @@
       <c r="H1307" s="28"/>
     </row>
     <row r="1308" spans="1:8">
-      <c r="A1308" s="67"/>
+      <c r="A1308" s="68"/>
       <c r="B1308" s="30"/>
-      <c r="C1308" s="67"/>
-      <c r="D1308" s="67"/>
-      <c r="E1308" s="67"/>
-      <c r="F1308" s="67"/>
+      <c r="C1308" s="68"/>
+      <c r="D1308" s="68"/>
+      <c r="E1308" s="68"/>
+      <c r="F1308" s="68"/>
       <c r="G1308" s="28"/>
-      <c r="H1308" s="67"/>
+      <c r="H1308" s="68"/>
     </row>
     <row r="1309" spans="1:8">
-      <c r="A1309" s="67"/>
+      <c r="A1309" s="68"/>
       <c r="B1309" s="30"/>
-      <c r="C1309" s="67"/>
-      <c r="D1309" s="67"/>
-      <c r="E1309" s="67"/>
-      <c r="F1309" s="67"/>
+      <c r="C1309" s="68"/>
+      <c r="D1309" s="68"/>
+      <c r="E1309" s="68"/>
+      <c r="F1309" s="68"/>
       <c r="G1309" s="28"/>
-      <c r="H1309" s="67"/>
+      <c r="H1309" s="68"/>
     </row>
     <row r="1310" spans="1:8">
-      <c r="A1310" s="67"/>
+      <c r="A1310" s="68"/>
       <c r="B1310" s="30"/>
-      <c r="C1310" s="67"/>
-      <c r="D1310" s="67"/>
-      <c r="E1310" s="67"/>
-      <c r="F1310" s="67"/>
+      <c r="C1310" s="68"/>
+      <c r="D1310" s="68"/>
+      <c r="E1310" s="68"/>
+      <c r="F1310" s="68"/>
       <c r="G1310" s="28"/>
-      <c r="H1310" s="67"/>
+      <c r="H1310" s="68"/>
     </row>
     <row r="1311" spans="1:8">
-      <c r="A1311" s="67"/>
+      <c r="A1311" s="68"/>
       <c r="B1311" s="30"/>
-      <c r="C1311" s="67"/>
-      <c r="D1311" s="67"/>
-      <c r="E1311" s="67"/>
-      <c r="F1311" s="67"/>
+      <c r="C1311" s="68"/>
+      <c r="D1311" s="68"/>
+      <c r="E1311" s="68"/>
+      <c r="F1311" s="68"/>
       <c r="G1311" s="28"/>
-      <c r="H1311" s="67"/>
+      <c r="H1311" s="68"/>
     </row>
     <row r="1312" spans="1:8">
-      <c r="A1312" s="67"/>
+      <c r="A1312" s="68"/>
       <c r="B1312" s="30"/>
-      <c r="C1312" s="67"/>
-      <c r="D1312" s="67"/>
-      <c r="E1312" s="67"/>
-      <c r="F1312" s="67"/>
+      <c r="C1312" s="68"/>
+      <c r="D1312" s="68"/>
+      <c r="E1312" s="68"/>
+      <c r="F1312" s="68"/>
       <c r="G1312" s="28"/>
-      <c r="H1312" s="67"/>
+      <c r="H1312" s="68"/>
     </row>
     <row r="1313" spans="1:8">
-      <c r="A1313" s="67"/>
+      <c r="A1313" s="68"/>
       <c r="B1313" s="30"/>
-      <c r="C1313" s="67"/>
-      <c r="D1313" s="67"/>
-      <c r="E1313" s="67"/>
-      <c r="F1313" s="67"/>
+      <c r="C1313" s="68"/>
+      <c r="D1313" s="68"/>
+      <c r="E1313" s="68"/>
+      <c r="F1313" s="68"/>
       <c r="G1313" s="28"/>
-      <c r="H1313" s="67"/>
+      <c r="H1313" s="68"/>
     </row>
     <row r="1314" spans="1:8">
-      <c r="A1314" s="67"/>
+      <c r="A1314" s="68"/>
       <c r="B1314" s="30"/>
-      <c r="C1314" s="67"/>
-      <c r="D1314" s="67"/>
-      <c r="E1314" s="67"/>
-      <c r="F1314" s="67"/>
+      <c r="C1314" s="68"/>
+      <c r="D1314" s="68"/>
+      <c r="E1314" s="68"/>
+      <c r="F1314" s="68"/>
       <c r="G1314" s="28"/>
-      <c r="H1314" s="67"/>
+      <c r="H1314" s="68"/>
     </row>
     <row r="1315" spans="1:8">
       <c r="A1315" s="28"/>
@@ -18878,34 +18890,34 @@
       <c r="H1333" s="28"/>
     </row>
     <row r="1334" spans="1:8">
-      <c r="A1334" s="67"/>
+      <c r="A1334" s="68"/>
       <c r="B1334" s="30"/>
-      <c r="C1334" s="67"/>
-      <c r="D1334" s="67"/>
-      <c r="E1334" s="67"/>
-      <c r="F1334" s="67"/>
+      <c r="C1334" s="68"/>
+      <c r="D1334" s="68"/>
+      <c r="E1334" s="68"/>
+      <c r="F1334" s="68"/>
       <c r="G1334" s="28"/>
-      <c r="H1334" s="67"/>
+      <c r="H1334" s="68"/>
     </row>
     <row r="1335" spans="1:8">
-      <c r="A1335" s="67"/>
+      <c r="A1335" s="68"/>
       <c r="B1335" s="30"/>
-      <c r="C1335" s="67"/>
-      <c r="D1335" s="67"/>
-      <c r="E1335" s="67"/>
-      <c r="F1335" s="67"/>
+      <c r="C1335" s="68"/>
+      <c r="D1335" s="68"/>
+      <c r="E1335" s="68"/>
+      <c r="F1335" s="68"/>
       <c r="G1335" s="28"/>
-      <c r="H1335" s="67"/>
+      <c r="H1335" s="68"/>
     </row>
     <row r="1336" spans="1:8">
-      <c r="A1336" s="67"/>
+      <c r="A1336" s="68"/>
       <c r="B1336" s="30"/>
-      <c r="C1336" s="67"/>
-      <c r="D1336" s="67"/>
-      <c r="E1336" s="67"/>
-      <c r="F1336" s="67"/>
+      <c r="C1336" s="68"/>
+      <c r="D1336" s="68"/>
+      <c r="E1336" s="68"/>
+      <c r="F1336" s="68"/>
       <c r="G1336" s="28"/>
-      <c r="H1336" s="67"/>
+      <c r="H1336" s="68"/>
     </row>
     <row r="1337" spans="1:8">
       <c r="A1337" s="28"/>
@@ -19238,27 +19250,121 @@
       <c r="H1369" s="28"/>
     </row>
     <row r="1370" spans="1:8">
-      <c r="A1370" s="67"/>
+      <c r="A1370" s="68"/>
       <c r="B1370" s="30"/>
-      <c r="C1370" s="67"/>
-      <c r="D1370" s="67"/>
-      <c r="E1370" s="67"/>
-      <c r="F1370" s="67"/>
+      <c r="C1370" s="68"/>
+      <c r="D1370" s="68"/>
+      <c r="E1370" s="68"/>
+      <c r="F1370" s="68"/>
       <c r="G1370" s="28"/>
-      <c r="H1370" s="67"/>
+      <c r="H1370" s="68"/>
     </row>
     <row r="1371" spans="1:8">
-      <c r="A1371" s="67"/>
+      <c r="A1371" s="68"/>
       <c r="B1371" s="30"/>
-      <c r="C1371" s="67"/>
-      <c r="D1371" s="67"/>
-      <c r="E1371" s="67"/>
-      <c r="F1371" s="67"/>
+      <c r="C1371" s="68"/>
+      <c r="D1371" s="68"/>
+      <c r="E1371" s="68"/>
+      <c r="F1371" s="68"/>
       <c r="G1371" s="28"/>
-      <c r="H1371" s="67"/>
+      <c r="H1371" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="118">
+    <mergeCell ref="F953:F957"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="D236:D237"/>
+    <mergeCell ref="E236:E237"/>
+    <mergeCell ref="A224:A225"/>
+    <mergeCell ref="C224:C225"/>
+    <mergeCell ref="D224:D225"/>
+    <mergeCell ref="E224:E225"/>
+    <mergeCell ref="F224:F225"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="D240:D241"/>
+    <mergeCell ref="E240:E241"/>
+    <mergeCell ref="F240:F241"/>
+    <mergeCell ref="E953:E957"/>
+    <mergeCell ref="F188:F189"/>
+    <mergeCell ref="G188:G189"/>
+    <mergeCell ref="H188:H189"/>
+    <mergeCell ref="E192:E193"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="H192:H193"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="G195:G196"/>
+    <mergeCell ref="H195:H196"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="E199:E200"/>
+    <mergeCell ref="F199:F200"/>
+    <mergeCell ref="H199:H200"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="E195:E196"/>
+    <mergeCell ref="F207:F208"/>
+    <mergeCell ref="G207:G208"/>
+    <mergeCell ref="H207:H208"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="E211:E212"/>
+    <mergeCell ref="F211:F212"/>
+    <mergeCell ref="H211:H212"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="D207:D208"/>
+    <mergeCell ref="E207:E208"/>
+    <mergeCell ref="F217:F218"/>
+    <mergeCell ref="G217:G218"/>
+    <mergeCell ref="H217:H218"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="H221:H222"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="E217:E218"/>
+    <mergeCell ref="G224:G225"/>
+    <mergeCell ref="H224:H225"/>
+    <mergeCell ref="A228:A229"/>
+    <mergeCell ref="C228:C229"/>
+    <mergeCell ref="D228:D229"/>
+    <mergeCell ref="E228:E229"/>
+    <mergeCell ref="F228:F229"/>
+    <mergeCell ref="H228:H229"/>
+    <mergeCell ref="F236:F237"/>
+    <mergeCell ref="G236:G237"/>
+    <mergeCell ref="H236:H237"/>
+    <mergeCell ref="H240:H241"/>
+    <mergeCell ref="G953:G957"/>
+    <mergeCell ref="H953:H957"/>
+    <mergeCell ref="A982:A986"/>
+    <mergeCell ref="C982:C986"/>
+    <mergeCell ref="E982:E986"/>
+    <mergeCell ref="F982:F986"/>
+    <mergeCell ref="G982:G986"/>
+    <mergeCell ref="H982:H986"/>
+    <mergeCell ref="H246:H247"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="C250:C251"/>
+    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="E250:E251"/>
+    <mergeCell ref="F250:F251"/>
+    <mergeCell ref="H250:H251"/>
+    <mergeCell ref="A246:A247"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="D246:D247"/>
+    <mergeCell ref="E246:E247"/>
+    <mergeCell ref="F246:F247"/>
+    <mergeCell ref="G246:G247"/>
+    <mergeCell ref="A953:A957"/>
+    <mergeCell ref="C953:C957"/>
     <mergeCell ref="F1334:F1336"/>
     <mergeCell ref="H1334:H1336"/>
     <mergeCell ref="A1370:A1371"/>
@@ -19283,100 +19389,6 @@
     <mergeCell ref="C1287:C1289"/>
     <mergeCell ref="D1287:D1289"/>
     <mergeCell ref="E1287:E1289"/>
-    <mergeCell ref="H240:H241"/>
-    <mergeCell ref="G953:G957"/>
-    <mergeCell ref="H953:H957"/>
-    <mergeCell ref="A982:A986"/>
-    <mergeCell ref="C982:C986"/>
-    <mergeCell ref="E982:E986"/>
-    <mergeCell ref="F982:F986"/>
-    <mergeCell ref="G982:G986"/>
-    <mergeCell ref="H982:H986"/>
-    <mergeCell ref="H246:H247"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="C250:C251"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="E250:E251"/>
-    <mergeCell ref="F250:F251"/>
-    <mergeCell ref="H250:H251"/>
-    <mergeCell ref="A246:A247"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="D246:D247"/>
-    <mergeCell ref="E246:E247"/>
-    <mergeCell ref="F246:F247"/>
-    <mergeCell ref="G246:G247"/>
-    <mergeCell ref="A953:A957"/>
-    <mergeCell ref="C953:C957"/>
-    <mergeCell ref="G224:G225"/>
-    <mergeCell ref="H224:H225"/>
-    <mergeCell ref="A228:A229"/>
-    <mergeCell ref="C228:C229"/>
-    <mergeCell ref="D228:D229"/>
-    <mergeCell ref="E228:E229"/>
-    <mergeCell ref="F228:F229"/>
-    <mergeCell ref="H228:H229"/>
-    <mergeCell ref="F236:F237"/>
-    <mergeCell ref="G236:G237"/>
-    <mergeCell ref="H236:H237"/>
-    <mergeCell ref="F217:F218"/>
-    <mergeCell ref="G217:G218"/>
-    <mergeCell ref="H217:H218"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="F221:F222"/>
-    <mergeCell ref="H221:H222"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="E217:E218"/>
-    <mergeCell ref="F207:F208"/>
-    <mergeCell ref="G207:G208"/>
-    <mergeCell ref="H207:H208"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="E211:E212"/>
-    <mergeCell ref="F211:F212"/>
-    <mergeCell ref="H211:H212"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="D207:D208"/>
-    <mergeCell ref="E207:E208"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="G195:G196"/>
-    <mergeCell ref="H195:H196"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="E199:E200"/>
-    <mergeCell ref="F199:F200"/>
-    <mergeCell ref="H199:H200"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="D195:D196"/>
-    <mergeCell ref="E195:E196"/>
-    <mergeCell ref="F188:F189"/>
-    <mergeCell ref="G188:G189"/>
-    <mergeCell ref="H188:H189"/>
-    <mergeCell ref="E192:E193"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="H192:H193"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="F953:F957"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="D236:D237"/>
-    <mergeCell ref="E236:E237"/>
-    <mergeCell ref="A224:A225"/>
-    <mergeCell ref="C224:C225"/>
-    <mergeCell ref="D224:D225"/>
-    <mergeCell ref="E224:E225"/>
-    <mergeCell ref="F224:F225"/>
-    <mergeCell ref="A240:A241"/>
-    <mergeCell ref="C240:C241"/>
-    <mergeCell ref="D240:D241"/>
-    <mergeCell ref="E240:E241"/>
-    <mergeCell ref="F240:F241"/>
-    <mergeCell ref="E953:E957"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19387,8 +19399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1245"/>
   <sheetViews>
-    <sheetView topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="E225" sqref="E225"/>
+    <sheetView tabSelected="1" topLeftCell="A659" workbookViewId="0">
+      <selection activeCell="E666" sqref="E666"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -29238,8 +29250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1335"/>
   <sheetViews>
-    <sheetView topLeftCell="A956" workbookViewId="0">
-      <selection activeCell="B968" sqref="B968"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -47632,8 +47644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1376"/>
   <sheetViews>
-    <sheetView topLeftCell="A811" workbookViewId="0">
-      <selection activeCell="D816" sqref="D816"/>
+    <sheetView topLeftCell="A956" workbookViewId="0">
+      <selection activeCell="B959" sqref="B959"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -54227,6 +54239,9 @@
       <c r="A811" s="3" t="s">
         <v>318</v>
       </c>
+      <c r="B811" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="C811" s="3" t="s">
         <v>606</v>
       </c>
@@ -54441,6 +54456,9 @@
       <c r="A837" s="3" t="s">
         <v>323</v>
       </c>
+      <c r="B837" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="C837" s="3" t="s">
         <v>607</v>
       </c>
@@ -54652,6 +54670,9 @@
       <c r="A863" s="3" t="s">
         <v>325</v>
       </c>
+      <c r="B863" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="C863" s="3" t="s">
         <v>608</v>
       </c>
@@ -54858,6 +54879,9 @@
       <c r="A888" s="3" t="s">
         <v>327</v>
       </c>
+      <c r="B888" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="C888" s="3" t="s">
         <v>609</v>
       </c>
@@ -55080,6 +55104,9 @@
       <c r="A915" s="3" t="s">
         <v>335</v>
       </c>
+      <c r="B915" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="C915" s="3" t="s">
         <v>610</v>
       </c>
@@ -55447,8 +55474,10 @@
       <c r="A959" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B959" s="17"/>
-      <c r="C959" s="17" t="s">
+      <c r="B959" s="21" t="s">
+        <v>893</v>
+      </c>
+      <c r="C959" s="21" t="s">
         <v>614</v>
       </c>
       <c r="D959" s="17" t="s">
@@ -55470,7 +55499,7 @@
       <c r="B960" s="17"/>
       <c r="C960" s="17"/>
       <c r="D960" s="17"/>
-      <c r="E960" s="17" t="s">
+      <c r="E960" s="21" t="s">
         <v>257</v>
       </c>
       <c r="F960" s="17" t="s">
@@ -55556,7 +55585,7 @@
       <c r="B966" s="17"/>
       <c r="C966" s="17"/>
       <c r="D966" s="17"/>
-      <c r="E966" s="17" t="s">
+      <c r="E966" s="21" t="s">
         <v>265</v>
       </c>
       <c r="F966" s="17" t="s">
@@ -61091,6 +61120,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101007976F8CCA0ED0D47930681AA21DEEE24" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="5d6bb8c47ca5c908ea932f041c0d02bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="21ec7336-031d-40ce-b88b-6a916b8e11b4" xmlns:ns4="fe969a12-aade-4ac2-a23f-8e1b54a37ff5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79bbd8f77373bcb0829ef1b6439f04bf" ns3:_="" ns4:_="">
     <xsd:import namespace="21ec7336-031d-40ce-b88b-6a916b8e11b4"/>
@@ -61293,22 +61337,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF8AABAE-A744-4E9C-8170-C8585CA79AEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CB26C50-9672-46A3-BDE2-4208B21162A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1020987D-2736-4945-83CD-D094942F0B74}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -61325,21 +61371,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CB26C50-9672-46A3-BDE2-4208B21162A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF8AABAE-A744-4E9C-8170-C8585CA79AEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/AutomationTracker.xlsx
+++ b/AutomationTracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8076" tabRatio="791" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8076" tabRatio="791" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="16" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8601" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8609" uniqueCount="899">
   <si>
     <t>Areas</t>
   </si>
@@ -3542,7 +3542,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3870,14 +3870,14 @@
         <v>27</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H16" s="43" t="s">
         <v>787</v>
@@ -3958,7 +3958,7 @@
     <row r="22" spans="1:8">
       <c r="E22">
         <f>SUM(E13:E21)</f>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H22" s="43" t="s">
         <v>792</v>
@@ -3972,7 +3972,7 @@
       <c r="C23" s="67"/>
       <c r="D23" s="59">
         <f>SUM(D13:D22)</f>
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="E23" s="58"/>
     </row>
@@ -3997,8 +3997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1371"/>
   <sheetViews>
-    <sheetView topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="B278" sqref="B278"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="14.4"/>
@@ -19399,8 +19399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A659" workbookViewId="0">
-      <selection activeCell="E666" sqref="E666"/>
+    <sheetView topLeftCell="A860" workbookViewId="0">
+      <selection activeCell="B860" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -47644,8 +47644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1376"/>
   <sheetViews>
-    <sheetView topLeftCell="A956" workbookViewId="0">
-      <selection activeCell="B959" sqref="B959"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B51" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -56179,6 +56179,9 @@
       <c r="A1010" s="3" t="s">
         <v>489</v>
       </c>
+      <c r="B1010" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="C1010" s="3" t="s">
         <v>616</v>
       </c>
@@ -56454,6 +56457,9 @@
       <c r="A1044" s="3" t="s">
         <v>491</v>
       </c>
+      <c r="B1044" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="C1044" s="3" t="s">
         <v>619</v>
       </c>
@@ -56729,6 +56735,9 @@
       <c r="A1078" s="3" t="s">
         <v>492</v>
       </c>
+      <c r="B1078" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="C1078" s="3" t="s">
         <v>620</v>
       </c>
@@ -57004,6 +57013,9 @@
       <c r="A1111" s="3" t="s">
         <v>493</v>
       </c>
+      <c r="B1111" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="C1111" s="3" t="s">
         <v>622</v>
       </c>
@@ -58369,6 +58381,9 @@
       <c r="A1278" s="3" t="s">
         <v>634</v>
       </c>
+      <c r="B1278" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="C1278" s="3" t="s">
         <v>328</v>
       </c>
@@ -58465,6 +58480,9 @@
       <c r="A1288" s="3" t="s">
         <v>635</v>
       </c>
+      <c r="B1288" s="3" t="s">
+        <v>897</v>
+      </c>
       <c r="C1288" s="3" t="s">
         <v>336</v>
       </c>
@@ -58552,6 +58570,9 @@
       <c r="A1297" s="3" t="s">
         <v>636</v>
       </c>
+      <c r="B1297" s="3" t="s">
+        <v>897</v>
+      </c>
       <c r="C1297" s="3" t="s">
         <v>340</v>
       </c>
@@ -58947,6 +58968,9 @@
     <row r="1344" spans="1:8" ht="43.2">
       <c r="A1344" s="3" t="s">
         <v>640</v>
+      </c>
+      <c r="B1344" s="3" t="s">
+        <v>895</v>
       </c>
       <c r="C1344" s="3" t="s">
         <v>641</v>

--- a/AutomationTracker.xlsx
+++ b/AutomationTracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8076" tabRatio="791" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8076" tabRatio="791"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="16" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8609" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8617" uniqueCount="899">
   <si>
     <t>Areas</t>
   </si>
@@ -3541,8 +3541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3846,14 +3846,14 @@
         <v>25</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F15">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>786</v>
@@ -3958,7 +3958,7 @@
     <row r="22" spans="1:8">
       <c r="E22">
         <f>SUM(E13:E21)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H22" s="43" t="s">
         <v>792</v>
@@ -3972,7 +3972,7 @@
       <c r="C23" s="67"/>
       <c r="D23" s="59">
         <f>SUM(D13:D22)</f>
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E23" s="58"/>
     </row>
@@ -3997,7 +3997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -40847,7 +40847,9 @@
       <c r="A844" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B844" s="3"/>
+      <c r="B844" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="C844" s="3" t="s">
         <v>477</v>
       </c>
@@ -43403,7 +43405,9 @@
       <c r="A1029" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B1029" s="3"/>
+      <c r="B1029" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="C1029" s="3" t="s">
         <v>483</v>
       </c>
@@ -43923,7 +43927,9 @@
       <c r="A1067" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B1067" s="3"/>
+      <c r="B1067" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="C1067" s="3" t="s">
         <v>485</v>
       </c>
@@ -44443,7 +44449,9 @@
       <c r="A1105" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B1105" s="3"/>
+      <c r="B1105" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="C1105" s="3" t="s">
         <v>486</v>
       </c>
@@ -46287,7 +46295,9 @@
       <c r="A1239" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="B1239" s="3"/>
+      <c r="B1239" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="C1239" s="3" t="s">
         <v>328</v>
       </c>
@@ -46431,7 +46441,9 @@
       <c r="A1249" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="B1249" s="3"/>
+      <c r="B1249" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="C1249" s="3" t="s">
         <v>336</v>
       </c>
@@ -46561,7 +46573,9 @@
       <c r="A1258" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="B1258" s="3"/>
+      <c r="B1258" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="C1258" s="3" t="s">
         <v>340</v>
       </c>
@@ -47199,7 +47213,9 @@
       <c r="A1304" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="B1304" s="3"/>
+      <c r="B1304" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="C1304" s="3" t="s">
         <v>498</v>
       </c>

--- a/AutomationTracker.xlsx
+++ b/AutomationTracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8076" tabRatio="791"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8076" tabRatio="791" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="16" r:id="rId1"/>
@@ -2928,7 +2928,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3003,6 +3003,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3036,7 +3054,7 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3210,6 +3228,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3219,6 +3249,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3541,7 +3574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -3579,16 +3612,16 @@
       <c r="G1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="69" t="s">
         <v>852</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
       <c r="P1" s="46"/>
     </row>
     <row r="2" spans="1:16">
@@ -3751,11 +3784,11 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="23.4" customHeight="1">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="70" t="s">
         <v>863</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="60">
         <f>SUM(D2:D7)</f>
         <v>35</v>
@@ -3965,11 +3998,11 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="71" t="s">
         <v>865</v>
       </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
       <c r="D23" s="59">
         <f>SUM(D13:D22)</f>
         <v>114</v>
@@ -3997,8 +4030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1371"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A276" workbookViewId="0">
+      <selection activeCell="C283" sqref="C283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="14.4"/>
@@ -4425,7 +4458,7 @@
       <c r="A26" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="65" t="s">
         <v>893</v>
       </c>
       <c r="C26" s="28" t="s">
@@ -4451,7 +4484,7 @@
       <c r="E27" s="28" t="s">
         <v>656</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="39" t="s">
         <v>156</v>
       </c>
       <c r="G27" s="28" t="s">
@@ -4527,7 +4560,7 @@
       <c r="A32" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="65" t="s">
         <v>893</v>
       </c>
       <c r="C32" s="39" t="s">
@@ -4685,7 +4718,7 @@
       <c r="A42" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="65" t="s">
         <v>893</v>
       </c>
       <c r="C42" s="28" t="s">
@@ -4789,10 +4822,10 @@
       <c r="A48" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="65" t="s">
         <v>893</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="39" t="s">
         <v>667</v>
       </c>
       <c r="D48" s="28" t="s">
@@ -4907,7 +4940,7 @@
       <c r="A55" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="65" t="s">
         <v>893</v>
       </c>
       <c r="C55" s="28" t="s">
@@ -5205,7 +5238,7 @@
       <c r="A74" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B74" s="52" t="s">
+      <c r="B74" s="65" t="s">
         <v>893</v>
       </c>
       <c r="C74" s="28" t="s">
@@ -5333,7 +5366,7 @@
       <c r="A82" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B82" s="52" t="s">
+      <c r="B82" s="65" t="s">
         <v>893</v>
       </c>
       <c r="C82" s="28" t="s">
@@ -6954,30 +6987,30 @@
       <c r="B188" s="50" t="s">
         <v>794</v>
       </c>
-      <c r="C188" s="68" t="s">
+      <c r="C188" s="72" t="s">
         <v>744</v>
       </c>
-      <c r="D188" s="68" t="s">
+      <c r="D188" s="72" t="s">
         <v>745</v>
       </c>
-      <c r="E188" s="68" t="s">
+      <c r="E188" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F188" s="68"/>
-      <c r="G188" s="68"/>
-      <c r="H188" s="68" t="s">
+      <c r="F188" s="72"/>
+      <c r="G188" s="72"/>
+      <c r="H188" s="72" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="51"/>
       <c r="B189" s="37"/>
-      <c r="C189" s="68"/>
-      <c r="D189" s="68"/>
-      <c r="E189" s="68"/>
-      <c r="F189" s="68"/>
-      <c r="G189" s="68"/>
-      <c r="H189" s="68"/>
+      <c r="C189" s="72"/>
+      <c r="D189" s="72"/>
+      <c r="E189" s="72"/>
+      <c r="F189" s="72"/>
+      <c r="G189" s="72"/>
+      <c r="H189" s="72"/>
     </row>
     <row r="190" spans="1:8" ht="28.8">
       <c r="A190" s="37"/>
@@ -7014,26 +7047,26 @@
       <c r="B192" s="51"/>
       <c r="C192" s="51"/>
       <c r="D192" s="51"/>
-      <c r="E192" s="68" t="s">
+      <c r="E192" s="72" t="s">
         <v>747</v>
       </c>
-      <c r="F192" s="68"/>
+      <c r="F192" s="72"/>
       <c r="G192" s="39" t="s">
         <v>861</v>
       </c>
-      <c r="H192" s="68"/>
+      <c r="H192" s="72"/>
     </row>
     <row r="193" spans="1:8" ht="53.25" customHeight="1">
       <c r="A193" s="51"/>
       <c r="B193" s="51"/>
       <c r="C193" s="51"/>
       <c r="D193" s="51"/>
-      <c r="E193" s="68"/>
-      <c r="F193" s="68"/>
+      <c r="E193" s="72"/>
+      <c r="F193" s="72"/>
       <c r="G193" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H193" s="68"/>
+      <c r="H193" s="72"/>
     </row>
     <row r="194" spans="1:8" ht="13.8" customHeight="1">
       <c r="A194" s="29" t="s">
@@ -7063,33 +7096,33 @@
       <c r="A195" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="B195" s="52" t="s">
+      <c r="B195" s="65" t="s">
         <v>893</v>
       </c>
-      <c r="C195" s="68" t="s">
+      <c r="C195" s="72" t="s">
         <v>750</v>
       </c>
-      <c r="D195" s="68" t="s">
+      <c r="D195" s="72" t="s">
         <v>745</v>
       </c>
-      <c r="E195" s="68" t="s">
+      <c r="E195" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F195" s="68"/>
-      <c r="G195" s="68"/>
-      <c r="H195" s="68" t="s">
+      <c r="F195" s="72"/>
+      <c r="G195" s="72"/>
+      <c r="H195" s="72" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="51"/>
       <c r="B196" s="37"/>
-      <c r="C196" s="68"/>
-      <c r="D196" s="68"/>
-      <c r="E196" s="68"/>
-      <c r="F196" s="68"/>
-      <c r="G196" s="68"/>
-      <c r="H196" s="68"/>
+      <c r="C196" s="72"/>
+      <c r="D196" s="72"/>
+      <c r="E196" s="72"/>
+      <c r="F196" s="72"/>
+      <c r="G196" s="72"/>
+      <c r="H196" s="72"/>
     </row>
     <row r="197" spans="1:8" ht="28.8">
       <c r="A197" s="37"/>
@@ -7124,28 +7157,28 @@
     <row r="199" spans="1:8">
       <c r="A199" s="51"/>
       <c r="B199" s="37"/>
-      <c r="C199" s="68"/>
-      <c r="D199" s="68"/>
-      <c r="E199" s="68" t="s">
+      <c r="C199" s="72"/>
+      <c r="D199" s="72"/>
+      <c r="E199" s="72" t="s">
         <v>747</v>
       </c>
-      <c r="F199" s="68"/>
+      <c r="F199" s="72"/>
       <c r="G199" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="H199" s="68"/>
+      <c r="H199" s="72"/>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="51"/>
       <c r="B200" s="37"/>
-      <c r="C200" s="68"/>
-      <c r="D200" s="68"/>
-      <c r="E200" s="68"/>
-      <c r="F200" s="68"/>
+      <c r="C200" s="72"/>
+      <c r="D200" s="72"/>
+      <c r="E200" s="72"/>
+      <c r="F200" s="72"/>
       <c r="G200" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H200" s="68"/>
+      <c r="H200" s="72"/>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="37"/>
@@ -7248,30 +7281,30 @@
       <c r="B207" s="50" t="s">
         <v>794</v>
       </c>
-      <c r="C207" s="68" t="s">
+      <c r="C207" s="72" t="s">
         <v>759</v>
       </c>
-      <c r="D207" s="68" t="s">
+      <c r="D207" s="72" t="s">
         <v>745</v>
       </c>
-      <c r="E207" s="68" t="s">
+      <c r="E207" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F207" s="68"/>
-      <c r="G207" s="68"/>
-      <c r="H207" s="68" t="s">
+      <c r="F207" s="72"/>
+      <c r="G207" s="72"/>
+      <c r="H207" s="72" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="51"/>
       <c r="B208" s="37"/>
-      <c r="C208" s="68"/>
-      <c r="D208" s="68"/>
-      <c r="E208" s="68"/>
-      <c r="F208" s="68"/>
-      <c r="G208" s="68"/>
-      <c r="H208" s="68"/>
+      <c r="C208" s="72"/>
+      <c r="D208" s="72"/>
+      <c r="E208" s="72"/>
+      <c r="F208" s="72"/>
+      <c r="G208" s="72"/>
+      <c r="H208" s="72"/>
     </row>
     <row r="209" spans="1:8" ht="28.8">
       <c r="A209" s="37"/>
@@ -7306,28 +7339,28 @@
     <row r="211" spans="1:8" ht="46.5" customHeight="1">
       <c r="A211" s="51"/>
       <c r="B211" s="37"/>
-      <c r="C211" s="68"/>
-      <c r="D211" s="68"/>
-      <c r="E211" s="68" t="s">
+      <c r="C211" s="72"/>
+      <c r="D211" s="72"/>
+      <c r="E211" s="72" t="s">
         <v>747</v>
       </c>
-      <c r="F211" s="68"/>
+      <c r="F211" s="72"/>
       <c r="G211" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="H211" s="68"/>
+      <c r="H211" s="72"/>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="51"/>
       <c r="B212" s="37"/>
-      <c r="C212" s="68"/>
-      <c r="D212" s="68"/>
-      <c r="E212" s="68"/>
-      <c r="F212" s="68"/>
+      <c r="C212" s="72"/>
+      <c r="D212" s="72"/>
+      <c r="E212" s="72"/>
+      <c r="F212" s="72"/>
       <c r="G212" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H212" s="68"/>
+      <c r="H212" s="72"/>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="37"/>
@@ -7396,34 +7429,34 @@
       </c>
     </row>
     <row r="217" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A217" s="68" t="s">
+      <c r="A217" s="72" t="s">
         <v>245</v>
       </c>
       <c r="B217" s="30"/>
-      <c r="C217" s="68" t="s">
+      <c r="C217" s="72" t="s">
         <v>763</v>
       </c>
-      <c r="D217" s="68" t="s">
+      <c r="D217" s="72" t="s">
         <v>745</v>
       </c>
-      <c r="E217" s="68" t="s">
+      <c r="E217" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F217" s="68"/>
-      <c r="G217" s="68"/>
-      <c r="H217" s="68" t="s">
+      <c r="F217" s="72"/>
+      <c r="G217" s="72"/>
+      <c r="H217" s="72" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="68"/>
+      <c r="A218" s="72"/>
       <c r="B218" s="30"/>
-      <c r="C218" s="68"/>
-      <c r="D218" s="68"/>
-      <c r="E218" s="68"/>
-      <c r="F218" s="68"/>
-      <c r="G218" s="68"/>
-      <c r="H218" s="68"/>
+      <c r="C218" s="72"/>
+      <c r="D218" s="72"/>
+      <c r="E218" s="72"/>
+      <c r="F218" s="72"/>
+      <c r="G218" s="72"/>
+      <c r="H218" s="72"/>
     </row>
     <row r="219" spans="1:8" ht="28.8">
       <c r="A219" s="28"/>
@@ -7458,28 +7491,28 @@
     <row r="221" spans="1:8" ht="27" customHeight="1">
       <c r="A221" s="51"/>
       <c r="B221" s="37"/>
-      <c r="C221" s="68"/>
-      <c r="D221" s="68"/>
-      <c r="E221" s="68" t="s">
+      <c r="C221" s="72"/>
+      <c r="D221" s="72"/>
+      <c r="E221" s="72" t="s">
         <v>765</v>
       </c>
-      <c r="F221" s="68"/>
+      <c r="F221" s="72"/>
       <c r="G221" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="H221" s="68"/>
+      <c r="H221" s="72"/>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="51"/>
       <c r="B222" s="37"/>
-      <c r="C222" s="68"/>
-      <c r="D222" s="68"/>
-      <c r="E222" s="68"/>
-      <c r="F222" s="68"/>
+      <c r="C222" s="72"/>
+      <c r="D222" s="72"/>
+      <c r="E222" s="72"/>
+      <c r="F222" s="72"/>
       <c r="G222" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H222" s="68"/>
+      <c r="H222" s="72"/>
     </row>
     <row r="223" spans="1:8" ht="18" customHeight="1">
       <c r="A223" s="29" t="s">
@@ -7506,34 +7539,34 @@
       </c>
     </row>
     <row r="224" spans="1:8" ht="27" customHeight="1">
-      <c r="A224" s="68" t="s">
+      <c r="A224" s="72" t="s">
         <v>249</v>
       </c>
       <c r="B224" s="30"/>
-      <c r="C224" s="68" t="s">
+      <c r="C224" s="72" t="s">
         <v>766</v>
       </c>
-      <c r="D224" s="68" t="s">
+      <c r="D224" s="72" t="s">
         <v>745</v>
       </c>
-      <c r="E224" s="68" t="s">
+      <c r="E224" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F224" s="68"/>
-      <c r="G224" s="68"/>
-      <c r="H224" s="68" t="s">
+      <c r="F224" s="72"/>
+      <c r="G224" s="72"/>
+      <c r="H224" s="72" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:8">
-      <c r="A225" s="68"/>
+      <c r="A225" s="72"/>
       <c r="B225" s="30"/>
-      <c r="C225" s="68"/>
-      <c r="D225" s="68"/>
-      <c r="E225" s="68"/>
-      <c r="F225" s="68"/>
-      <c r="G225" s="68"/>
-      <c r="H225" s="68"/>
+      <c r="C225" s="72"/>
+      <c r="D225" s="72"/>
+      <c r="E225" s="72"/>
+      <c r="F225" s="72"/>
+      <c r="G225" s="72"/>
+      <c r="H225" s="72"/>
     </row>
     <row r="226" spans="1:8" ht="47.25" customHeight="1">
       <c r="A226" s="28"/>
@@ -7566,30 +7599,30 @@
       <c r="H227" s="28"/>
     </row>
     <row r="228" spans="1:8" ht="27" customHeight="1">
-      <c r="A228" s="68"/>
+      <c r="A228" s="72"/>
       <c r="B228" s="30"/>
-      <c r="C228" s="68"/>
-      <c r="D228" s="68"/>
-      <c r="E228" s="68" t="s">
+      <c r="C228" s="72"/>
+      <c r="D228" s="72"/>
+      <c r="E228" s="72" t="s">
         <v>765</v>
       </c>
-      <c r="F228" s="68"/>
+      <c r="F228" s="72"/>
       <c r="G228" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="H228" s="68"/>
+      <c r="H228" s="72"/>
     </row>
     <row r="229" spans="1:8">
-      <c r="A229" s="68"/>
+      <c r="A229" s="72"/>
       <c r="B229" s="30"/>
-      <c r="C229" s="68"/>
-      <c r="D229" s="68"/>
-      <c r="E229" s="68"/>
-      <c r="F229" s="68"/>
+      <c r="C229" s="72"/>
+      <c r="D229" s="72"/>
+      <c r="E229" s="72"/>
+      <c r="F229" s="72"/>
       <c r="G229" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H229" s="68"/>
+      <c r="H229" s="72"/>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="28"/>
@@ -7686,34 +7719,34 @@
       </c>
     </row>
     <row r="236" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A236" s="68" t="s">
+      <c r="A236" s="72" t="s">
         <v>251</v>
       </c>
       <c r="B236" s="30"/>
-      <c r="C236" s="68" t="s">
+      <c r="C236" s="72" t="s">
         <v>767</v>
       </c>
-      <c r="D236" s="68" t="s">
+      <c r="D236" s="72" t="s">
         <v>768</v>
       </c>
-      <c r="E236" s="68" t="s">
+      <c r="E236" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F236" s="68"/>
-      <c r="G236" s="68"/>
-      <c r="H236" s="68" t="s">
+      <c r="F236" s="72"/>
+      <c r="G236" s="72"/>
+      <c r="H236" s="72" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:8">
-      <c r="A237" s="68"/>
+      <c r="A237" s="72"/>
       <c r="B237" s="30"/>
-      <c r="C237" s="68"/>
-      <c r="D237" s="68"/>
-      <c r="E237" s="68"/>
-      <c r="F237" s="68"/>
-      <c r="G237" s="68"/>
-      <c r="H237" s="68"/>
+      <c r="C237" s="72"/>
+      <c r="D237" s="72"/>
+      <c r="E237" s="72"/>
+      <c r="F237" s="72"/>
+      <c r="G237" s="72"/>
+      <c r="H237" s="72"/>
     </row>
     <row r="238" spans="1:8" ht="28.8">
       <c r="A238" s="28"/>
@@ -7746,30 +7779,30 @@
       <c r="H239" s="28"/>
     </row>
     <row r="240" spans="1:8" ht="27" customHeight="1">
-      <c r="A240" s="68"/>
+      <c r="A240" s="72"/>
       <c r="B240" s="30"/>
-      <c r="C240" s="68"/>
-      <c r="D240" s="68"/>
-      <c r="E240" s="68" t="s">
+      <c r="C240" s="72"/>
+      <c r="D240" s="72"/>
+      <c r="E240" s="72" t="s">
         <v>765</v>
       </c>
-      <c r="F240" s="68"/>
+      <c r="F240" s="72"/>
       <c r="G240" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="H240" s="68"/>
+      <c r="H240" s="72"/>
     </row>
     <row r="241" spans="1:8">
-      <c r="A241" s="68"/>
+      <c r="A241" s="72"/>
       <c r="B241" s="30"/>
-      <c r="C241" s="68"/>
-      <c r="D241" s="68"/>
-      <c r="E241" s="68"/>
-      <c r="F241" s="68"/>
+      <c r="C241" s="72"/>
+      <c r="D241" s="72"/>
+      <c r="E241" s="72"/>
+      <c r="F241" s="72"/>
       <c r="G241" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H241" s="68"/>
+      <c r="H241" s="72"/>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="28"/>
@@ -7838,34 +7871,34 @@
       </c>
     </row>
     <row r="246" spans="1:8">
-      <c r="A246" s="68" t="s">
+      <c r="A246" s="72" t="s">
         <v>253</v>
       </c>
       <c r="B246" s="30"/>
-      <c r="C246" s="68" t="s">
+      <c r="C246" s="72" t="s">
         <v>769</v>
       </c>
-      <c r="D246" s="68" t="s">
+      <c r="D246" s="72" t="s">
         <v>768</v>
       </c>
-      <c r="E246" s="68" t="s">
+      <c r="E246" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F246" s="68"/>
-      <c r="G246" s="68"/>
-      <c r="H246" s="68" t="s">
+      <c r="F246" s="72"/>
+      <c r="G246" s="72"/>
+      <c r="H246" s="72" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:8">
-      <c r="A247" s="68"/>
+      <c r="A247" s="72"/>
       <c r="B247" s="30"/>
-      <c r="C247" s="68"/>
-      <c r="D247" s="68"/>
-      <c r="E247" s="68"/>
-      <c r="F247" s="68"/>
-      <c r="G247" s="68"/>
-      <c r="H247" s="68"/>
+      <c r="C247" s="72"/>
+      <c r="D247" s="72"/>
+      <c r="E247" s="72"/>
+      <c r="F247" s="72"/>
+      <c r="G247" s="72"/>
+      <c r="H247" s="72"/>
     </row>
     <row r="248" spans="1:8" ht="30" customHeight="1">
       <c r="A248" s="28"/>
@@ -7898,30 +7931,30 @@
       <c r="H249" s="28"/>
     </row>
     <row r="250" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A250" s="68"/>
+      <c r="A250" s="72"/>
       <c r="B250" s="30"/>
-      <c r="C250" s="68"/>
-      <c r="D250" s="68"/>
-      <c r="E250" s="68" t="s">
+      <c r="C250" s="72"/>
+      <c r="D250" s="72"/>
+      <c r="E250" s="72" t="s">
         <v>765</v>
       </c>
-      <c r="F250" s="68"/>
+      <c r="F250" s="72"/>
       <c r="G250" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="H250" s="68"/>
+      <c r="H250" s="72"/>
     </row>
     <row r="251" spans="1:8">
-      <c r="A251" s="68"/>
+      <c r="A251" s="72"/>
       <c r="B251" s="30"/>
-      <c r="C251" s="68"/>
-      <c r="D251" s="68"/>
-      <c r="E251" s="68"/>
-      <c r="F251" s="68"/>
+      <c r="C251" s="72"/>
+      <c r="D251" s="72"/>
+      <c r="E251" s="72"/>
+      <c r="F251" s="72"/>
       <c r="G251" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H251" s="68"/>
+      <c r="H251" s="72"/>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="28"/>
@@ -8317,7 +8350,7 @@
       <c r="A277" s="39" t="s">
         <v>282</v>
       </c>
-      <c r="B277" s="39" t="s">
+      <c r="B277" s="66" t="s">
         <v>893</v>
       </c>
       <c r="C277" s="64" t="s">
@@ -15080,54 +15113,54 @@
       <c r="H952" s="28"/>
     </row>
     <row r="953" spans="1:8">
-      <c r="A953" s="68"/>
+      <c r="A953" s="72"/>
       <c r="B953" s="30"/>
-      <c r="C953" s="68"/>
+      <c r="C953" s="72"/>
       <c r="D953" s="28"/>
-      <c r="E953" s="68"/>
-      <c r="F953" s="68"/>
-      <c r="G953" s="68"/>
-      <c r="H953" s="68"/>
+      <c r="E953" s="72"/>
+      <c r="F953" s="72"/>
+      <c r="G953" s="72"/>
+      <c r="H953" s="72"/>
     </row>
     <row r="954" spans="1:8">
-      <c r="A954" s="68"/>
+      <c r="A954" s="72"/>
       <c r="B954" s="30"/>
-      <c r="C954" s="68"/>
+      <c r="C954" s="72"/>
       <c r="D954" s="28"/>
-      <c r="E954" s="68"/>
-      <c r="F954" s="68"/>
-      <c r="G954" s="68"/>
-      <c r="H954" s="68"/>
+      <c r="E954" s="72"/>
+      <c r="F954" s="72"/>
+      <c r="G954" s="72"/>
+      <c r="H954" s="72"/>
     </row>
     <row r="955" spans="1:8">
-      <c r="A955" s="68"/>
+      <c r="A955" s="72"/>
       <c r="B955" s="30"/>
-      <c r="C955" s="68"/>
+      <c r="C955" s="72"/>
       <c r="D955" s="28"/>
-      <c r="E955" s="68"/>
-      <c r="F955" s="68"/>
-      <c r="G955" s="68"/>
-      <c r="H955" s="68"/>
+      <c r="E955" s="72"/>
+      <c r="F955" s="72"/>
+      <c r="G955" s="72"/>
+      <c r="H955" s="72"/>
     </row>
     <row r="956" spans="1:8">
-      <c r="A956" s="68"/>
+      <c r="A956" s="72"/>
       <c r="B956" s="30"/>
-      <c r="C956" s="68"/>
+      <c r="C956" s="72"/>
       <c r="D956" s="28"/>
-      <c r="E956" s="68"/>
-      <c r="F956" s="68"/>
-      <c r="G956" s="68"/>
-      <c r="H956" s="68"/>
+      <c r="E956" s="72"/>
+      <c r="F956" s="72"/>
+      <c r="G956" s="72"/>
+      <c r="H956" s="72"/>
     </row>
     <row r="957" spans="1:8">
-      <c r="A957" s="68"/>
+      <c r="A957" s="72"/>
       <c r="B957" s="30"/>
-      <c r="C957" s="68"/>
+      <c r="C957" s="72"/>
       <c r="D957" s="28"/>
-      <c r="E957" s="68"/>
-      <c r="F957" s="68"/>
-      <c r="G957" s="68"/>
-      <c r="H957" s="68"/>
+      <c r="E957" s="72"/>
+      <c r="F957" s="72"/>
+      <c r="G957" s="72"/>
+      <c r="H957" s="72"/>
     </row>
     <row r="958" spans="1:8">
       <c r="A958" s="28"/>
@@ -15370,54 +15403,54 @@
       <c r="H981" s="28"/>
     </row>
     <row r="982" spans="1:8">
-      <c r="A982" s="68"/>
+      <c r="A982" s="72"/>
       <c r="B982" s="30"/>
-      <c r="C982" s="68"/>
+      <c r="C982" s="72"/>
       <c r="D982" s="28"/>
-      <c r="E982" s="68"/>
-      <c r="F982" s="68"/>
-      <c r="G982" s="68"/>
-      <c r="H982" s="68"/>
+      <c r="E982" s="72"/>
+      <c r="F982" s="72"/>
+      <c r="G982" s="72"/>
+      <c r="H982" s="72"/>
     </row>
     <row r="983" spans="1:8">
-      <c r="A983" s="68"/>
+      <c r="A983" s="72"/>
       <c r="B983" s="30"/>
-      <c r="C983" s="68"/>
+      <c r="C983" s="72"/>
       <c r="D983" s="28"/>
-      <c r="E983" s="68"/>
-      <c r="F983" s="68"/>
-      <c r="G983" s="68"/>
-      <c r="H983" s="68"/>
+      <c r="E983" s="72"/>
+      <c r="F983" s="72"/>
+      <c r="G983" s="72"/>
+      <c r="H983" s="72"/>
     </row>
     <row r="984" spans="1:8">
-      <c r="A984" s="68"/>
+      <c r="A984" s="72"/>
       <c r="B984" s="30"/>
-      <c r="C984" s="68"/>
+      <c r="C984" s="72"/>
       <c r="D984" s="28"/>
-      <c r="E984" s="68"/>
-      <c r="F984" s="68"/>
-      <c r="G984" s="68"/>
-      <c r="H984" s="68"/>
+      <c r="E984" s="72"/>
+      <c r="F984" s="72"/>
+      <c r="G984" s="72"/>
+      <c r="H984" s="72"/>
     </row>
     <row r="985" spans="1:8">
-      <c r="A985" s="68"/>
+      <c r="A985" s="72"/>
       <c r="B985" s="30"/>
-      <c r="C985" s="68"/>
+      <c r="C985" s="72"/>
       <c r="D985" s="28"/>
-      <c r="E985" s="68"/>
-      <c r="F985" s="68"/>
-      <c r="G985" s="68"/>
-      <c r="H985" s="68"/>
+      <c r="E985" s="72"/>
+      <c r="F985" s="72"/>
+      <c r="G985" s="72"/>
+      <c r="H985" s="72"/>
     </row>
     <row r="986" spans="1:8">
-      <c r="A986" s="68"/>
+      <c r="A986" s="72"/>
       <c r="B986" s="30"/>
-      <c r="C986" s="68"/>
+      <c r="C986" s="72"/>
       <c r="D986" s="28"/>
-      <c r="E986" s="68"/>
-      <c r="F986" s="68"/>
-      <c r="G986" s="68"/>
-      <c r="H986" s="68"/>
+      <c r="E986" s="72"/>
+      <c r="F986" s="72"/>
+      <c r="G986" s="72"/>
+      <c r="H986" s="72"/>
     </row>
     <row r="987" spans="1:8">
       <c r="A987" s="28"/>
@@ -18420,34 +18453,34 @@
       <c r="H1286" s="28"/>
     </row>
     <row r="1287" spans="1:8">
-      <c r="A1287" s="68"/>
+      <c r="A1287" s="72"/>
       <c r="B1287" s="30"/>
-      <c r="C1287" s="68"/>
-      <c r="D1287" s="68"/>
-      <c r="E1287" s="68"/>
-      <c r="F1287" s="68"/>
+      <c r="C1287" s="72"/>
+      <c r="D1287" s="72"/>
+      <c r="E1287" s="72"/>
+      <c r="F1287" s="72"/>
       <c r="G1287" s="28"/>
-      <c r="H1287" s="68"/>
+      <c r="H1287" s="72"/>
     </row>
     <row r="1288" spans="1:8">
-      <c r="A1288" s="68"/>
+      <c r="A1288" s="72"/>
       <c r="B1288" s="30"/>
-      <c r="C1288" s="68"/>
-      <c r="D1288" s="68"/>
-      <c r="E1288" s="68"/>
-      <c r="F1288" s="68"/>
+      <c r="C1288" s="72"/>
+      <c r="D1288" s="72"/>
+      <c r="E1288" s="72"/>
+      <c r="F1288" s="72"/>
       <c r="G1288" s="28"/>
-      <c r="H1288" s="68"/>
+      <c r="H1288" s="72"/>
     </row>
     <row r="1289" spans="1:8">
-      <c r="A1289" s="68"/>
+      <c r="A1289" s="72"/>
       <c r="B1289" s="30"/>
-      <c r="C1289" s="68"/>
-      <c r="D1289" s="68"/>
-      <c r="E1289" s="68"/>
-      <c r="F1289" s="68"/>
+      <c r="C1289" s="72"/>
+      <c r="D1289" s="72"/>
+      <c r="E1289" s="72"/>
+      <c r="F1289" s="72"/>
       <c r="G1289" s="28"/>
-      <c r="H1289" s="68"/>
+      <c r="H1289" s="72"/>
     </row>
     <row r="1290" spans="1:8">
       <c r="A1290" s="28"/>
@@ -18630,74 +18663,74 @@
       <c r="H1307" s="28"/>
     </row>
     <row r="1308" spans="1:8">
-      <c r="A1308" s="68"/>
+      <c r="A1308" s="72"/>
       <c r="B1308" s="30"/>
-      <c r="C1308" s="68"/>
-      <c r="D1308" s="68"/>
-      <c r="E1308" s="68"/>
-      <c r="F1308" s="68"/>
+      <c r="C1308" s="72"/>
+      <c r="D1308" s="72"/>
+      <c r="E1308" s="72"/>
+      <c r="F1308" s="72"/>
       <c r="G1308" s="28"/>
-      <c r="H1308" s="68"/>
+      <c r="H1308" s="72"/>
     </row>
     <row r="1309" spans="1:8">
-      <c r="A1309" s="68"/>
+      <c r="A1309" s="72"/>
       <c r="B1309" s="30"/>
-      <c r="C1309" s="68"/>
-      <c r="D1309" s="68"/>
-      <c r="E1309" s="68"/>
-      <c r="F1309" s="68"/>
+      <c r="C1309" s="72"/>
+      <c r="D1309" s="72"/>
+      <c r="E1309" s="72"/>
+      <c r="F1309" s="72"/>
       <c r="G1309" s="28"/>
-      <c r="H1309" s="68"/>
+      <c r="H1309" s="72"/>
     </row>
     <row r="1310" spans="1:8">
-      <c r="A1310" s="68"/>
+      <c r="A1310" s="72"/>
       <c r="B1310" s="30"/>
-      <c r="C1310" s="68"/>
-      <c r="D1310" s="68"/>
-      <c r="E1310" s="68"/>
-      <c r="F1310" s="68"/>
+      <c r="C1310" s="72"/>
+      <c r="D1310" s="72"/>
+      <c r="E1310" s="72"/>
+      <c r="F1310" s="72"/>
       <c r="G1310" s="28"/>
-      <c r="H1310" s="68"/>
+      <c r="H1310" s="72"/>
     </row>
     <row r="1311" spans="1:8">
-      <c r="A1311" s="68"/>
+      <c r="A1311" s="72"/>
       <c r="B1311" s="30"/>
-      <c r="C1311" s="68"/>
-      <c r="D1311" s="68"/>
-      <c r="E1311" s="68"/>
-      <c r="F1311" s="68"/>
+      <c r="C1311" s="72"/>
+      <c r="D1311" s="72"/>
+      <c r="E1311" s="72"/>
+      <c r="F1311" s="72"/>
       <c r="G1311" s="28"/>
-      <c r="H1311" s="68"/>
+      <c r="H1311" s="72"/>
     </row>
     <row r="1312" spans="1:8">
-      <c r="A1312" s="68"/>
+      <c r="A1312" s="72"/>
       <c r="B1312" s="30"/>
-      <c r="C1312" s="68"/>
-      <c r="D1312" s="68"/>
-      <c r="E1312" s="68"/>
-      <c r="F1312" s="68"/>
+      <c r="C1312" s="72"/>
+      <c r="D1312" s="72"/>
+      <c r="E1312" s="72"/>
+      <c r="F1312" s="72"/>
       <c r="G1312" s="28"/>
-      <c r="H1312" s="68"/>
+      <c r="H1312" s="72"/>
     </row>
     <row r="1313" spans="1:8">
-      <c r="A1313" s="68"/>
+      <c r="A1313" s="72"/>
       <c r="B1313" s="30"/>
-      <c r="C1313" s="68"/>
-      <c r="D1313" s="68"/>
-      <c r="E1313" s="68"/>
-      <c r="F1313" s="68"/>
+      <c r="C1313" s="72"/>
+      <c r="D1313" s="72"/>
+      <c r="E1313" s="72"/>
+      <c r="F1313" s="72"/>
       <c r="G1313" s="28"/>
-      <c r="H1313" s="68"/>
+      <c r="H1313" s="72"/>
     </row>
     <row r="1314" spans="1:8">
-      <c r="A1314" s="68"/>
+      <c r="A1314" s="72"/>
       <c r="B1314" s="30"/>
-      <c r="C1314" s="68"/>
-      <c r="D1314" s="68"/>
-      <c r="E1314" s="68"/>
-      <c r="F1314" s="68"/>
+      <c r="C1314" s="72"/>
+      <c r="D1314" s="72"/>
+      <c r="E1314" s="72"/>
+      <c r="F1314" s="72"/>
       <c r="G1314" s="28"/>
-      <c r="H1314" s="68"/>
+      <c r="H1314" s="72"/>
     </row>
     <row r="1315" spans="1:8">
       <c r="A1315" s="28"/>
@@ -18890,34 +18923,34 @@
       <c r="H1333" s="28"/>
     </row>
     <row r="1334" spans="1:8">
-      <c r="A1334" s="68"/>
+      <c r="A1334" s="72"/>
       <c r="B1334" s="30"/>
-      <c r="C1334" s="68"/>
-      <c r="D1334" s="68"/>
-      <c r="E1334" s="68"/>
-      <c r="F1334" s="68"/>
+      <c r="C1334" s="72"/>
+      <c r="D1334" s="72"/>
+      <c r="E1334" s="72"/>
+      <c r="F1334" s="72"/>
       <c r="G1334" s="28"/>
-      <c r="H1334" s="68"/>
+      <c r="H1334" s="72"/>
     </row>
     <row r="1335" spans="1:8">
-      <c r="A1335" s="68"/>
+      <c r="A1335" s="72"/>
       <c r="B1335" s="30"/>
-      <c r="C1335" s="68"/>
-      <c r="D1335" s="68"/>
-      <c r="E1335" s="68"/>
-      <c r="F1335" s="68"/>
+      <c r="C1335" s="72"/>
+      <c r="D1335" s="72"/>
+      <c r="E1335" s="72"/>
+      <c r="F1335" s="72"/>
       <c r="G1335" s="28"/>
-      <c r="H1335" s="68"/>
+      <c r="H1335" s="72"/>
     </row>
     <row r="1336" spans="1:8">
-      <c r="A1336" s="68"/>
+      <c r="A1336" s="72"/>
       <c r="B1336" s="30"/>
-      <c r="C1336" s="68"/>
-      <c r="D1336" s="68"/>
-      <c r="E1336" s="68"/>
-      <c r="F1336" s="68"/>
+      <c r="C1336" s="72"/>
+      <c r="D1336" s="72"/>
+      <c r="E1336" s="72"/>
+      <c r="F1336" s="72"/>
       <c r="G1336" s="28"/>
-      <c r="H1336" s="68"/>
+      <c r="H1336" s="72"/>
     </row>
     <row r="1337" spans="1:8">
       <c r="A1337" s="28"/>
@@ -19250,97 +19283,51 @@
       <c r="H1369" s="28"/>
     </row>
     <row r="1370" spans="1:8">
-      <c r="A1370" s="68"/>
+      <c r="A1370" s="72"/>
       <c r="B1370" s="30"/>
-      <c r="C1370" s="68"/>
-      <c r="D1370" s="68"/>
-      <c r="E1370" s="68"/>
-      <c r="F1370" s="68"/>
+      <c r="C1370" s="72"/>
+      <c r="D1370" s="72"/>
+      <c r="E1370" s="72"/>
+      <c r="F1370" s="72"/>
       <c r="G1370" s="28"/>
-      <c r="H1370" s="68"/>
+      <c r="H1370" s="72"/>
     </row>
     <row r="1371" spans="1:8">
-      <c r="A1371" s="68"/>
+      <c r="A1371" s="72"/>
       <c r="B1371" s="30"/>
-      <c r="C1371" s="68"/>
-      <c r="D1371" s="68"/>
-      <c r="E1371" s="68"/>
-      <c r="F1371" s="68"/>
+      <c r="C1371" s="72"/>
+      <c r="D1371" s="72"/>
+      <c r="E1371" s="72"/>
+      <c r="F1371" s="72"/>
       <c r="G1371" s="28"/>
-      <c r="H1371" s="68"/>
+      <c r="H1371" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="F953:F957"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="D236:D237"/>
-    <mergeCell ref="E236:E237"/>
-    <mergeCell ref="A224:A225"/>
-    <mergeCell ref="C224:C225"/>
-    <mergeCell ref="D224:D225"/>
-    <mergeCell ref="E224:E225"/>
-    <mergeCell ref="F224:F225"/>
-    <mergeCell ref="A240:A241"/>
-    <mergeCell ref="C240:C241"/>
-    <mergeCell ref="D240:D241"/>
-    <mergeCell ref="E240:E241"/>
-    <mergeCell ref="F240:F241"/>
-    <mergeCell ref="E953:E957"/>
-    <mergeCell ref="F188:F189"/>
-    <mergeCell ref="G188:G189"/>
-    <mergeCell ref="H188:H189"/>
-    <mergeCell ref="E192:E193"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="H192:H193"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="G195:G196"/>
-    <mergeCell ref="H195:H196"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="E199:E200"/>
-    <mergeCell ref="F199:F200"/>
-    <mergeCell ref="H199:H200"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="D195:D196"/>
-    <mergeCell ref="E195:E196"/>
-    <mergeCell ref="F207:F208"/>
-    <mergeCell ref="G207:G208"/>
-    <mergeCell ref="H207:H208"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="E211:E212"/>
-    <mergeCell ref="F211:F212"/>
-    <mergeCell ref="H211:H212"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="D207:D208"/>
-    <mergeCell ref="E207:E208"/>
-    <mergeCell ref="F217:F218"/>
-    <mergeCell ref="G217:G218"/>
-    <mergeCell ref="H217:H218"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="F221:F222"/>
-    <mergeCell ref="H221:H222"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="E217:E218"/>
-    <mergeCell ref="G224:G225"/>
-    <mergeCell ref="H224:H225"/>
-    <mergeCell ref="A228:A229"/>
-    <mergeCell ref="C228:C229"/>
-    <mergeCell ref="D228:D229"/>
-    <mergeCell ref="E228:E229"/>
-    <mergeCell ref="F228:F229"/>
-    <mergeCell ref="H228:H229"/>
-    <mergeCell ref="F236:F237"/>
-    <mergeCell ref="G236:G237"/>
-    <mergeCell ref="H236:H237"/>
+    <mergeCell ref="F1334:F1336"/>
+    <mergeCell ref="H1334:H1336"/>
+    <mergeCell ref="A1370:A1371"/>
+    <mergeCell ref="C1370:C1371"/>
+    <mergeCell ref="D1370:D1371"/>
+    <mergeCell ref="E1370:E1371"/>
+    <mergeCell ref="F1370:F1371"/>
+    <mergeCell ref="H1370:H1371"/>
+    <mergeCell ref="F1287:F1289"/>
+    <mergeCell ref="H1287:H1289"/>
+    <mergeCell ref="A1308:A1314"/>
+    <mergeCell ref="C1308:C1314"/>
+    <mergeCell ref="D1308:D1314"/>
+    <mergeCell ref="E1308:E1314"/>
+    <mergeCell ref="F1308:F1314"/>
+    <mergeCell ref="H1308:H1314"/>
+    <mergeCell ref="A1334:A1336"/>
+    <mergeCell ref="C1334:C1336"/>
+    <mergeCell ref="D1334:D1336"/>
+    <mergeCell ref="E1334:E1336"/>
+    <mergeCell ref="A1287:A1289"/>
+    <mergeCell ref="C1287:C1289"/>
+    <mergeCell ref="D1287:D1289"/>
+    <mergeCell ref="E1287:E1289"/>
     <mergeCell ref="H240:H241"/>
     <mergeCell ref="G953:G957"/>
     <mergeCell ref="H953:H957"/>
@@ -19365,30 +19352,76 @@
     <mergeCell ref="G246:G247"/>
     <mergeCell ref="A953:A957"/>
     <mergeCell ref="C953:C957"/>
-    <mergeCell ref="F1334:F1336"/>
-    <mergeCell ref="H1334:H1336"/>
-    <mergeCell ref="A1370:A1371"/>
-    <mergeCell ref="C1370:C1371"/>
-    <mergeCell ref="D1370:D1371"/>
-    <mergeCell ref="E1370:E1371"/>
-    <mergeCell ref="F1370:F1371"/>
-    <mergeCell ref="H1370:H1371"/>
-    <mergeCell ref="F1287:F1289"/>
-    <mergeCell ref="H1287:H1289"/>
-    <mergeCell ref="A1308:A1314"/>
-    <mergeCell ref="C1308:C1314"/>
-    <mergeCell ref="D1308:D1314"/>
-    <mergeCell ref="E1308:E1314"/>
-    <mergeCell ref="F1308:F1314"/>
-    <mergeCell ref="H1308:H1314"/>
-    <mergeCell ref="A1334:A1336"/>
-    <mergeCell ref="C1334:C1336"/>
-    <mergeCell ref="D1334:D1336"/>
-    <mergeCell ref="E1334:E1336"/>
-    <mergeCell ref="A1287:A1289"/>
-    <mergeCell ref="C1287:C1289"/>
-    <mergeCell ref="D1287:D1289"/>
-    <mergeCell ref="E1287:E1289"/>
+    <mergeCell ref="G224:G225"/>
+    <mergeCell ref="H224:H225"/>
+    <mergeCell ref="A228:A229"/>
+    <mergeCell ref="C228:C229"/>
+    <mergeCell ref="D228:D229"/>
+    <mergeCell ref="E228:E229"/>
+    <mergeCell ref="F228:F229"/>
+    <mergeCell ref="H228:H229"/>
+    <mergeCell ref="F236:F237"/>
+    <mergeCell ref="G236:G237"/>
+    <mergeCell ref="H236:H237"/>
+    <mergeCell ref="F217:F218"/>
+    <mergeCell ref="G217:G218"/>
+    <mergeCell ref="H217:H218"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="H221:H222"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="E217:E218"/>
+    <mergeCell ref="F207:F208"/>
+    <mergeCell ref="G207:G208"/>
+    <mergeCell ref="H207:H208"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="E211:E212"/>
+    <mergeCell ref="F211:F212"/>
+    <mergeCell ref="H211:H212"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="D207:D208"/>
+    <mergeCell ref="E207:E208"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="G195:G196"/>
+    <mergeCell ref="H195:H196"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="E199:E200"/>
+    <mergeCell ref="F199:F200"/>
+    <mergeCell ref="H199:H200"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="E195:E196"/>
+    <mergeCell ref="F188:F189"/>
+    <mergeCell ref="G188:G189"/>
+    <mergeCell ref="H188:H189"/>
+    <mergeCell ref="E192:E193"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="H192:H193"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="F953:F957"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="D236:D237"/>
+    <mergeCell ref="E236:E237"/>
+    <mergeCell ref="A224:A225"/>
+    <mergeCell ref="C224:C225"/>
+    <mergeCell ref="D224:D225"/>
+    <mergeCell ref="E224:E225"/>
+    <mergeCell ref="F224:F225"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="D240:D241"/>
+    <mergeCell ref="E240:E241"/>
+    <mergeCell ref="F240:F241"/>
+    <mergeCell ref="E953:E957"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19399,8 +19432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1245"/>
   <sheetViews>
-    <sheetView topLeftCell="A860" workbookViewId="0">
-      <selection activeCell="B860" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A760" workbookViewId="0">
+      <selection activeCell="B763" sqref="B763"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -19678,7 +19711,7 @@
       <c r="A33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="67" t="s">
         <v>895</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -20112,7 +20145,7 @@
       <c r="A94" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="67" t="s">
         <v>895</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -21107,7 +21140,7 @@
       <c r="A232" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B232" s="67" t="s">
         <v>895</v>
       </c>
       <c r="C232" s="3" t="s">
@@ -21539,7 +21572,7 @@
       <c r="A293" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="B293" s="67" t="s">
         <v>896</v>
       </c>
       <c r="C293" s="3" t="s">
@@ -21687,7 +21720,7 @@
       <c r="A312" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="B312" s="31" t="s">
+      <c r="B312" s="67" t="s">
         <v>895</v>
       </c>
       <c r="C312" s="3" t="s">
@@ -22144,7 +22177,7 @@
       <c r="A378" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B378" s="3" t="s">
+      <c r="B378" s="67" t="s">
         <v>893</v>
       </c>
       <c r="C378" s="3" t="s">
@@ -22260,7 +22293,7 @@
       <c r="A393" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B393" s="3" t="s">
+      <c r="B393" s="67" t="s">
         <v>893</v>
       </c>
       <c r="C393" s="3" t="s">
@@ -24282,7 +24315,7 @@
       <c r="A659" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B659" s="3" t="s">
+      <c r="B659" s="67" t="s">
         <v>895</v>
       </c>
       <c r="C659" s="3" t="s">
@@ -24547,7 +24580,7 @@
       <c r="A694" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B694" s="3" t="s">
+      <c r="B694" s="68" t="s">
         <v>895</v>
       </c>
       <c r="C694" s="3" t="s">
@@ -24809,7 +24842,7 @@
       <c r="A729" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B729" s="3" t="s">
+      <c r="B729" s="68" t="s">
         <v>895</v>
       </c>
       <c r="C729" s="3" t="s">
@@ -29250,8 +29283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1335"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -30110,7 +30143,7 @@
       <c r="A61" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="73" t="s">
         <v>895</v>
       </c>
       <c r="C61" s="17" t="s">
@@ -30482,7 +30515,7 @@
       <c r="A88" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="21" t="s">
+      <c r="B88" s="73" t="s">
         <v>895</v>
       </c>
       <c r="C88" s="17" t="s">
@@ -61160,21 +61193,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101007976F8CCA0ED0D47930681AA21DEEE24" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="5d6bb8c47ca5c908ea932f041c0d02bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="21ec7336-031d-40ce-b88b-6a916b8e11b4" xmlns:ns4="fe969a12-aade-4ac2-a23f-8e1b54a37ff5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79bbd8f77373bcb0829ef1b6439f04bf" ns3:_="" ns4:_="">
     <xsd:import namespace="21ec7336-031d-40ce-b88b-6a916b8e11b4"/>
@@ -61377,24 +61395,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF8AABAE-A744-4E9C-8170-C8585CA79AEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CB26C50-9672-46A3-BDE2-4208B21162A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1020987D-2736-4945-83CD-D094942F0B74}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -61411,4 +61427,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CB26C50-9672-46A3-BDE2-4208B21162A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF8AABAE-A744-4E9C-8170-C8585CA79AEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/AutomationTracker.xlsx
+++ b/AutomationTracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8076" tabRatio="791" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8076" tabRatio="791" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="16" r:id="rId1"/>
@@ -2928,7 +2928,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3021,6 +3021,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3054,7 +3060,7 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3240,6 +3246,12 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3250,8 +3262,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3612,16 +3624,16 @@
       <c r="G1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="71" t="s">
         <v>852</v>
       </c>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
       <c r="P1" s="46"/>
     </row>
     <row r="2" spans="1:16">
@@ -3784,11 +3796,11 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="23.4" customHeight="1">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="72" t="s">
         <v>863</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
       <c r="D8" s="60">
         <f>SUM(D2:D7)</f>
         <v>35</v>
@@ -3998,11 +4010,11 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="73" t="s">
         <v>865</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="59">
         <f>SUM(D13:D22)</f>
         <v>114</v>
@@ -6987,30 +6999,30 @@
       <c r="B188" s="50" t="s">
         <v>794</v>
       </c>
-      <c r="C188" s="72" t="s">
+      <c r="C188" s="74" t="s">
         <v>744</v>
       </c>
-      <c r="D188" s="72" t="s">
+      <c r="D188" s="74" t="s">
         <v>745</v>
       </c>
-      <c r="E188" s="72" t="s">
+      <c r="E188" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="F188" s="72"/>
-      <c r="G188" s="72"/>
-      <c r="H188" s="72" t="s">
+      <c r="F188" s="74"/>
+      <c r="G188" s="74"/>
+      <c r="H188" s="74" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="51"/>
       <c r="B189" s="37"/>
-      <c r="C189" s="72"/>
-      <c r="D189" s="72"/>
-      <c r="E189" s="72"/>
-      <c r="F189" s="72"/>
-      <c r="G189" s="72"/>
-      <c r="H189" s="72"/>
+      <c r="C189" s="74"/>
+      <c r="D189" s="74"/>
+      <c r="E189" s="74"/>
+      <c r="F189" s="74"/>
+      <c r="G189" s="74"/>
+      <c r="H189" s="74"/>
     </row>
     <row r="190" spans="1:8" ht="28.8">
       <c r="A190" s="37"/>
@@ -7047,26 +7059,26 @@
       <c r="B192" s="51"/>
       <c r="C192" s="51"/>
       <c r="D192" s="51"/>
-      <c r="E192" s="72" t="s">
+      <c r="E192" s="74" t="s">
         <v>747</v>
       </c>
-      <c r="F192" s="72"/>
+      <c r="F192" s="74"/>
       <c r="G192" s="39" t="s">
         <v>861</v>
       </c>
-      <c r="H192" s="72"/>
+      <c r="H192" s="74"/>
     </row>
     <row r="193" spans="1:8" ht="53.25" customHeight="1">
       <c r="A193" s="51"/>
       <c r="B193" s="51"/>
       <c r="C193" s="51"/>
       <c r="D193" s="51"/>
-      <c r="E193" s="72"/>
-      <c r="F193" s="72"/>
+      <c r="E193" s="74"/>
+      <c r="F193" s="74"/>
       <c r="G193" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H193" s="72"/>
+      <c r="H193" s="74"/>
     </row>
     <row r="194" spans="1:8" ht="13.8" customHeight="1">
       <c r="A194" s="29" t="s">
@@ -7099,30 +7111,30 @@
       <c r="B195" s="65" t="s">
         <v>893</v>
       </c>
-      <c r="C195" s="72" t="s">
+      <c r="C195" s="74" t="s">
         <v>750</v>
       </c>
-      <c r="D195" s="72" t="s">
+      <c r="D195" s="74" t="s">
         <v>745</v>
       </c>
-      <c r="E195" s="72" t="s">
+      <c r="E195" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="F195" s="72"/>
-      <c r="G195" s="72"/>
-      <c r="H195" s="72" t="s">
+      <c r="F195" s="74"/>
+      <c r="G195" s="74"/>
+      <c r="H195" s="74" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="51"/>
       <c r="B196" s="37"/>
-      <c r="C196" s="72"/>
-      <c r="D196" s="72"/>
-      <c r="E196" s="72"/>
-      <c r="F196" s="72"/>
-      <c r="G196" s="72"/>
-      <c r="H196" s="72"/>
+      <c r="C196" s="74"/>
+      <c r="D196" s="74"/>
+      <c r="E196" s="74"/>
+      <c r="F196" s="74"/>
+      <c r="G196" s="74"/>
+      <c r="H196" s="74"/>
     </row>
     <row r="197" spans="1:8" ht="28.8">
       <c r="A197" s="37"/>
@@ -7157,28 +7169,28 @@
     <row r="199" spans="1:8">
       <c r="A199" s="51"/>
       <c r="B199" s="37"/>
-      <c r="C199" s="72"/>
-      <c r="D199" s="72"/>
-      <c r="E199" s="72" t="s">
+      <c r="C199" s="74"/>
+      <c r="D199" s="74"/>
+      <c r="E199" s="74" t="s">
         <v>747</v>
       </c>
-      <c r="F199" s="72"/>
+      <c r="F199" s="74"/>
       <c r="G199" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="H199" s="72"/>
+      <c r="H199" s="74"/>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="51"/>
       <c r="B200" s="37"/>
-      <c r="C200" s="72"/>
-      <c r="D200" s="72"/>
-      <c r="E200" s="72"/>
-      <c r="F200" s="72"/>
+      <c r="C200" s="74"/>
+      <c r="D200" s="74"/>
+      <c r="E200" s="74"/>
+      <c r="F200" s="74"/>
       <c r="G200" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H200" s="72"/>
+      <c r="H200" s="74"/>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="37"/>
@@ -7281,30 +7293,30 @@
       <c r="B207" s="50" t="s">
         <v>794</v>
       </c>
-      <c r="C207" s="72" t="s">
+      <c r="C207" s="74" t="s">
         <v>759</v>
       </c>
-      <c r="D207" s="72" t="s">
+      <c r="D207" s="74" t="s">
         <v>745</v>
       </c>
-      <c r="E207" s="72" t="s">
+      <c r="E207" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="F207" s="72"/>
-      <c r="G207" s="72"/>
-      <c r="H207" s="72" t="s">
+      <c r="F207" s="74"/>
+      <c r="G207" s="74"/>
+      <c r="H207" s="74" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="51"/>
       <c r="B208" s="37"/>
-      <c r="C208" s="72"/>
-      <c r="D208" s="72"/>
-      <c r="E208" s="72"/>
-      <c r="F208" s="72"/>
-      <c r="G208" s="72"/>
-      <c r="H208" s="72"/>
+      <c r="C208" s="74"/>
+      <c r="D208" s="74"/>
+      <c r="E208" s="74"/>
+      <c r="F208" s="74"/>
+      <c r="G208" s="74"/>
+      <c r="H208" s="74"/>
     </row>
     <row r="209" spans="1:8" ht="28.8">
       <c r="A209" s="37"/>
@@ -7339,28 +7351,28 @@
     <row r="211" spans="1:8" ht="46.5" customHeight="1">
       <c r="A211" s="51"/>
       <c r="B211" s="37"/>
-      <c r="C211" s="72"/>
-      <c r="D211" s="72"/>
-      <c r="E211" s="72" t="s">
+      <c r="C211" s="74"/>
+      <c r="D211" s="74"/>
+      <c r="E211" s="74" t="s">
         <v>747</v>
       </c>
-      <c r="F211" s="72"/>
+      <c r="F211" s="74"/>
       <c r="G211" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="H211" s="72"/>
+      <c r="H211" s="74"/>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="51"/>
       <c r="B212" s="37"/>
-      <c r="C212" s="72"/>
-      <c r="D212" s="72"/>
-      <c r="E212" s="72"/>
-      <c r="F212" s="72"/>
+      <c r="C212" s="74"/>
+      <c r="D212" s="74"/>
+      <c r="E212" s="74"/>
+      <c r="F212" s="74"/>
       <c r="G212" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H212" s="72"/>
+      <c r="H212" s="74"/>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="37"/>
@@ -7429,34 +7441,34 @@
       </c>
     </row>
     <row r="217" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A217" s="72" t="s">
+      <c r="A217" s="74" t="s">
         <v>245</v>
       </c>
       <c r="B217" s="30"/>
-      <c r="C217" s="72" t="s">
+      <c r="C217" s="74" t="s">
         <v>763</v>
       </c>
-      <c r="D217" s="72" t="s">
+      <c r="D217" s="74" t="s">
         <v>745</v>
       </c>
-      <c r="E217" s="72" t="s">
+      <c r="E217" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="F217" s="72"/>
-      <c r="G217" s="72"/>
-      <c r="H217" s="72" t="s">
+      <c r="F217" s="74"/>
+      <c r="G217" s="74"/>
+      <c r="H217" s="74" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="72"/>
+      <c r="A218" s="74"/>
       <c r="B218" s="30"/>
-      <c r="C218" s="72"/>
-      <c r="D218" s="72"/>
-      <c r="E218" s="72"/>
-      <c r="F218" s="72"/>
-      <c r="G218" s="72"/>
-      <c r="H218" s="72"/>
+      <c r="C218" s="74"/>
+      <c r="D218" s="74"/>
+      <c r="E218" s="74"/>
+      <c r="F218" s="74"/>
+      <c r="G218" s="74"/>
+      <c r="H218" s="74"/>
     </row>
     <row r="219" spans="1:8" ht="28.8">
       <c r="A219" s="28"/>
@@ -7491,28 +7503,28 @@
     <row r="221" spans="1:8" ht="27" customHeight="1">
       <c r="A221" s="51"/>
       <c r="B221" s="37"/>
-      <c r="C221" s="72"/>
-      <c r="D221" s="72"/>
-      <c r="E221" s="72" t="s">
+      <c r="C221" s="74"/>
+      <c r="D221" s="74"/>
+      <c r="E221" s="74" t="s">
         <v>765</v>
       </c>
-      <c r="F221" s="72"/>
+      <c r="F221" s="74"/>
       <c r="G221" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="H221" s="72"/>
+      <c r="H221" s="74"/>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="51"/>
       <c r="B222" s="37"/>
-      <c r="C222" s="72"/>
-      <c r="D222" s="72"/>
-      <c r="E222" s="72"/>
-      <c r="F222" s="72"/>
+      <c r="C222" s="74"/>
+      <c r="D222" s="74"/>
+      <c r="E222" s="74"/>
+      <c r="F222" s="74"/>
       <c r="G222" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H222" s="72"/>
+      <c r="H222" s="74"/>
     </row>
     <row r="223" spans="1:8" ht="18" customHeight="1">
       <c r="A223" s="29" t="s">
@@ -7539,34 +7551,34 @@
       </c>
     </row>
     <row r="224" spans="1:8" ht="27" customHeight="1">
-      <c r="A224" s="72" t="s">
+      <c r="A224" s="74" t="s">
         <v>249</v>
       </c>
       <c r="B224" s="30"/>
-      <c r="C224" s="72" t="s">
+      <c r="C224" s="74" t="s">
         <v>766</v>
       </c>
-      <c r="D224" s="72" t="s">
+      <c r="D224" s="74" t="s">
         <v>745</v>
       </c>
-      <c r="E224" s="72" t="s">
+      <c r="E224" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="F224" s="72"/>
-      <c r="G224" s="72"/>
-      <c r="H224" s="72" t="s">
+      <c r="F224" s="74"/>
+      <c r="G224" s="74"/>
+      <c r="H224" s="74" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:8">
-      <c r="A225" s="72"/>
+      <c r="A225" s="74"/>
       <c r="B225" s="30"/>
-      <c r="C225" s="72"/>
-      <c r="D225" s="72"/>
-      <c r="E225" s="72"/>
-      <c r="F225" s="72"/>
-      <c r="G225" s="72"/>
-      <c r="H225" s="72"/>
+      <c r="C225" s="74"/>
+      <c r="D225" s="74"/>
+      <c r="E225" s="74"/>
+      <c r="F225" s="74"/>
+      <c r="G225" s="74"/>
+      <c r="H225" s="74"/>
     </row>
     <row r="226" spans="1:8" ht="47.25" customHeight="1">
       <c r="A226" s="28"/>
@@ -7599,30 +7611,30 @@
       <c r="H227" s="28"/>
     </row>
     <row r="228" spans="1:8" ht="27" customHeight="1">
-      <c r="A228" s="72"/>
+      <c r="A228" s="74"/>
       <c r="B228" s="30"/>
-      <c r="C228" s="72"/>
-      <c r="D228" s="72"/>
-      <c r="E228" s="72" t="s">
+      <c r="C228" s="74"/>
+      <c r="D228" s="74"/>
+      <c r="E228" s="74" t="s">
         <v>765</v>
       </c>
-      <c r="F228" s="72"/>
+      <c r="F228" s="74"/>
       <c r="G228" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="H228" s="72"/>
+      <c r="H228" s="74"/>
     </row>
     <row r="229" spans="1:8">
-      <c r="A229" s="72"/>
+      <c r="A229" s="74"/>
       <c r="B229" s="30"/>
-      <c r="C229" s="72"/>
-      <c r="D229" s="72"/>
-      <c r="E229" s="72"/>
-      <c r="F229" s="72"/>
+      <c r="C229" s="74"/>
+      <c r="D229" s="74"/>
+      <c r="E229" s="74"/>
+      <c r="F229" s="74"/>
       <c r="G229" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H229" s="72"/>
+      <c r="H229" s="74"/>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="28"/>
@@ -7719,34 +7731,34 @@
       </c>
     </row>
     <row r="236" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A236" s="72" t="s">
+      <c r="A236" s="74" t="s">
         <v>251</v>
       </c>
       <c r="B236" s="30"/>
-      <c r="C236" s="72" t="s">
+      <c r="C236" s="74" t="s">
         <v>767</v>
       </c>
-      <c r="D236" s="72" t="s">
+      <c r="D236" s="74" t="s">
         <v>768</v>
       </c>
-      <c r="E236" s="72" t="s">
+      <c r="E236" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="F236" s="72"/>
-      <c r="G236" s="72"/>
-      <c r="H236" s="72" t="s">
+      <c r="F236" s="74"/>
+      <c r="G236" s="74"/>
+      <c r="H236" s="74" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:8">
-      <c r="A237" s="72"/>
+      <c r="A237" s="74"/>
       <c r="B237" s="30"/>
-      <c r="C237" s="72"/>
-      <c r="D237" s="72"/>
-      <c r="E237" s="72"/>
-      <c r="F237" s="72"/>
-      <c r="G237" s="72"/>
-      <c r="H237" s="72"/>
+      <c r="C237" s="74"/>
+      <c r="D237" s="74"/>
+      <c r="E237" s="74"/>
+      <c r="F237" s="74"/>
+      <c r="G237" s="74"/>
+      <c r="H237" s="74"/>
     </row>
     <row r="238" spans="1:8" ht="28.8">
       <c r="A238" s="28"/>
@@ -7779,30 +7791,30 @@
       <c r="H239" s="28"/>
     </row>
     <row r="240" spans="1:8" ht="27" customHeight="1">
-      <c r="A240" s="72"/>
+      <c r="A240" s="74"/>
       <c r="B240" s="30"/>
-      <c r="C240" s="72"/>
-      <c r="D240" s="72"/>
-      <c r="E240" s="72" t="s">
+      <c r="C240" s="74"/>
+      <c r="D240" s="74"/>
+      <c r="E240" s="74" t="s">
         <v>765</v>
       </c>
-      <c r="F240" s="72"/>
+      <c r="F240" s="74"/>
       <c r="G240" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="H240" s="72"/>
+      <c r="H240" s="74"/>
     </row>
     <row r="241" spans="1:8">
-      <c r="A241" s="72"/>
+      <c r="A241" s="74"/>
       <c r="B241" s="30"/>
-      <c r="C241" s="72"/>
-      <c r="D241" s="72"/>
-      <c r="E241" s="72"/>
-      <c r="F241" s="72"/>
+      <c r="C241" s="74"/>
+      <c r="D241" s="74"/>
+      <c r="E241" s="74"/>
+      <c r="F241" s="74"/>
       <c r="G241" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H241" s="72"/>
+      <c r="H241" s="74"/>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="28"/>
@@ -7871,34 +7883,34 @@
       </c>
     </row>
     <row r="246" spans="1:8">
-      <c r="A246" s="72" t="s">
+      <c r="A246" s="74" t="s">
         <v>253</v>
       </c>
       <c r="B246" s="30"/>
-      <c r="C246" s="72" t="s">
+      <c r="C246" s="74" t="s">
         <v>769</v>
       </c>
-      <c r="D246" s="72" t="s">
+      <c r="D246" s="74" t="s">
         <v>768</v>
       </c>
-      <c r="E246" s="72" t="s">
+      <c r="E246" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="F246" s="72"/>
-      <c r="G246" s="72"/>
-      <c r="H246" s="72" t="s">
+      <c r="F246" s="74"/>
+      <c r="G246" s="74"/>
+      <c r="H246" s="74" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:8">
-      <c r="A247" s="72"/>
+      <c r="A247" s="74"/>
       <c r="B247" s="30"/>
-      <c r="C247" s="72"/>
-      <c r="D247" s="72"/>
-      <c r="E247" s="72"/>
-      <c r="F247" s="72"/>
-      <c r="G247" s="72"/>
-      <c r="H247" s="72"/>
+      <c r="C247" s="74"/>
+      <c r="D247" s="74"/>
+      <c r="E247" s="74"/>
+      <c r="F247" s="74"/>
+      <c r="G247" s="74"/>
+      <c r="H247" s="74"/>
     </row>
     <row r="248" spans="1:8" ht="30" customHeight="1">
       <c r="A248" s="28"/>
@@ -7931,30 +7943,30 @@
       <c r="H249" s="28"/>
     </row>
     <row r="250" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A250" s="72"/>
+      <c r="A250" s="74"/>
       <c r="B250" s="30"/>
-      <c r="C250" s="72"/>
-      <c r="D250" s="72"/>
-      <c r="E250" s="72" t="s">
+      <c r="C250" s="74"/>
+      <c r="D250" s="74"/>
+      <c r="E250" s="74" t="s">
         <v>765</v>
       </c>
-      <c r="F250" s="72"/>
+      <c r="F250" s="74"/>
       <c r="G250" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="H250" s="72"/>
+      <c r="H250" s="74"/>
     </row>
     <row r="251" spans="1:8">
-      <c r="A251" s="72"/>
+      <c r="A251" s="74"/>
       <c r="B251" s="30"/>
-      <c r="C251" s="72"/>
-      <c r="D251" s="72"/>
-      <c r="E251" s="72"/>
-      <c r="F251" s="72"/>
+      <c r="C251" s="74"/>
+      <c r="D251" s="74"/>
+      <c r="E251" s="74"/>
+      <c r="F251" s="74"/>
       <c r="G251" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H251" s="72"/>
+      <c r="H251" s="74"/>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="28"/>
@@ -15113,54 +15125,54 @@
       <c r="H952" s="28"/>
     </row>
     <row r="953" spans="1:8">
-      <c r="A953" s="72"/>
+      <c r="A953" s="74"/>
       <c r="B953" s="30"/>
-      <c r="C953" s="72"/>
+      <c r="C953" s="74"/>
       <c r="D953" s="28"/>
-      <c r="E953" s="72"/>
-      <c r="F953" s="72"/>
-      <c r="G953" s="72"/>
-      <c r="H953" s="72"/>
+      <c r="E953" s="74"/>
+      <c r="F953" s="74"/>
+      <c r="G953" s="74"/>
+      <c r="H953" s="74"/>
     </row>
     <row r="954" spans="1:8">
-      <c r="A954" s="72"/>
+      <c r="A954" s="74"/>
       <c r="B954" s="30"/>
-      <c r="C954" s="72"/>
+      <c r="C954" s="74"/>
       <c r="D954" s="28"/>
-      <c r="E954" s="72"/>
-      <c r="F954" s="72"/>
-      <c r="G954" s="72"/>
-      <c r="H954" s="72"/>
+      <c r="E954" s="74"/>
+      <c r="F954" s="74"/>
+      <c r="G954" s="74"/>
+      <c r="H954" s="74"/>
     </row>
     <row r="955" spans="1:8">
-      <c r="A955" s="72"/>
+      <c r="A955" s="74"/>
       <c r="B955" s="30"/>
-      <c r="C955" s="72"/>
+      <c r="C955" s="74"/>
       <c r="D955" s="28"/>
-      <c r="E955" s="72"/>
-      <c r="F955" s="72"/>
-      <c r="G955" s="72"/>
-      <c r="H955" s="72"/>
+      <c r="E955" s="74"/>
+      <c r="F955" s="74"/>
+      <c r="G955" s="74"/>
+      <c r="H955" s="74"/>
     </row>
     <row r="956" spans="1:8">
-      <c r="A956" s="72"/>
+      <c r="A956" s="74"/>
       <c r="B956" s="30"/>
-      <c r="C956" s="72"/>
+      <c r="C956" s="74"/>
       <c r="D956" s="28"/>
-      <c r="E956" s="72"/>
-      <c r="F956" s="72"/>
-      <c r="G956" s="72"/>
-      <c r="H956" s="72"/>
+      <c r="E956" s="74"/>
+      <c r="F956" s="74"/>
+      <c r="G956" s="74"/>
+      <c r="H956" s="74"/>
     </row>
     <row r="957" spans="1:8">
-      <c r="A957" s="72"/>
+      <c r="A957" s="74"/>
       <c r="B957" s="30"/>
-      <c r="C957" s="72"/>
+      <c r="C957" s="74"/>
       <c r="D957" s="28"/>
-      <c r="E957" s="72"/>
-      <c r="F957" s="72"/>
-      <c r="G957" s="72"/>
-      <c r="H957" s="72"/>
+      <c r="E957" s="74"/>
+      <c r="F957" s="74"/>
+      <c r="G957" s="74"/>
+      <c r="H957" s="74"/>
     </row>
     <row r="958" spans="1:8">
       <c r="A958" s="28"/>
@@ -15403,54 +15415,54 @@
       <c r="H981" s="28"/>
     </row>
     <row r="982" spans="1:8">
-      <c r="A982" s="72"/>
+      <c r="A982" s="74"/>
       <c r="B982" s="30"/>
-      <c r="C982" s="72"/>
+      <c r="C982" s="74"/>
       <c r="D982" s="28"/>
-      <c r="E982" s="72"/>
-      <c r="F982" s="72"/>
-      <c r="G982" s="72"/>
-      <c r="H982" s="72"/>
+      <c r="E982" s="74"/>
+      <c r="F982" s="74"/>
+      <c r="G982" s="74"/>
+      <c r="H982" s="74"/>
     </row>
     <row r="983" spans="1:8">
-      <c r="A983" s="72"/>
+      <c r="A983" s="74"/>
       <c r="B983" s="30"/>
-      <c r="C983" s="72"/>
+      <c r="C983" s="74"/>
       <c r="D983" s="28"/>
-      <c r="E983" s="72"/>
-      <c r="F983" s="72"/>
-      <c r="G983" s="72"/>
-      <c r="H983" s="72"/>
+      <c r="E983" s="74"/>
+      <c r="F983" s="74"/>
+      <c r="G983" s="74"/>
+      <c r="H983" s="74"/>
     </row>
     <row r="984" spans="1:8">
-      <c r="A984" s="72"/>
+      <c r="A984" s="74"/>
       <c r="B984" s="30"/>
-      <c r="C984" s="72"/>
+      <c r="C984" s="74"/>
       <c r="D984" s="28"/>
-      <c r="E984" s="72"/>
-      <c r="F984" s="72"/>
-      <c r="G984" s="72"/>
-      <c r="H984" s="72"/>
+      <c r="E984" s="74"/>
+      <c r="F984" s="74"/>
+      <c r="G984" s="74"/>
+      <c r="H984" s="74"/>
     </row>
     <row r="985" spans="1:8">
-      <c r="A985" s="72"/>
+      <c r="A985" s="74"/>
       <c r="B985" s="30"/>
-      <c r="C985" s="72"/>
+      <c r="C985" s="74"/>
       <c r="D985" s="28"/>
-      <c r="E985" s="72"/>
-      <c r="F985" s="72"/>
-      <c r="G985" s="72"/>
-      <c r="H985" s="72"/>
+      <c r="E985" s="74"/>
+      <c r="F985" s="74"/>
+      <c r="G985" s="74"/>
+      <c r="H985" s="74"/>
     </row>
     <row r="986" spans="1:8">
-      <c r="A986" s="72"/>
+      <c r="A986" s="74"/>
       <c r="B986" s="30"/>
-      <c r="C986" s="72"/>
+      <c r="C986" s="74"/>
       <c r="D986" s="28"/>
-      <c r="E986" s="72"/>
-      <c r="F986" s="72"/>
-      <c r="G986" s="72"/>
-      <c r="H986" s="72"/>
+      <c r="E986" s="74"/>
+      <c r="F986" s="74"/>
+      <c r="G986" s="74"/>
+      <c r="H986" s="74"/>
     </row>
     <row r="987" spans="1:8">
       <c r="A987" s="28"/>
@@ -18453,34 +18465,34 @@
       <c r="H1286" s="28"/>
     </row>
     <row r="1287" spans="1:8">
-      <c r="A1287" s="72"/>
+      <c r="A1287" s="74"/>
       <c r="B1287" s="30"/>
-      <c r="C1287" s="72"/>
-      <c r="D1287" s="72"/>
-      <c r="E1287" s="72"/>
-      <c r="F1287" s="72"/>
+      <c r="C1287" s="74"/>
+      <c r="D1287" s="74"/>
+      <c r="E1287" s="74"/>
+      <c r="F1287" s="74"/>
       <c r="G1287" s="28"/>
-      <c r="H1287" s="72"/>
+      <c r="H1287" s="74"/>
     </row>
     <row r="1288" spans="1:8">
-      <c r="A1288" s="72"/>
+      <c r="A1288" s="74"/>
       <c r="B1288" s="30"/>
-      <c r="C1288" s="72"/>
-      <c r="D1288" s="72"/>
-      <c r="E1288" s="72"/>
-      <c r="F1288" s="72"/>
+      <c r="C1288" s="74"/>
+      <c r="D1288" s="74"/>
+      <c r="E1288" s="74"/>
+      <c r="F1288" s="74"/>
       <c r="G1288" s="28"/>
-      <c r="H1288" s="72"/>
+      <c r="H1288" s="74"/>
     </row>
     <row r="1289" spans="1:8">
-      <c r="A1289" s="72"/>
+      <c r="A1289" s="74"/>
       <c r="B1289" s="30"/>
-      <c r="C1289" s="72"/>
-      <c r="D1289" s="72"/>
-      <c r="E1289" s="72"/>
-      <c r="F1289" s="72"/>
+      <c r="C1289" s="74"/>
+      <c r="D1289" s="74"/>
+      <c r="E1289" s="74"/>
+      <c r="F1289" s="74"/>
       <c r="G1289" s="28"/>
-      <c r="H1289" s="72"/>
+      <c r="H1289" s="74"/>
     </row>
     <row r="1290" spans="1:8">
       <c r="A1290" s="28"/>
@@ -18663,74 +18675,74 @@
       <c r="H1307" s="28"/>
     </row>
     <row r="1308" spans="1:8">
-      <c r="A1308" s="72"/>
+      <c r="A1308" s="74"/>
       <c r="B1308" s="30"/>
-      <c r="C1308" s="72"/>
-      <c r="D1308" s="72"/>
-      <c r="E1308" s="72"/>
-      <c r="F1308" s="72"/>
+      <c r="C1308" s="74"/>
+      <c r="D1308" s="74"/>
+      <c r="E1308" s="74"/>
+      <c r="F1308" s="74"/>
       <c r="G1308" s="28"/>
-      <c r="H1308" s="72"/>
+      <c r="H1308" s="74"/>
     </row>
     <row r="1309" spans="1:8">
-      <c r="A1309" s="72"/>
+      <c r="A1309" s="74"/>
       <c r="B1309" s="30"/>
-      <c r="C1309" s="72"/>
-      <c r="D1309" s="72"/>
-      <c r="E1309" s="72"/>
-      <c r="F1309" s="72"/>
+      <c r="C1309" s="74"/>
+      <c r="D1309" s="74"/>
+      <c r="E1309" s="74"/>
+      <c r="F1309" s="74"/>
       <c r="G1309" s="28"/>
-      <c r="H1309" s="72"/>
+      <c r="H1309" s="74"/>
     </row>
     <row r="1310" spans="1:8">
-      <c r="A1310" s="72"/>
+      <c r="A1310" s="74"/>
       <c r="B1310" s="30"/>
-      <c r="C1310" s="72"/>
-      <c r="D1310" s="72"/>
-      <c r="E1310" s="72"/>
-      <c r="F1310" s="72"/>
+      <c r="C1310" s="74"/>
+      <c r="D1310" s="74"/>
+      <c r="E1310" s="74"/>
+      <c r="F1310" s="74"/>
       <c r="G1310" s="28"/>
-      <c r="H1310" s="72"/>
+      <c r="H1310" s="74"/>
     </row>
     <row r="1311" spans="1:8">
-      <c r="A1311" s="72"/>
+      <c r="A1311" s="74"/>
       <c r="B1311" s="30"/>
-      <c r="C1311" s="72"/>
-      <c r="D1311" s="72"/>
-      <c r="E1311" s="72"/>
-      <c r="F1311" s="72"/>
+      <c r="C1311" s="74"/>
+      <c r="D1311" s="74"/>
+      <c r="E1311" s="74"/>
+      <c r="F1311" s="74"/>
       <c r="G1311" s="28"/>
-      <c r="H1311" s="72"/>
+      <c r="H1311" s="74"/>
     </row>
     <row r="1312" spans="1:8">
-      <c r="A1312" s="72"/>
+      <c r="A1312" s="74"/>
       <c r="B1312" s="30"/>
-      <c r="C1312" s="72"/>
-      <c r="D1312" s="72"/>
-      <c r="E1312" s="72"/>
-      <c r="F1312" s="72"/>
+      <c r="C1312" s="74"/>
+      <c r="D1312" s="74"/>
+      <c r="E1312" s="74"/>
+      <c r="F1312" s="74"/>
       <c r="G1312" s="28"/>
-      <c r="H1312" s="72"/>
+      <c r="H1312" s="74"/>
     </row>
     <row r="1313" spans="1:8">
-      <c r="A1313" s="72"/>
+      <c r="A1313" s="74"/>
       <c r="B1313" s="30"/>
-      <c r="C1313" s="72"/>
-      <c r="D1313" s="72"/>
-      <c r="E1313" s="72"/>
-      <c r="F1313" s="72"/>
+      <c r="C1313" s="74"/>
+      <c r="D1313" s="74"/>
+      <c r="E1313" s="74"/>
+      <c r="F1313" s="74"/>
       <c r="G1313" s="28"/>
-      <c r="H1313" s="72"/>
+      <c r="H1313" s="74"/>
     </row>
     <row r="1314" spans="1:8">
-      <c r="A1314" s="72"/>
+      <c r="A1314" s="74"/>
       <c r="B1314" s="30"/>
-      <c r="C1314" s="72"/>
-      <c r="D1314" s="72"/>
-      <c r="E1314" s="72"/>
-      <c r="F1314" s="72"/>
+      <c r="C1314" s="74"/>
+      <c r="D1314" s="74"/>
+      <c r="E1314" s="74"/>
+      <c r="F1314" s="74"/>
       <c r="G1314" s="28"/>
-      <c r="H1314" s="72"/>
+      <c r="H1314" s="74"/>
     </row>
     <row r="1315" spans="1:8">
       <c r="A1315" s="28"/>
@@ -18923,34 +18935,34 @@
       <c r="H1333" s="28"/>
     </row>
     <row r="1334" spans="1:8">
-      <c r="A1334" s="72"/>
+      <c r="A1334" s="74"/>
       <c r="B1334" s="30"/>
-      <c r="C1334" s="72"/>
-      <c r="D1334" s="72"/>
-      <c r="E1334" s="72"/>
-      <c r="F1334" s="72"/>
+      <c r="C1334" s="74"/>
+      <c r="D1334" s="74"/>
+      <c r="E1334" s="74"/>
+      <c r="F1334" s="74"/>
       <c r="G1334" s="28"/>
-      <c r="H1334" s="72"/>
+      <c r="H1334" s="74"/>
     </row>
     <row r="1335" spans="1:8">
-      <c r="A1335" s="72"/>
+      <c r="A1335" s="74"/>
       <c r="B1335" s="30"/>
-      <c r="C1335" s="72"/>
-      <c r="D1335" s="72"/>
-      <c r="E1335" s="72"/>
-      <c r="F1335" s="72"/>
+      <c r="C1335" s="74"/>
+      <c r="D1335" s="74"/>
+      <c r="E1335" s="74"/>
+      <c r="F1335" s="74"/>
       <c r="G1335" s="28"/>
-      <c r="H1335" s="72"/>
+      <c r="H1335" s="74"/>
     </row>
     <row r="1336" spans="1:8">
-      <c r="A1336" s="72"/>
+      <c r="A1336" s="74"/>
       <c r="B1336" s="30"/>
-      <c r="C1336" s="72"/>
-      <c r="D1336" s="72"/>
-      <c r="E1336" s="72"/>
-      <c r="F1336" s="72"/>
+      <c r="C1336" s="74"/>
+      <c r="D1336" s="74"/>
+      <c r="E1336" s="74"/>
+      <c r="F1336" s="74"/>
       <c r="G1336" s="28"/>
-      <c r="H1336" s="72"/>
+      <c r="H1336" s="74"/>
     </row>
     <row r="1337" spans="1:8">
       <c r="A1337" s="28"/>
@@ -19283,24 +19295,24 @@
       <c r="H1369" s="28"/>
     </row>
     <row r="1370" spans="1:8">
-      <c r="A1370" s="72"/>
+      <c r="A1370" s="74"/>
       <c r="B1370" s="30"/>
-      <c r="C1370" s="72"/>
-      <c r="D1370" s="72"/>
-      <c r="E1370" s="72"/>
-      <c r="F1370" s="72"/>
+      <c r="C1370" s="74"/>
+      <c r="D1370" s="74"/>
+      <c r="E1370" s="74"/>
+      <c r="F1370" s="74"/>
       <c r="G1370" s="28"/>
-      <c r="H1370" s="72"/>
+      <c r="H1370" s="74"/>
     </row>
     <row r="1371" spans="1:8">
-      <c r="A1371" s="72"/>
+      <c r="A1371" s="74"/>
       <c r="B1371" s="30"/>
-      <c r="C1371" s="72"/>
-      <c r="D1371" s="72"/>
-      <c r="E1371" s="72"/>
-      <c r="F1371" s="72"/>
+      <c r="C1371" s="74"/>
+      <c r="D1371" s="74"/>
+      <c r="E1371" s="74"/>
+      <c r="F1371" s="74"/>
       <c r="G1371" s="28"/>
-      <c r="H1371" s="72"/>
+      <c r="H1371" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="118">
@@ -19432,8 +19444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1245"/>
   <sheetViews>
-    <sheetView topLeftCell="A760" workbookViewId="0">
-      <selection activeCell="B763" sqref="B763"/>
+    <sheetView tabSelected="1" topLeftCell="A930" workbookViewId="0">
+      <selection activeCell="C948" sqref="C948"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -25099,7 +25111,7 @@
       <c r="A763" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B763" s="3" t="s">
+      <c r="B763" s="70" t="s">
         <v>895</v>
       </c>
       <c r="C763" s="3" t="s">
@@ -26263,7 +26275,7 @@
       <c r="A868" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B868" s="3" t="s">
+      <c r="B868" s="75" t="s">
         <v>897</v>
       </c>
       <c r="C868" s="3" t="s">
@@ -26561,7 +26573,7 @@
       <c r="A908" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B908" s="3" t="s">
+      <c r="B908" s="75" t="s">
         <v>897</v>
       </c>
       <c r="C908" s="3" t="s">
@@ -29283,8 +29295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="C230" sqref="C230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -30143,7 +30155,7 @@
       <c r="A61" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="73" t="s">
+      <c r="B61" s="69" t="s">
         <v>895</v>
       </c>
       <c r="C61" s="17" t="s">
@@ -30515,7 +30527,7 @@
       <c r="A88" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="73" t="s">
+      <c r="B88" s="69" t="s">
         <v>895</v>
       </c>
       <c r="C88" s="17" t="s">
@@ -31311,7 +31323,7 @@
       <c r="A146" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B146" s="21" t="s">
+      <c r="B146" s="69" t="s">
         <v>897</v>
       </c>
       <c r="C146" s="21" t="s">
@@ -31683,7 +31695,7 @@
       <c r="A173" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B173" s="21" t="s">
+      <c r="B173" s="69" t="s">
         <v>897</v>
       </c>
       <c r="C173" s="21" t="s">
@@ -32079,7 +32091,7 @@
       <c r="A202" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B202" s="21" t="s">
+      <c r="B202" s="69" t="s">
         <v>897</v>
       </c>
       <c r="C202" s="21" t="s">

--- a/AutomationTracker.xlsx
+++ b/AutomationTracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8076" tabRatio="791" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8076" tabRatio="791" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="16" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Signup" sheetId="18" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8617" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8617" uniqueCount="896">
   <si>
     <t>Areas</t>
   </si>
@@ -2729,19 +2730,10 @@
     <t xml:space="preserve">As a guest user, ensure guest user able to add two different type of OMV Non Subscription and Subscription Product and remove one of them </t>
   </si>
   <si>
-    <t>Complete</t>
-  </si>
-  <si>
     <t>A927KGMS</t>
   </si>
   <si>
-    <t>Incomplete</t>
-  </si>
-  <si>
     <t>Inomplete</t>
-  </si>
-  <si>
-    <t>InComplete</t>
   </si>
   <si>
     <t>As a guest usee ensure that OMV Subscription item can be added to cart from Kitchen PLP page</t>
@@ -3060,7 +3052,7 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3252,6 +3244,12 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3260,9 +3258,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3624,16 +3619,16 @@
       <c r="G1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="73" t="s">
         <v>852</v>
       </c>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
       <c r="P1" s="46"/>
     </row>
     <row r="2" spans="1:16">
@@ -3796,11 +3791,11 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="23.4" customHeight="1">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="74" t="s">
         <v>863</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="60">
         <f>SUM(D2:D7)</f>
         <v>35</v>
@@ -4010,11 +4005,11 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="75" t="s">
         <v>865</v>
       </c>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="59">
         <f>SUM(D13:D22)</f>
         <v>114</v>
@@ -4043,7 +4038,7 @@
   <dimension ref="A1:H1371"/>
   <sheetViews>
     <sheetView topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="C283" sqref="C283"/>
+      <selection activeCell="C287" sqref="C287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="14.4"/>
@@ -4471,7 +4466,7 @@
         <v>93</v>
       </c>
       <c r="B26" s="65" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>655</v>
@@ -4573,7 +4568,7 @@
         <v>95</v>
       </c>
       <c r="B32" s="65" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C32" s="39" t="s">
         <v>892</v>
@@ -4731,7 +4726,7 @@
         <v>103</v>
       </c>
       <c r="B42" s="65" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C42" s="28" t="s">
         <v>663</v>
@@ -4835,7 +4830,7 @@
         <v>105</v>
       </c>
       <c r="B48" s="65" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C48" s="39" t="s">
         <v>667</v>
@@ -4953,7 +4948,7 @@
         <v>111</v>
       </c>
       <c r="B55" s="65" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C55" s="28" t="s">
         <v>670</v>
@@ -5251,7 +5246,7 @@
         <v>128</v>
       </c>
       <c r="B74" s="65" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C74" s="28" t="s">
         <v>685</v>
@@ -5379,7 +5374,7 @@
         <v>132</v>
       </c>
       <c r="B82" s="65" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C82" s="28" t="s">
         <v>691</v>
@@ -6999,30 +6994,30 @@
       <c r="B188" s="50" t="s">
         <v>794</v>
       </c>
-      <c r="C188" s="74" t="s">
+      <c r="C188" s="76" t="s">
         <v>744</v>
       </c>
-      <c r="D188" s="74" t="s">
+      <c r="D188" s="76" t="s">
         <v>745</v>
       </c>
-      <c r="E188" s="74" t="s">
+      <c r="E188" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="F188" s="74"/>
-      <c r="G188" s="74"/>
-      <c r="H188" s="74" t="s">
+      <c r="F188" s="76"/>
+      <c r="G188" s="76"/>
+      <c r="H188" s="76" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="51"/>
       <c r="B189" s="37"/>
-      <c r="C189" s="74"/>
-      <c r="D189" s="74"/>
-      <c r="E189" s="74"/>
-      <c r="F189" s="74"/>
-      <c r="G189" s="74"/>
-      <c r="H189" s="74"/>
+      <c r="C189" s="76"/>
+      <c r="D189" s="76"/>
+      <c r="E189" s="76"/>
+      <c r="F189" s="76"/>
+      <c r="G189" s="76"/>
+      <c r="H189" s="76"/>
     </row>
     <row r="190" spans="1:8" ht="28.8">
       <c r="A190" s="37"/>
@@ -7059,26 +7054,26 @@
       <c r="B192" s="51"/>
       <c r="C192" s="51"/>
       <c r="D192" s="51"/>
-      <c r="E192" s="74" t="s">
+      <c r="E192" s="76" t="s">
         <v>747</v>
       </c>
-      <c r="F192" s="74"/>
+      <c r="F192" s="76"/>
       <c r="G192" s="39" t="s">
         <v>861</v>
       </c>
-      <c r="H192" s="74"/>
+      <c r="H192" s="76"/>
     </row>
     <row r="193" spans="1:8" ht="53.25" customHeight="1">
       <c r="A193" s="51"/>
       <c r="B193" s="51"/>
       <c r="C193" s="51"/>
       <c r="D193" s="51"/>
-      <c r="E193" s="74"/>
-      <c r="F193" s="74"/>
+      <c r="E193" s="76"/>
+      <c r="F193" s="76"/>
       <c r="G193" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H193" s="74"/>
+      <c r="H193" s="76"/>
     </row>
     <row r="194" spans="1:8" ht="13.8" customHeight="1">
       <c r="A194" s="29" t="s">
@@ -7109,32 +7104,32 @@
         <v>236</v>
       </c>
       <c r="B195" s="65" t="s">
-        <v>893</v>
-      </c>
-      <c r="C195" s="74" t="s">
+        <v>794</v>
+      </c>
+      <c r="C195" s="76" t="s">
         <v>750</v>
       </c>
-      <c r="D195" s="74" t="s">
+      <c r="D195" s="76" t="s">
         <v>745</v>
       </c>
-      <c r="E195" s="74" t="s">
+      <c r="E195" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="F195" s="74"/>
-      <c r="G195" s="74"/>
-      <c r="H195" s="74" t="s">
+      <c r="F195" s="76"/>
+      <c r="G195" s="76"/>
+      <c r="H195" s="76" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="51"/>
       <c r="B196" s="37"/>
-      <c r="C196" s="74"/>
-      <c r="D196" s="74"/>
-      <c r="E196" s="74"/>
-      <c r="F196" s="74"/>
-      <c r="G196" s="74"/>
-      <c r="H196" s="74"/>
+      <c r="C196" s="76"/>
+      <c r="D196" s="76"/>
+      <c r="E196" s="76"/>
+      <c r="F196" s="76"/>
+      <c r="G196" s="76"/>
+      <c r="H196" s="76"/>
     </row>
     <row r="197" spans="1:8" ht="28.8">
       <c r="A197" s="37"/>
@@ -7145,7 +7140,7 @@
         <v>429</v>
       </c>
       <c r="F197" s="63" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G197" s="28" t="s">
         <v>382</v>
@@ -7169,28 +7164,28 @@
     <row r="199" spans="1:8">
       <c r="A199" s="51"/>
       <c r="B199" s="37"/>
-      <c r="C199" s="74"/>
-      <c r="D199" s="74"/>
-      <c r="E199" s="74" t="s">
+      <c r="C199" s="76"/>
+      <c r="D199" s="76"/>
+      <c r="E199" s="76" t="s">
         <v>747</v>
       </c>
-      <c r="F199" s="74"/>
+      <c r="F199" s="76"/>
       <c r="G199" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="H199" s="74"/>
+      <c r="H199" s="76"/>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="51"/>
       <c r="B200" s="37"/>
-      <c r="C200" s="74"/>
-      <c r="D200" s="74"/>
-      <c r="E200" s="74"/>
-      <c r="F200" s="74"/>
+      <c r="C200" s="76"/>
+      <c r="D200" s="76"/>
+      <c r="E200" s="76"/>
+      <c r="F200" s="76"/>
       <c r="G200" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H200" s="74"/>
+      <c r="H200" s="76"/>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="37"/>
@@ -7293,30 +7288,30 @@
       <c r="B207" s="50" t="s">
         <v>794</v>
       </c>
-      <c r="C207" s="74" t="s">
+      <c r="C207" s="76" t="s">
         <v>759</v>
       </c>
-      <c r="D207" s="74" t="s">
+      <c r="D207" s="76" t="s">
         <v>745</v>
       </c>
-      <c r="E207" s="74" t="s">
+      <c r="E207" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="F207" s="74"/>
-      <c r="G207" s="74"/>
-      <c r="H207" s="74" t="s">
+      <c r="F207" s="76"/>
+      <c r="G207" s="76"/>
+      <c r="H207" s="76" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="51"/>
       <c r="B208" s="37"/>
-      <c r="C208" s="74"/>
-      <c r="D208" s="74"/>
-      <c r="E208" s="74"/>
-      <c r="F208" s="74"/>
-      <c r="G208" s="74"/>
-      <c r="H208" s="74"/>
+      <c r="C208" s="76"/>
+      <c r="D208" s="76"/>
+      <c r="E208" s="76"/>
+      <c r="F208" s="76"/>
+      <c r="G208" s="76"/>
+      <c r="H208" s="76"/>
     </row>
     <row r="209" spans="1:8" ht="28.8">
       <c r="A209" s="37"/>
@@ -7351,28 +7346,28 @@
     <row r="211" spans="1:8" ht="46.5" customHeight="1">
       <c r="A211" s="51"/>
       <c r="B211" s="37"/>
-      <c r="C211" s="74"/>
-      <c r="D211" s="74"/>
-      <c r="E211" s="74" t="s">
+      <c r="C211" s="76"/>
+      <c r="D211" s="76"/>
+      <c r="E211" s="76" t="s">
         <v>747</v>
       </c>
-      <c r="F211" s="74"/>
+      <c r="F211" s="76"/>
       <c r="G211" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="H211" s="74"/>
+      <c r="H211" s="76"/>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="51"/>
       <c r="B212" s="37"/>
-      <c r="C212" s="74"/>
-      <c r="D212" s="74"/>
-      <c r="E212" s="74"/>
-      <c r="F212" s="74"/>
+      <c r="C212" s="76"/>
+      <c r="D212" s="76"/>
+      <c r="E212" s="76"/>
+      <c r="F212" s="76"/>
       <c r="G212" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H212" s="74"/>
+      <c r="H212" s="76"/>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="37"/>
@@ -7441,34 +7436,34 @@
       </c>
     </row>
     <row r="217" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A217" s="74" t="s">
+      <c r="A217" s="76" t="s">
         <v>245</v>
       </c>
       <c r="B217" s="30"/>
-      <c r="C217" s="74" t="s">
+      <c r="C217" s="76" t="s">
         <v>763</v>
       </c>
-      <c r="D217" s="74" t="s">
+      <c r="D217" s="76" t="s">
         <v>745</v>
       </c>
-      <c r="E217" s="74" t="s">
+      <c r="E217" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="F217" s="74"/>
-      <c r="G217" s="74"/>
-      <c r="H217" s="74" t="s">
+      <c r="F217" s="76"/>
+      <c r="G217" s="76"/>
+      <c r="H217" s="76" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="74"/>
+      <c r="A218" s="76"/>
       <c r="B218" s="30"/>
-      <c r="C218" s="74"/>
-      <c r="D218" s="74"/>
-      <c r="E218" s="74"/>
-      <c r="F218" s="74"/>
-      <c r="G218" s="74"/>
-      <c r="H218" s="74"/>
+      <c r="C218" s="76"/>
+      <c r="D218" s="76"/>
+      <c r="E218" s="76"/>
+      <c r="F218" s="76"/>
+      <c r="G218" s="76"/>
+      <c r="H218" s="76"/>
     </row>
     <row r="219" spans="1:8" ht="28.8">
       <c r="A219" s="28"/>
@@ -7503,28 +7498,28 @@
     <row r="221" spans="1:8" ht="27" customHeight="1">
       <c r="A221" s="51"/>
       <c r="B221" s="37"/>
-      <c r="C221" s="74"/>
-      <c r="D221" s="74"/>
-      <c r="E221" s="74" t="s">
+      <c r="C221" s="76"/>
+      <c r="D221" s="76"/>
+      <c r="E221" s="76" t="s">
         <v>765</v>
       </c>
-      <c r="F221" s="74"/>
+      <c r="F221" s="76"/>
       <c r="G221" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="H221" s="74"/>
+      <c r="H221" s="76"/>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="51"/>
       <c r="B222" s="37"/>
-      <c r="C222" s="74"/>
-      <c r="D222" s="74"/>
-      <c r="E222" s="74"/>
-      <c r="F222" s="74"/>
+      <c r="C222" s="76"/>
+      <c r="D222" s="76"/>
+      <c r="E222" s="76"/>
+      <c r="F222" s="76"/>
       <c r="G222" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H222" s="74"/>
+      <c r="H222" s="76"/>
     </row>
     <row r="223" spans="1:8" ht="18" customHeight="1">
       <c r="A223" s="29" t="s">
@@ -7551,34 +7546,34 @@
       </c>
     </row>
     <row r="224" spans="1:8" ht="27" customHeight="1">
-      <c r="A224" s="74" t="s">
+      <c r="A224" s="76" t="s">
         <v>249</v>
       </c>
       <c r="B224" s="30"/>
-      <c r="C224" s="74" t="s">
+      <c r="C224" s="76" t="s">
         <v>766</v>
       </c>
-      <c r="D224" s="74" t="s">
+      <c r="D224" s="76" t="s">
         <v>745</v>
       </c>
-      <c r="E224" s="74" t="s">
+      <c r="E224" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="F224" s="74"/>
-      <c r="G224" s="74"/>
-      <c r="H224" s="74" t="s">
+      <c r="F224" s="76"/>
+      <c r="G224" s="76"/>
+      <c r="H224" s="76" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:8">
-      <c r="A225" s="74"/>
+      <c r="A225" s="76"/>
       <c r="B225" s="30"/>
-      <c r="C225" s="74"/>
-      <c r="D225" s="74"/>
-      <c r="E225" s="74"/>
-      <c r="F225" s="74"/>
-      <c r="G225" s="74"/>
-      <c r="H225" s="74"/>
+      <c r="C225" s="76"/>
+      <c r="D225" s="76"/>
+      <c r="E225" s="76"/>
+      <c r="F225" s="76"/>
+      <c r="G225" s="76"/>
+      <c r="H225" s="76"/>
     </row>
     <row r="226" spans="1:8" ht="47.25" customHeight="1">
       <c r="A226" s="28"/>
@@ -7611,30 +7606,30 @@
       <c r="H227" s="28"/>
     </row>
     <row r="228" spans="1:8" ht="27" customHeight="1">
-      <c r="A228" s="74"/>
+      <c r="A228" s="76"/>
       <c r="B228" s="30"/>
-      <c r="C228" s="74"/>
-      <c r="D228" s="74"/>
-      <c r="E228" s="74" t="s">
+      <c r="C228" s="76"/>
+      <c r="D228" s="76"/>
+      <c r="E228" s="76" t="s">
         <v>765</v>
       </c>
-      <c r="F228" s="74"/>
+      <c r="F228" s="76"/>
       <c r="G228" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="H228" s="74"/>
+      <c r="H228" s="76"/>
     </row>
     <row r="229" spans="1:8">
-      <c r="A229" s="74"/>
+      <c r="A229" s="76"/>
       <c r="B229" s="30"/>
-      <c r="C229" s="74"/>
-      <c r="D229" s="74"/>
-      <c r="E229" s="74"/>
-      <c r="F229" s="74"/>
+      <c r="C229" s="76"/>
+      <c r="D229" s="76"/>
+      <c r="E229" s="76"/>
+      <c r="F229" s="76"/>
       <c r="G229" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H229" s="74"/>
+      <c r="H229" s="76"/>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="28"/>
@@ -7731,34 +7726,34 @@
       </c>
     </row>
     <row r="236" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A236" s="74" t="s">
+      <c r="A236" s="76" t="s">
         <v>251</v>
       </c>
       <c r="B236" s="30"/>
-      <c r="C236" s="74" t="s">
+      <c r="C236" s="76" t="s">
         <v>767</v>
       </c>
-      <c r="D236" s="74" t="s">
+      <c r="D236" s="76" t="s">
         <v>768</v>
       </c>
-      <c r="E236" s="74" t="s">
+      <c r="E236" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="F236" s="74"/>
-      <c r="G236" s="74"/>
-      <c r="H236" s="74" t="s">
+      <c r="F236" s="76"/>
+      <c r="G236" s="76"/>
+      <c r="H236" s="76" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:8">
-      <c r="A237" s="74"/>
+      <c r="A237" s="76"/>
       <c r="B237" s="30"/>
-      <c r="C237" s="74"/>
-      <c r="D237" s="74"/>
-      <c r="E237" s="74"/>
-      <c r="F237" s="74"/>
-      <c r="G237" s="74"/>
-      <c r="H237" s="74"/>
+      <c r="C237" s="76"/>
+      <c r="D237" s="76"/>
+      <c r="E237" s="76"/>
+      <c r="F237" s="76"/>
+      <c r="G237" s="76"/>
+      <c r="H237" s="76"/>
     </row>
     <row r="238" spans="1:8" ht="28.8">
       <c r="A238" s="28"/>
@@ -7791,30 +7786,30 @@
       <c r="H239" s="28"/>
     </row>
     <row r="240" spans="1:8" ht="27" customHeight="1">
-      <c r="A240" s="74"/>
+      <c r="A240" s="76"/>
       <c r="B240" s="30"/>
-      <c r="C240" s="74"/>
-      <c r="D240" s="74"/>
-      <c r="E240" s="74" t="s">
+      <c r="C240" s="76"/>
+      <c r="D240" s="76"/>
+      <c r="E240" s="76" t="s">
         <v>765</v>
       </c>
-      <c r="F240" s="74"/>
+      <c r="F240" s="76"/>
       <c r="G240" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="H240" s="74"/>
+      <c r="H240" s="76"/>
     </row>
     <row r="241" spans="1:8">
-      <c r="A241" s="74"/>
+      <c r="A241" s="76"/>
       <c r="B241" s="30"/>
-      <c r="C241" s="74"/>
-      <c r="D241" s="74"/>
-      <c r="E241" s="74"/>
-      <c r="F241" s="74"/>
+      <c r="C241" s="76"/>
+      <c r="D241" s="76"/>
+      <c r="E241" s="76"/>
+      <c r="F241" s="76"/>
       <c r="G241" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H241" s="74"/>
+      <c r="H241" s="76"/>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="28"/>
@@ -7883,34 +7878,34 @@
       </c>
     </row>
     <row r="246" spans="1:8">
-      <c r="A246" s="74" t="s">
+      <c r="A246" s="76" t="s">
         <v>253</v>
       </c>
       <c r="B246" s="30"/>
-      <c r="C246" s="74" t="s">
+      <c r="C246" s="76" t="s">
         <v>769</v>
       </c>
-      <c r="D246" s="74" t="s">
+      <c r="D246" s="76" t="s">
         <v>768</v>
       </c>
-      <c r="E246" s="74" t="s">
+      <c r="E246" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="F246" s="74"/>
-      <c r="G246" s="74"/>
-      <c r="H246" s="74" t="s">
+      <c r="F246" s="76"/>
+      <c r="G246" s="76"/>
+      <c r="H246" s="76" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:8">
-      <c r="A247" s="74"/>
+      <c r="A247" s="76"/>
       <c r="B247" s="30"/>
-      <c r="C247" s="74"/>
-      <c r="D247" s="74"/>
-      <c r="E247" s="74"/>
-      <c r="F247" s="74"/>
-      <c r="G247" s="74"/>
-      <c r="H247" s="74"/>
+      <c r="C247" s="76"/>
+      <c r="D247" s="76"/>
+      <c r="E247" s="76"/>
+      <c r="F247" s="76"/>
+      <c r="G247" s="76"/>
+      <c r="H247" s="76"/>
     </row>
     <row r="248" spans="1:8" ht="30" customHeight="1">
       <c r="A248" s="28"/>
@@ -7943,30 +7938,30 @@
       <c r="H249" s="28"/>
     </row>
     <row r="250" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A250" s="74"/>
+      <c r="A250" s="76"/>
       <c r="B250" s="30"/>
-      <c r="C250" s="74"/>
-      <c r="D250" s="74"/>
-      <c r="E250" s="74" t="s">
+      <c r="C250" s="76"/>
+      <c r="D250" s="76"/>
+      <c r="E250" s="76" t="s">
         <v>765</v>
       </c>
-      <c r="F250" s="74"/>
+      <c r="F250" s="76"/>
       <c r="G250" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="H250" s="74"/>
+      <c r="H250" s="76"/>
     </row>
     <row r="251" spans="1:8">
-      <c r="A251" s="74"/>
+      <c r="A251" s="76"/>
       <c r="B251" s="30"/>
-      <c r="C251" s="74"/>
-      <c r="D251" s="74"/>
-      <c r="E251" s="74"/>
-      <c r="F251" s="74"/>
+      <c r="C251" s="76"/>
+      <c r="D251" s="76"/>
+      <c r="E251" s="76"/>
+      <c r="F251" s="76"/>
       <c r="G251" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="H251" s="74"/>
+      <c r="H251" s="76"/>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="28"/>
@@ -8363,10 +8358,10 @@
         <v>282</v>
       </c>
       <c r="B277" s="66" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C277" s="64" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D277" s="28"/>
       <c r="E277" s="28"/>
@@ -15125,54 +15120,54 @@
       <c r="H952" s="28"/>
     </row>
     <row r="953" spans="1:8">
-      <c r="A953" s="74"/>
+      <c r="A953" s="76"/>
       <c r="B953" s="30"/>
-      <c r="C953" s="74"/>
+      <c r="C953" s="76"/>
       <c r="D953" s="28"/>
-      <c r="E953" s="74"/>
-      <c r="F953" s="74"/>
-      <c r="G953" s="74"/>
-      <c r="H953" s="74"/>
+      <c r="E953" s="76"/>
+      <c r="F953" s="76"/>
+      <c r="G953" s="76"/>
+      <c r="H953" s="76"/>
     </row>
     <row r="954" spans="1:8">
-      <c r="A954" s="74"/>
+      <c r="A954" s="76"/>
       <c r="B954" s="30"/>
-      <c r="C954" s="74"/>
+      <c r="C954" s="76"/>
       <c r="D954" s="28"/>
-      <c r="E954" s="74"/>
-      <c r="F954" s="74"/>
-      <c r="G954" s="74"/>
-      <c r="H954" s="74"/>
+      <c r="E954" s="76"/>
+      <c r="F954" s="76"/>
+      <c r="G954" s="76"/>
+      <c r="H954" s="76"/>
     </row>
     <row r="955" spans="1:8">
-      <c r="A955" s="74"/>
+      <c r="A955" s="76"/>
       <c r="B955" s="30"/>
-      <c r="C955" s="74"/>
+      <c r="C955" s="76"/>
       <c r="D955" s="28"/>
-      <c r="E955" s="74"/>
-      <c r="F955" s="74"/>
-      <c r="G955" s="74"/>
-      <c r="H955" s="74"/>
+      <c r="E955" s="76"/>
+      <c r="F955" s="76"/>
+      <c r="G955" s="76"/>
+      <c r="H955" s="76"/>
     </row>
     <row r="956" spans="1:8">
-      <c r="A956" s="74"/>
+      <c r="A956" s="76"/>
       <c r="B956" s="30"/>
-      <c r="C956" s="74"/>
+      <c r="C956" s="76"/>
       <c r="D956" s="28"/>
-      <c r="E956" s="74"/>
-      <c r="F956" s="74"/>
-      <c r="G956" s="74"/>
-      <c r="H956" s="74"/>
+      <c r="E956" s="76"/>
+      <c r="F956" s="76"/>
+      <c r="G956" s="76"/>
+      <c r="H956" s="76"/>
     </row>
     <row r="957" spans="1:8">
-      <c r="A957" s="74"/>
+      <c r="A957" s="76"/>
       <c r="B957" s="30"/>
-      <c r="C957" s="74"/>
+      <c r="C957" s="76"/>
       <c r="D957" s="28"/>
-      <c r="E957" s="74"/>
-      <c r="F957" s="74"/>
-      <c r="G957" s="74"/>
-      <c r="H957" s="74"/>
+      <c r="E957" s="76"/>
+      <c r="F957" s="76"/>
+      <c r="G957" s="76"/>
+      <c r="H957" s="76"/>
     </row>
     <row r="958" spans="1:8">
       <c r="A958" s="28"/>
@@ -15415,54 +15410,54 @@
       <c r="H981" s="28"/>
     </row>
     <row r="982" spans="1:8">
-      <c r="A982" s="74"/>
+      <c r="A982" s="76"/>
       <c r="B982" s="30"/>
-      <c r="C982" s="74"/>
+      <c r="C982" s="76"/>
       <c r="D982" s="28"/>
-      <c r="E982" s="74"/>
-      <c r="F982" s="74"/>
-      <c r="G982" s="74"/>
-      <c r="H982" s="74"/>
+      <c r="E982" s="76"/>
+      <c r="F982" s="76"/>
+      <c r="G982" s="76"/>
+      <c r="H982" s="76"/>
     </row>
     <row r="983" spans="1:8">
-      <c r="A983" s="74"/>
+      <c r="A983" s="76"/>
       <c r="B983" s="30"/>
-      <c r="C983" s="74"/>
+      <c r="C983" s="76"/>
       <c r="D983" s="28"/>
-      <c r="E983" s="74"/>
-      <c r="F983" s="74"/>
-      <c r="G983" s="74"/>
-      <c r="H983" s="74"/>
+      <c r="E983" s="76"/>
+      <c r="F983" s="76"/>
+      <c r="G983" s="76"/>
+      <c r="H983" s="76"/>
     </row>
     <row r="984" spans="1:8">
-      <c r="A984" s="74"/>
+      <c r="A984" s="76"/>
       <c r="B984" s="30"/>
-      <c r="C984" s="74"/>
+      <c r="C984" s="76"/>
       <c r="D984" s="28"/>
-      <c r="E984" s="74"/>
-      <c r="F984" s="74"/>
-      <c r="G984" s="74"/>
-      <c r="H984" s="74"/>
+      <c r="E984" s="76"/>
+      <c r="F984" s="76"/>
+      <c r="G984" s="76"/>
+      <c r="H984" s="76"/>
     </row>
     <row r="985" spans="1:8">
-      <c r="A985" s="74"/>
+      <c r="A985" s="76"/>
       <c r="B985" s="30"/>
-      <c r="C985" s="74"/>
+      <c r="C985" s="76"/>
       <c r="D985" s="28"/>
-      <c r="E985" s="74"/>
-      <c r="F985" s="74"/>
-      <c r="G985" s="74"/>
-      <c r="H985" s="74"/>
+      <c r="E985" s="76"/>
+      <c r="F985" s="76"/>
+      <c r="G985" s="76"/>
+      <c r="H985" s="76"/>
     </row>
     <row r="986" spans="1:8">
-      <c r="A986" s="74"/>
+      <c r="A986" s="76"/>
       <c r="B986" s="30"/>
-      <c r="C986" s="74"/>
+      <c r="C986" s="76"/>
       <c r="D986" s="28"/>
-      <c r="E986" s="74"/>
-      <c r="F986" s="74"/>
-      <c r="G986" s="74"/>
-      <c r="H986" s="74"/>
+      <c r="E986" s="76"/>
+      <c r="F986" s="76"/>
+      <c r="G986" s="76"/>
+      <c r="H986" s="76"/>
     </row>
     <row r="987" spans="1:8">
       <c r="A987" s="28"/>
@@ -18465,34 +18460,34 @@
       <c r="H1286" s="28"/>
     </row>
     <row r="1287" spans="1:8">
-      <c r="A1287" s="74"/>
+      <c r="A1287" s="76"/>
       <c r="B1287" s="30"/>
-      <c r="C1287" s="74"/>
-      <c r="D1287" s="74"/>
-      <c r="E1287" s="74"/>
-      <c r="F1287" s="74"/>
+      <c r="C1287" s="76"/>
+      <c r="D1287" s="76"/>
+      <c r="E1287" s="76"/>
+      <c r="F1287" s="76"/>
       <c r="G1287" s="28"/>
-      <c r="H1287" s="74"/>
+      <c r="H1287" s="76"/>
     </row>
     <row r="1288" spans="1:8">
-      <c r="A1288" s="74"/>
+      <c r="A1288" s="76"/>
       <c r="B1288" s="30"/>
-      <c r="C1288" s="74"/>
-      <c r="D1288" s="74"/>
-      <c r="E1288" s="74"/>
-      <c r="F1288" s="74"/>
+      <c r="C1288" s="76"/>
+      <c r="D1288" s="76"/>
+      <c r="E1288" s="76"/>
+      <c r="F1288" s="76"/>
       <c r="G1288" s="28"/>
-      <c r="H1288" s="74"/>
+      <c r="H1288" s="76"/>
     </row>
     <row r="1289" spans="1:8">
-      <c r="A1289" s="74"/>
+      <c r="A1289" s="76"/>
       <c r="B1289" s="30"/>
-      <c r="C1289" s="74"/>
-      <c r="D1289" s="74"/>
-      <c r="E1289" s="74"/>
-      <c r="F1289" s="74"/>
+      <c r="C1289" s="76"/>
+      <c r="D1289" s="76"/>
+      <c r="E1289" s="76"/>
+      <c r="F1289" s="76"/>
       <c r="G1289" s="28"/>
-      <c r="H1289" s="74"/>
+      <c r="H1289" s="76"/>
     </row>
     <row r="1290" spans="1:8">
       <c r="A1290" s="28"/>
@@ -18675,74 +18670,74 @@
       <c r="H1307" s="28"/>
     </row>
     <row r="1308" spans="1:8">
-      <c r="A1308" s="74"/>
+      <c r="A1308" s="76"/>
       <c r="B1308" s="30"/>
-      <c r="C1308" s="74"/>
-      <c r="D1308" s="74"/>
-      <c r="E1308" s="74"/>
-      <c r="F1308" s="74"/>
+      <c r="C1308" s="76"/>
+      <c r="D1308" s="76"/>
+      <c r="E1308" s="76"/>
+      <c r="F1308" s="76"/>
       <c r="G1308" s="28"/>
-      <c r="H1308" s="74"/>
+      <c r="H1308" s="76"/>
     </row>
     <row r="1309" spans="1:8">
-      <c r="A1309" s="74"/>
+      <c r="A1309" s="76"/>
       <c r="B1309" s="30"/>
-      <c r="C1309" s="74"/>
-      <c r="D1309" s="74"/>
-      <c r="E1309" s="74"/>
-      <c r="F1309" s="74"/>
+      <c r="C1309" s="76"/>
+      <c r="D1309" s="76"/>
+      <c r="E1309" s="76"/>
+      <c r="F1309" s="76"/>
       <c r="G1309" s="28"/>
-      <c r="H1309" s="74"/>
+      <c r="H1309" s="76"/>
     </row>
     <row r="1310" spans="1:8">
-      <c r="A1310" s="74"/>
+      <c r="A1310" s="76"/>
       <c r="B1310" s="30"/>
-      <c r="C1310" s="74"/>
-      <c r="D1310" s="74"/>
-      <c r="E1310" s="74"/>
-      <c r="F1310" s="74"/>
+      <c r="C1310" s="76"/>
+      <c r="D1310" s="76"/>
+      <c r="E1310" s="76"/>
+      <c r="F1310" s="76"/>
       <c r="G1310" s="28"/>
-      <c r="H1310" s="74"/>
+      <c r="H1310" s="76"/>
     </row>
     <row r="1311" spans="1:8">
-      <c r="A1311" s="74"/>
+      <c r="A1311" s="76"/>
       <c r="B1311" s="30"/>
-      <c r="C1311" s="74"/>
-      <c r="D1311" s="74"/>
-      <c r="E1311" s="74"/>
-      <c r="F1311" s="74"/>
+      <c r="C1311" s="76"/>
+      <c r="D1311" s="76"/>
+      <c r="E1311" s="76"/>
+      <c r="F1311" s="76"/>
       <c r="G1311" s="28"/>
-      <c r="H1311" s="74"/>
+      <c r="H1311" s="76"/>
     </row>
     <row r="1312" spans="1:8">
-      <c r="A1312" s="74"/>
+      <c r="A1312" s="76"/>
       <c r="B1312" s="30"/>
-      <c r="C1312" s="74"/>
-      <c r="D1312" s="74"/>
-      <c r="E1312" s="74"/>
-      <c r="F1312" s="74"/>
+      <c r="C1312" s="76"/>
+      <c r="D1312" s="76"/>
+      <c r="E1312" s="76"/>
+      <c r="F1312" s="76"/>
       <c r="G1312" s="28"/>
-      <c r="H1312" s="74"/>
+      <c r="H1312" s="76"/>
     </row>
     <row r="1313" spans="1:8">
-      <c r="A1313" s="74"/>
+      <c r="A1313" s="76"/>
       <c r="B1313" s="30"/>
-      <c r="C1313" s="74"/>
-      <c r="D1313" s="74"/>
-      <c r="E1313" s="74"/>
-      <c r="F1313" s="74"/>
+      <c r="C1313" s="76"/>
+      <c r="D1313" s="76"/>
+      <c r="E1313" s="76"/>
+      <c r="F1313" s="76"/>
       <c r="G1313" s="28"/>
-      <c r="H1313" s="74"/>
+      <c r="H1313" s="76"/>
     </row>
     <row r="1314" spans="1:8">
-      <c r="A1314" s="74"/>
+      <c r="A1314" s="76"/>
       <c r="B1314" s="30"/>
-      <c r="C1314" s="74"/>
-      <c r="D1314" s="74"/>
-      <c r="E1314" s="74"/>
-      <c r="F1314" s="74"/>
+      <c r="C1314" s="76"/>
+      <c r="D1314" s="76"/>
+      <c r="E1314" s="76"/>
+      <c r="F1314" s="76"/>
       <c r="G1314" s="28"/>
-      <c r="H1314" s="74"/>
+      <c r="H1314" s="76"/>
     </row>
     <row r="1315" spans="1:8">
       <c r="A1315" s="28"/>
@@ -18935,34 +18930,34 @@
       <c r="H1333" s="28"/>
     </row>
     <row r="1334" spans="1:8">
-      <c r="A1334" s="74"/>
+      <c r="A1334" s="76"/>
       <c r="B1334" s="30"/>
-      <c r="C1334" s="74"/>
-      <c r="D1334" s="74"/>
-      <c r="E1334" s="74"/>
-      <c r="F1334" s="74"/>
+      <c r="C1334" s="76"/>
+      <c r="D1334" s="76"/>
+      <c r="E1334" s="76"/>
+      <c r="F1334" s="76"/>
       <c r="G1334" s="28"/>
-      <c r="H1334" s="74"/>
+      <c r="H1334" s="76"/>
     </row>
     <row r="1335" spans="1:8">
-      <c r="A1335" s="74"/>
+      <c r="A1335" s="76"/>
       <c r="B1335" s="30"/>
-      <c r="C1335" s="74"/>
-      <c r="D1335" s="74"/>
-      <c r="E1335" s="74"/>
-      <c r="F1335" s="74"/>
+      <c r="C1335" s="76"/>
+      <c r="D1335" s="76"/>
+      <c r="E1335" s="76"/>
+      <c r="F1335" s="76"/>
       <c r="G1335" s="28"/>
-      <c r="H1335" s="74"/>
+      <c r="H1335" s="76"/>
     </row>
     <row r="1336" spans="1:8">
-      <c r="A1336" s="74"/>
+      <c r="A1336" s="76"/>
       <c r="B1336" s="30"/>
-      <c r="C1336" s="74"/>
-      <c r="D1336" s="74"/>
-      <c r="E1336" s="74"/>
-      <c r="F1336" s="74"/>
+      <c r="C1336" s="76"/>
+      <c r="D1336" s="76"/>
+      <c r="E1336" s="76"/>
+      <c r="F1336" s="76"/>
       <c r="G1336" s="28"/>
-      <c r="H1336" s="74"/>
+      <c r="H1336" s="76"/>
     </row>
     <row r="1337" spans="1:8">
       <c r="A1337" s="28"/>
@@ -19295,24 +19290,24 @@
       <c r="H1369" s="28"/>
     </row>
     <row r="1370" spans="1:8">
-      <c r="A1370" s="74"/>
+      <c r="A1370" s="76"/>
       <c r="B1370" s="30"/>
-      <c r="C1370" s="74"/>
-      <c r="D1370" s="74"/>
-      <c r="E1370" s="74"/>
-      <c r="F1370" s="74"/>
+      <c r="C1370" s="76"/>
+      <c r="D1370" s="76"/>
+      <c r="E1370" s="76"/>
+      <c r="F1370" s="76"/>
       <c r="G1370" s="28"/>
-      <c r="H1370" s="74"/>
+      <c r="H1370" s="76"/>
     </row>
     <row r="1371" spans="1:8">
-      <c r="A1371" s="74"/>
+      <c r="A1371" s="76"/>
       <c r="B1371" s="30"/>
-      <c r="C1371" s="74"/>
-      <c r="D1371" s="74"/>
-      <c r="E1371" s="74"/>
-      <c r="F1371" s="74"/>
+      <c r="C1371" s="76"/>
+      <c r="D1371" s="76"/>
+      <c r="E1371" s="76"/>
+      <c r="F1371" s="76"/>
       <c r="G1371" s="28"/>
-      <c r="H1371" s="74"/>
+      <c r="H1371" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="118">
@@ -19444,8 +19439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A930" workbookViewId="0">
-      <selection activeCell="C948" sqref="C948"/>
+    <sheetView topLeftCell="A1208" workbookViewId="0">
+      <selection activeCell="B1213" sqref="B1213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -19724,7 +19719,7 @@
         <v>76</v>
       </c>
       <c r="B33" s="67" t="s">
-        <v>895</v>
+        <v>794</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>77</v>
@@ -20158,7 +20153,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="67" t="s">
-        <v>895</v>
+        <v>794</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>94</v>
@@ -21153,7 +21148,7 @@
         <v>123</v>
       </c>
       <c r="B232" s="67" t="s">
-        <v>895</v>
+        <v>794</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>124</v>
@@ -21585,7 +21580,7 @@
         <v>132</v>
       </c>
       <c r="B293" s="67" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>133</v>
@@ -21733,7 +21728,7 @@
         <v>136</v>
       </c>
       <c r="B312" s="67" t="s">
-        <v>895</v>
+        <v>794</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>137</v>
@@ -22190,7 +22185,7 @@
         <v>146</v>
       </c>
       <c r="B378" s="67" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>147</v>
@@ -22306,7 +22301,7 @@
         <v>153</v>
       </c>
       <c r="B393" s="67" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>154</v>
@@ -24328,7 +24323,7 @@
         <v>243</v>
       </c>
       <c r="B659" s="67" t="s">
-        <v>895</v>
+        <v>794</v>
       </c>
       <c r="C659" s="3" t="s">
         <v>244</v>
@@ -24593,7 +24588,7 @@
         <v>245</v>
       </c>
       <c r="B694" s="68" t="s">
-        <v>895</v>
+        <v>794</v>
       </c>
       <c r="C694" s="3" t="s">
         <v>246</v>
@@ -24855,7 +24850,7 @@
         <v>249</v>
       </c>
       <c r="B729" s="68" t="s">
-        <v>895</v>
+        <v>794</v>
       </c>
       <c r="C729" s="3" t="s">
         <v>250</v>
@@ -25112,7 +25107,7 @@
         <v>251</v>
       </c>
       <c r="B763" s="70" t="s">
-        <v>895</v>
+        <v>794</v>
       </c>
       <c r="C763" s="3" t="s">
         <v>252</v>
@@ -25385,7 +25380,7 @@
         <v>253</v>
       </c>
       <c r="B799" s="21" t="s">
-        <v>897</v>
+        <v>794</v>
       </c>
       <c r="C799" s="21" t="s">
         <v>254</v>
@@ -26275,8 +26270,8 @@
       <c r="A868" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B868" s="75" t="s">
-        <v>897</v>
+      <c r="B868" s="71" t="s">
+        <v>794</v>
       </c>
       <c r="C868" s="3" t="s">
         <v>274</v>
@@ -26573,8 +26568,8 @@
       <c r="A908" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B908" s="75" t="s">
-        <v>897</v>
+      <c r="B908" s="71" t="s">
+        <v>794</v>
       </c>
       <c r="C908" s="3" t="s">
         <v>283</v>
@@ -26871,8 +26866,8 @@
       <c r="A948" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B948" s="3" t="s">
-        <v>893</v>
+      <c r="B948" s="71" t="s">
+        <v>794</v>
       </c>
       <c r="C948" s="3" t="s">
         <v>288</v>
@@ -27103,8 +27098,8 @@
       <c r="A976" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B976" s="3" t="s">
-        <v>893</v>
+      <c r="B976" s="71" t="s">
+        <v>794</v>
       </c>
       <c r="C976" s="3" t="s">
         <v>301</v>
@@ -28436,7 +28431,7 @@
         <v>327</v>
       </c>
       <c r="B1147" s="3" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C1147" s="3" t="s">
         <v>328</v>
@@ -28535,7 +28530,7 @@
         <v>335</v>
       </c>
       <c r="B1157" s="3" t="s">
-        <v>897</v>
+        <v>794</v>
       </c>
       <c r="C1157" s="3" t="s">
         <v>336</v>
@@ -28624,8 +28619,8 @@
       <c r="A1166" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B1166" s="3" t="s">
-        <v>897</v>
+      <c r="B1166" s="71" t="s">
+        <v>794</v>
       </c>
       <c r="C1166" s="3" t="s">
         <v>340</v>
@@ -29020,8 +29015,8 @@
       <c r="A1213" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B1213" s="3" t="s">
-        <v>897</v>
+      <c r="B1213" s="71" t="s">
+        <v>794</v>
       </c>
       <c r="C1213" s="3" t="s">
         <v>360</v>
@@ -29295,8 +29290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1335"/>
   <sheetViews>
-    <sheetView topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="C230" sqref="C230"/>
+    <sheetView topLeftCell="A537" workbookViewId="0">
+      <selection activeCell="E546" sqref="E546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -30156,7 +30151,7 @@
         <v>83</v>
       </c>
       <c r="B61" s="69" t="s">
-        <v>895</v>
+        <v>794</v>
       </c>
       <c r="C61" s="17" t="s">
         <v>389</v>
@@ -30528,7 +30523,7 @@
         <v>93</v>
       </c>
       <c r="B88" s="69" t="s">
-        <v>895</v>
+        <v>794</v>
       </c>
       <c r="C88" s="17" t="s">
         <v>396</v>
@@ -31324,7 +31319,7 @@
         <v>103</v>
       </c>
       <c r="B146" s="69" t="s">
-        <v>897</v>
+        <v>794</v>
       </c>
       <c r="C146" s="21" t="s">
         <v>401</v>
@@ -31696,7 +31691,7 @@
         <v>105</v>
       </c>
       <c r="B173" s="69" t="s">
-        <v>897</v>
+        <v>794</v>
       </c>
       <c r="C173" s="21" t="s">
         <v>408</v>
@@ -32092,7 +32087,7 @@
         <v>111</v>
       </c>
       <c r="B202" s="69" t="s">
-        <v>897</v>
+        <v>794</v>
       </c>
       <c r="C202" s="21" t="s">
         <v>414</v>
@@ -32475,8 +32470,8 @@
       <c r="A230" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B230" s="8" t="s">
-        <v>897</v>
+      <c r="B230" s="72" t="s">
+        <v>794</v>
       </c>
       <c r="C230" s="21" t="s">
         <v>154</v>
@@ -36710,7 +36705,7 @@
         <v>230</v>
       </c>
       <c r="B540" s="8" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C540" s="17" t="s">
         <v>462</v>
@@ -37500,7 +37495,7 @@
         <v>236</v>
       </c>
       <c r="B597" s="21" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C597" s="17" t="s">
         <v>464</v>
@@ -37886,7 +37881,7 @@
         <v>243</v>
       </c>
       <c r="B625" s="21" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C625" s="17" t="s">
         <v>465</v>
@@ -40893,7 +40888,7 @@
         <v>287</v>
       </c>
       <c r="B844" s="3" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C844" s="3" t="s">
         <v>477</v>
@@ -41321,7 +41316,7 @@
         <v>300</v>
       </c>
       <c r="B875" s="21" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C875" s="3" t="s">
         <v>478</v>
@@ -41747,7 +41742,7 @@
         <v>308</v>
       </c>
       <c r="B906" s="3" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C906" s="3" t="s">
         <v>479</v>
@@ -42161,7 +42156,7 @@
         <v>318</v>
       </c>
       <c r="B936" s="3" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C936" s="3" t="s">
         <v>480</v>
@@ -42603,7 +42598,7 @@
         <v>323</v>
       </c>
       <c r="B968" s="3" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C968" s="17" t="s">
         <v>481</v>
@@ -43451,7 +43446,7 @@
         <v>327</v>
       </c>
       <c r="B1029" s="3" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C1029" s="3" t="s">
         <v>483</v>
@@ -43973,7 +43968,7 @@
         <v>335</v>
       </c>
       <c r="B1067" s="3" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C1067" s="3" t="s">
         <v>485</v>
@@ -44495,7 +44490,7 @@
         <v>339</v>
       </c>
       <c r="B1105" s="3" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C1105" s="3" t="s">
         <v>486</v>
@@ -46341,7 +46336,7 @@
         <v>491</v>
       </c>
       <c r="B1239" s="3" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C1239" s="3" t="s">
         <v>328</v>
@@ -46487,7 +46482,7 @@
         <v>492</v>
       </c>
       <c r="B1249" s="3" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C1249" s="3" t="s">
         <v>336</v>
@@ -46619,7 +46614,7 @@
         <v>493</v>
       </c>
       <c r="B1258" s="3" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C1258" s="3" t="s">
         <v>340</v>
@@ -47259,7 +47254,7 @@
         <v>497</v>
       </c>
       <c r="B1304" s="3" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C1304" s="3" t="s">
         <v>498</v>
@@ -47705,8 +47700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1376"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B51" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1234" workbookViewId="0">
+      <selection activeCell="C1239" sqref="C1239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -48150,8 +48145,8 @@
       <c r="A51" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>893</v>
+      <c r="B51" s="71" t="s">
+        <v>794</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>505</v>
@@ -48329,8 +48324,8 @@
       <c r="A73" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>893</v>
+      <c r="B73" s="71" t="s">
+        <v>794</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>508</v>
@@ -48712,8 +48707,8 @@
       <c r="A121" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>893</v>
+      <c r="B121" s="71" t="s">
+        <v>794</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>514</v>
@@ -48900,7 +48895,7 @@
         <v>105</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>518</v>
@@ -49088,7 +49083,7 @@
         <v>111</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>521</v>
@@ -49270,8 +49265,8 @@
       <c r="A190" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B190" s="3" t="s">
-        <v>893</v>
+      <c r="B190" s="71" t="s">
+        <v>794</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>524</v>
@@ -49862,8 +49857,8 @@
       <c r="A265" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B265" s="3" t="s">
-        <v>893</v>
+      <c r="B265" s="71" t="s">
+        <v>794</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>533</v>
@@ -50023,8 +50018,8 @@
       <c r="A286" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B286" s="3" t="s">
-        <v>893</v>
+      <c r="B286" s="71" t="s">
+        <v>794</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>538</v>
@@ -54300,8 +54295,8 @@
       <c r="A811" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B811" s="3" t="s">
-        <v>893</v>
+      <c r="B811" s="71" t="s">
+        <v>794</v>
       </c>
       <c r="C811" s="3" t="s">
         <v>606</v>
@@ -54517,8 +54512,8 @@
       <c r="A837" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B837" s="3" t="s">
-        <v>893</v>
+      <c r="B837" s="71" t="s">
+        <v>794</v>
       </c>
       <c r="C837" s="3" t="s">
         <v>607</v>
@@ -54731,8 +54726,8 @@
       <c r="A863" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B863" s="3" t="s">
-        <v>893</v>
+      <c r="B863" s="71" t="s">
+        <v>794</v>
       </c>
       <c r="C863" s="3" t="s">
         <v>608</v>
@@ -54940,8 +54935,8 @@
       <c r="A888" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B888" s="3" t="s">
-        <v>893</v>
+      <c r="B888" s="71" t="s">
+        <v>794</v>
       </c>
       <c r="C888" s="3" t="s">
         <v>609</v>
@@ -55165,8 +55160,8 @@
       <c r="A915" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B915" s="3" t="s">
-        <v>893</v>
+      <c r="B915" s="71" t="s">
+        <v>794</v>
       </c>
       <c r="C915" s="3" t="s">
         <v>610</v>
@@ -55535,8 +55530,8 @@
       <c r="A959" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B959" s="21" t="s">
-        <v>893</v>
+      <c r="B959" s="69" t="s">
+        <v>794</v>
       </c>
       <c r="C959" s="21" t="s">
         <v>614</v>
@@ -56240,8 +56235,8 @@
       <c r="A1010" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="B1010" s="3" t="s">
-        <v>893</v>
+      <c r="B1010" s="71" t="s">
+        <v>794</v>
       </c>
       <c r="C1010" s="3" t="s">
         <v>616</v>
@@ -56519,7 +56514,7 @@
         <v>491</v>
       </c>
       <c r="B1044" s="3" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C1044" s="3" t="s">
         <v>619</v>
@@ -56796,8 +56791,8 @@
       <c r="A1078" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="B1078" s="3" t="s">
-        <v>893</v>
+      <c r="B1078" s="71" t="s">
+        <v>794</v>
       </c>
       <c r="C1078" s="3" t="s">
         <v>620</v>
@@ -57075,7 +57070,7 @@
         <v>493</v>
       </c>
       <c r="B1111" s="3" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C1111" s="3" t="s">
         <v>622</v>
@@ -58443,7 +58438,7 @@
         <v>634</v>
       </c>
       <c r="B1278" s="3" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="C1278" s="3" t="s">
         <v>328</v>
@@ -58542,7 +58537,7 @@
         <v>635</v>
       </c>
       <c r="B1288" s="3" t="s">
-        <v>897</v>
+        <v>794</v>
       </c>
       <c r="C1288" s="3" t="s">
         <v>336</v>
@@ -58632,7 +58627,7 @@
         <v>636</v>
       </c>
       <c r="B1297" s="3" t="s">
-        <v>897</v>
+        <v>794</v>
       </c>
       <c r="C1297" s="3" t="s">
         <v>340</v>
@@ -59031,7 +59026,7 @@
         <v>640</v>
       </c>
       <c r="B1344" s="3" t="s">
-        <v>895</v>
+        <v>794</v>
       </c>
       <c r="C1344" s="3" t="s">
         <v>641</v>
@@ -61205,6 +61200,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101007976F8CCA0ED0D47930681AA21DEEE24" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="5d6bb8c47ca5c908ea932f041c0d02bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="21ec7336-031d-40ce-b88b-6a916b8e11b4" xmlns:ns4="fe969a12-aade-4ac2-a23f-8e1b54a37ff5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79bbd8f77373bcb0829ef1b6439f04bf" ns3:_="" ns4:_="">
     <xsd:import namespace="21ec7336-031d-40ce-b88b-6a916b8e11b4"/>
@@ -61407,22 +61411,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF8AABAE-A744-4E9C-8170-C8585CA79AEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1020987D-2736-4945-83CD-D094942F0B74}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -61441,19 +61444,11 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CB26C50-9672-46A3-BDE2-4208B21162A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF8AABAE-A744-4E9C-8170-C8585CA79AEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/AutomationTracker.xlsx
+++ b/AutomationTracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8076" tabRatio="791" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8076" tabRatio="791" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="16" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="Signup" sheetId="18" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19439,8 +19438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1245"/>
   <sheetViews>
-    <sheetView topLeftCell="A1208" workbookViewId="0">
-      <selection activeCell="B1213" sqref="B1213"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -29290,8 +29289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1335"/>
   <sheetViews>
-    <sheetView topLeftCell="A537" workbookViewId="0">
-      <selection activeCell="E546" sqref="E546"/>
+    <sheetView topLeftCell="A1291" workbookViewId="0">
+      <selection activeCell="B1304" sqref="B1304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -40887,7 +40886,7 @@
       <c r="A844" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B844" s="3" t="s">
+      <c r="B844" s="71" t="s">
         <v>794</v>
       </c>
       <c r="C844" s="3" t="s">
@@ -41315,7 +41314,7 @@
       <c r="A875" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B875" s="21" t="s">
+      <c r="B875" s="69" t="s">
         <v>794</v>
       </c>
       <c r="C875" s="3" t="s">
@@ -41741,7 +41740,7 @@
       <c r="A906" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B906" s="3" t="s">
+      <c r="B906" s="71" t="s">
         <v>794</v>
       </c>
       <c r="C906" s="3" t="s">
@@ -42155,7 +42154,7 @@
       <c r="A936" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B936" s="3" t="s">
+      <c r="B936" s="71" t="s">
         <v>794</v>
       </c>
       <c r="C936" s="3" t="s">
@@ -42597,7 +42596,7 @@
       <c r="A968" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="B968" s="3" t="s">
+      <c r="B968" s="71" t="s">
         <v>794</v>
       </c>
       <c r="C968" s="17" t="s">
@@ -43445,7 +43444,7 @@
       <c r="A1029" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B1029" s="3" t="s">
+      <c r="B1029" s="71" t="s">
         <v>794</v>
       </c>
       <c r="C1029" s="3" t="s">
@@ -43967,7 +43966,7 @@
       <c r="A1067" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B1067" s="3" t="s">
+      <c r="B1067" s="71" t="s">
         <v>794</v>
       </c>
       <c r="C1067" s="3" t="s">
@@ -44489,7 +44488,7 @@
       <c r="A1105" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B1105" s="3" t="s">
+      <c r="B1105" s="71" t="s">
         <v>794</v>
       </c>
       <c r="C1105" s="3" t="s">
@@ -47253,7 +47252,7 @@
       <c r="A1304" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="B1304" s="3" t="s">
+      <c r="B1304" s="71" t="s">
         <v>794</v>
       </c>
       <c r="C1304" s="3" t="s">
@@ -47700,8 +47699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1234" workbookViewId="0">
-      <selection activeCell="C1239" sqref="C1239"/>
+    <sheetView topLeftCell="A1305" workbookViewId="0">
+      <selection activeCell="C1336" sqref="C1336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -58437,7 +58436,7 @@
       <c r="A1278" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="B1278" s="3" t="s">
+      <c r="B1278" s="71" t="s">
         <v>794</v>
       </c>
       <c r="C1278" s="3" t="s">
@@ -58536,7 +58535,7 @@
       <c r="A1288" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="B1288" s="3" t="s">
+      <c r="B1288" s="71" t="s">
         <v>794</v>
       </c>
       <c r="C1288" s="3" t="s">
@@ -58626,7 +58625,7 @@
       <c r="A1297" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="B1297" s="3" t="s">
+      <c r="B1297" s="71" t="s">
         <v>794</v>
       </c>
       <c r="C1297" s="3" t="s">
@@ -59025,7 +59024,7 @@
       <c r="A1344" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="B1344" s="3" t="s">
+      <c r="B1344" s="71" t="s">
         <v>794</v>
       </c>
       <c r="C1344" s="3" t="s">
@@ -61200,6 +61199,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -61208,7 +61213,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101007976F8CCA0ED0D47930681AA21DEEE24" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="5d6bb8c47ca5c908ea932f041c0d02bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="21ec7336-031d-40ce-b88b-6a916b8e11b4" xmlns:ns4="fe969a12-aade-4ac2-a23f-8e1b54a37ff5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79bbd8f77373bcb0829ef1b6439f04bf" ns3:_="" ns4:_="">
     <xsd:import namespace="21ec7336-031d-40ce-b88b-6a916b8e11b4"/>
@@ -61411,13 +61416,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CB26C50-9672-46A3-BDE2-4208B21162A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF8AABAE-A744-4E9C-8170-C8585CA79AEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -61425,7 +61433,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1020987D-2736-4945-83CD-D094942F0B74}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -61442,13 +61450,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CB26C50-9672-46A3-BDE2-4208B21162A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>